--- a/Gestão de SC em aberto - Engenharia de Projetos.xlsx
+++ b/Gestão de SC em aberto - Engenharia de Projetos.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23880" yWindow="-90" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compras" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SC deletadas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Compras'!$A$1:$U$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Compras'!$A$1:$U$77</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -46,6 +46,7 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -55,7 +56,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -84,12 +85,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002D62"/>
         <bgColor rgb="FF002D62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
@@ -233,13 +228,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -288,13 +283,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
@@ -311,9 +299,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
@@ -327,25 +312,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -370,6 +379,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,35 +398,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
@@ -425,6 +424,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,13 +826,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomRight" activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -850,159 +852,159 @@
     <col width="18" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
     <col width="176.42578125" customWidth="1" style="5" min="15" max="15"/>
     <col width="31.5703125" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
-    <col width="9.28515625" customWidth="1" style="1" min="17" max="20"/>
-    <col width="9.28515625" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="9.28515625" customWidth="1" style="1" min="17" max="21"/>
+    <col width="9.28515625" customWidth="1" style="1" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" s="3">
-      <c r="A1" s="48" t="inlineStr">
+      <c r="A1" s="51" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t>ÁREA DE COMPRAS</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="51" t="inlineStr">
         <is>
           <t>WBS</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="51" t="inlineStr">
         <is>
           <t>PROJETO</t>
         </is>
       </c>
-      <c r="E1" s="48" t="inlineStr">
+      <c r="E1" s="51" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="F1" s="51" t="inlineStr">
         <is>
           <t>CONTEÚDO</t>
         </is>
       </c>
-      <c r="G1" s="49" t="inlineStr">
+      <c r="G1" s="52" t="inlineStr">
         <is>
           <t>DATA CRIAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="48" t="inlineStr">
+      <c r="H1" s="51" t="inlineStr">
         <is>
           <t>DIAS EM ABERTO</t>
         </is>
       </c>
-      <c r="I1" s="48" t="inlineStr">
+      <c r="I1" s="51" t="inlineStr">
         <is>
           <t>DEP.</t>
         </is>
       </c>
-      <c r="J1" s="48" t="inlineStr">
+      <c r="J1" s="51" t="inlineStr">
         <is>
           <t>REQUISITANTE</t>
         </is>
       </c>
-      <c r="K1" s="48" t="inlineStr">
+      <c r="K1" s="51" t="inlineStr">
         <is>
           <t>VALOR</t>
         </is>
       </c>
-      <c r="L1" s="48" t="inlineStr">
+      <c r="L1" s="51" t="inlineStr">
         <is>
           <t>COMPRADOR</t>
         </is>
       </c>
-      <c r="M1" s="48" t="inlineStr">
+      <c r="M1" s="51" t="inlineStr">
         <is>
           <t>PENDENTE COM</t>
         </is>
       </c>
-      <c r="N1" s="48" t="inlineStr">
+      <c r="N1" s="51" t="inlineStr">
         <is>
           <t>RECEBIDA EM</t>
         </is>
       </c>
-      <c r="O1" s="50" t="inlineStr">
+      <c r="O1" s="53" t="inlineStr">
         <is>
           <t>COMENTÁRIOS</t>
         </is>
       </c>
-      <c r="P1" s="48" t="inlineStr">
+      <c r="P1" s="51" t="inlineStr">
         <is>
           <t>COMENTÁRIOS ADICIONAIS</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26.1" customHeight="1" s="3">
-      <c r="A2" s="51" t="inlineStr">
+      <c r="A2" s="54" t="inlineStr">
         <is>
           <t>129727118</t>
         </is>
       </c>
-      <c r="B2" s="52" t="inlineStr">
+      <c r="B2" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C2" s="51" t="inlineStr">
+      <c r="C2" s="56" t="inlineStr">
         <is>
           <t>LCP-210196</t>
         </is>
       </c>
-      <c r="D2" s="52" t="inlineStr">
+      <c r="D2" s="55" t="inlineStr">
         <is>
           <t>AME - 4 PCI (8) CAVITIES</t>
         </is>
       </c>
-      <c r="E2" s="53" t="inlineStr">
+      <c r="E2" s="57" t="inlineStr">
         <is>
           <t>LCP-210196 - PCI'S ROGERS INSTALL (4)</t>
         </is>
       </c>
-      <c r="F2" s="53" t="inlineStr">
+      <c r="F2" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G2" s="54" t="n">
+      <c r="G2" s="58" t="n">
         <v>45315</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="59">
         <f>IF(M2&lt;&gt;"OK",TODAY()-G2,"OK")</f>
         <v/>
       </c>
-      <c r="I2" s="55" t="inlineStr">
+      <c r="I2" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J2" s="52" t="inlineStr">
+      <c r="J2" s="55" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K2" s="56" t="n">
+      <c r="K2" s="60" t="n">
         <v>500000</v>
       </c>
-      <c r="L2" s="57" t="inlineStr">
+      <c r="L2" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M2" s="55" t="inlineStr">
+      <c r="M2" s="59" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="N2" s="55" t="inlineStr">
+      <c r="N2" s="59" t="inlineStr">
         <is>
           <t>21.05.2025 08:21:24</t>
         </is>
       </c>
-      <c r="O2" s="52" t="inlineStr">
+      <c r="O2" s="55" t="inlineStr">
         <is>
           <t>11/02 - Lucas enviou em 02/02 a equalização técnica mas sem as propostas dos fornecedores. Roseane enviou por teams em 11/02 os arquivos do processo anterior, mas foi aberto um novo processo no dia 11/02 e reenviado aos fornecedores Ricamil, Proeng, Atus, Itaya com prazo para retorno até dia 28/02. 
 07/03 - Foi encaminhado as propostas para o Lucas ENG para confirmar se as propostas enviadas pelos fornecedores estavam batendo com as propostas equalizadas por ele. Compras está aguardando esta confirmação para iniciar as negociações.
@@ -1011,109 +1013,109 @@
 04/07 - Lucas precisa remarcar uam reunião técnica com os fornecedores para repassar o escopo</t>
         </is>
       </c>
-      <c r="P2" s="55" t="n"/>
+      <c r="P2" s="59" t="n"/>
     </row>
     <row r="3" ht="52.15" customHeight="1" s="3">
-      <c r="A3" s="51" t="inlineStr">
+      <c r="A3" s="54" t="inlineStr">
         <is>
           <t>130669071</t>
         </is>
       </c>
-      <c r="B3" s="52" t="inlineStr">
+      <c r="B3" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C3" s="51" t="inlineStr">
+      <c r="C3" s="56" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D3" s="52" t="inlineStr">
+      <c r="D3" s="55" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E3" s="53" t="inlineStr">
+      <c r="E3" s="57" t="inlineStr">
         <is>
           <t>LCP 230060 Mechanical package quad7</t>
         </is>
       </c>
-      <c r="F3" s="53" t="inlineStr">
+      <c r="F3" s="57" t="inlineStr">
         <is>
           <t>Aluguel de máquinas e equipamentos</t>
         </is>
       </c>
-      <c r="G3" s="54" t="n">
+      <c r="G3" s="58" t="n">
         <v>45391</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="59">
         <f>IF(M3&lt;&gt;"OK",TODAY()-G3,"OK")</f>
         <v/>
       </c>
-      <c r="I3" s="55" t="inlineStr">
+      <c r="I3" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J3" s="52" t="inlineStr">
+      <c r="J3" s="55" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K3" s="56" t="n">
+      <c r="K3" s="60" t="n">
         <v>5480323</v>
       </c>
-      <c r="L3" s="58" t="inlineStr">
+      <c r="L3" s="62" t="inlineStr">
         <is>
           <t>André</t>
         </is>
       </c>
-      <c r="M3" s="55" t="inlineStr">
-        <is>
-          <t>CLAUDIA ARBELAEZ</t>
-        </is>
-      </c>
-      <c r="N3" s="55" t="inlineStr">
-        <is>
-          <t>03.07.2025 07:24:45</t>
-        </is>
-      </c>
-      <c r="O3" s="52" t="inlineStr">
+      <c r="M3" s="59" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="N3" s="59" t="inlineStr">
+        <is>
+          <t>10.07.2025 17:09:28</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="inlineStr">
         <is>
           <t>Recebido proposta técnicas e foram aprovadas. Tem que negociar com os fornecedores
 30/05 - Expectativa de encaminhar ainda hoje para aprovação</t>
         </is>
       </c>
-      <c r="P3" s="52" t="n"/>
+      <c r="P3" s="55" t="n"/>
     </row>
     <row r="4" ht="78" customHeight="1" s="3">
-      <c r="A4" s="59" t="inlineStr">
+      <c r="A4" s="64" t="inlineStr">
         <is>
           <t>131214412</t>
         </is>
       </c>
-      <c r="B4" s="57" t="inlineStr">
+      <c r="B4" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C4" s="59" t="inlineStr">
+      <c r="C4" s="64" t="inlineStr">
         <is>
           <t>LCP-240102</t>
         </is>
       </c>
-      <c r="D4" s="57" t="inlineStr">
+      <c r="D4" s="61" t="inlineStr">
         <is>
           <t>NEW AIR COMPRESSOR - 100 PSI - CENTAC 20</t>
         </is>
       </c>
-      <c r="E4" s="60" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>LCP-240102 - CENTAC #20</t>
         </is>
       </c>
-      <c r="F4" s="60" t="inlineStr">
+      <c r="F4" s="65" t="inlineStr">
         <is>
           <t>COMPRESSOR CENTRIFUGO C70041M3;
 FILTRO QUÍMICO 85655009;
@@ -1122,115 +1124,115 @@
 POST FILTER DRYER ASSEMBLY</t>
         </is>
       </c>
-      <c r="G4" s="54" t="n">
+      <c r="G4" s="58" t="n">
         <v>45435</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="59">
         <f>IF(M4&lt;&gt;"OK",TODAY()-G4,"OK")</f>
         <v/>
       </c>
-      <c r="I4" s="55" t="inlineStr">
+      <c r="I4" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J4" s="57" t="inlineStr">
+      <c r="J4" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K4" s="61" t="n">
+      <c r="K4" s="66" t="n">
         <v>2391000</v>
       </c>
-      <c r="L4" s="57" t="inlineStr">
+      <c r="L4" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M4" s="57" t="inlineStr">
+      <c r="M4" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N4" s="57" t="inlineStr">
+      <c r="N4" s="61" t="inlineStr">
         <is>
           <t>04.07.2024 13:39:52</t>
         </is>
       </c>
-      <c r="O4" s="57" t="inlineStr">
-        <is>
-          <t>04/07 - Alocação de Capex está para 2026</t>
-        </is>
-      </c>
-      <c r="P4" s="57" t="n"/>
+      <c r="O4" s="61" t="inlineStr">
+        <is>
+          <t>04/07 - Alocação de Capex está para 2026, porém o time de compras ja pode iniciar as negociações e colocar a SC em rota de aprovação.</t>
+        </is>
+      </c>
+      <c r="P4" s="61" t="n"/>
     </row>
     <row r="5" ht="26.1" customHeight="1" s="3">
-      <c r="A5" s="59" t="inlineStr">
+      <c r="A5" s="64" t="inlineStr">
         <is>
           <t>131285139</t>
         </is>
       </c>
-      <c r="B5" s="52" t="inlineStr">
+      <c r="B5" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C5" s="51" t="inlineStr">
+      <c r="C5" s="56" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D5" s="52" t="inlineStr">
+      <c r="D5" s="55" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E5" s="53" t="inlineStr">
+      <c r="E5" s="57" t="inlineStr">
         <is>
           <t>LCP 230060 - Projeto Q7</t>
         </is>
       </c>
-      <c r="F5" s="53" t="inlineStr">
+      <c r="F5" s="57" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G5" s="54" t="n">
+      <c r="G5" s="58" t="n">
         <v>45441</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="59">
         <f>IF(M5&lt;&gt;"OK",TODAY()-G5,"OK")</f>
         <v/>
       </c>
-      <c r="I5" s="55" t="inlineStr">
+      <c r="I5" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J5" s="52" t="inlineStr">
+      <c r="J5" s="55" t="inlineStr">
         <is>
           <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
         </is>
       </c>
-      <c r="K5" s="56" t="n">
+      <c r="K5" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="58" t="inlineStr">
+      <c r="L5" s="62" t="inlineStr">
         <is>
           <t>KATHERINE</t>
         </is>
       </c>
-      <c r="M5" s="62" t="inlineStr">
+      <c r="M5" s="67" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N5" s="62" t="inlineStr">
+      <c r="N5" s="67" t="inlineStr">
         <is>
           <t>08.07.2025 15:20:05</t>
         </is>
       </c>
-      <c r="O5" s="52" t="inlineStr">
+      <c r="O5" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve">Responsável - Carlos Matioli
 31/01 - Aguardando revisão para reenviar aos fornecedores. Atus, Works, Proeng, Eletrocamp, Ricamil, MP
@@ -1244,146 +1246,144 @@
 </t>
         </is>
       </c>
-      <c r="P5" s="55" t="n"/>
+      <c r="P5" s="59" t="n"/>
     </row>
     <row r="6" ht="72.59999999999999" customHeight="1" s="3">
-      <c r="A6" s="59" t="inlineStr">
-        <is>
-          <t>131299352</t>
-        </is>
-      </c>
-      <c r="B6" s="57" t="inlineStr">
+      <c r="A6" s="64" t="n">
+        <v>131299352</v>
+      </c>
+      <c r="B6" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C6" s="59" t="inlineStr">
+      <c r="C6" s="64" t="inlineStr">
         <is>
           <t>LCP-240100</t>
         </is>
       </c>
-      <c r="D6" s="57" t="inlineStr">
+      <c r="D6" s="61" t="inlineStr">
         <is>
           <t>NEW CHILLER</t>
         </is>
       </c>
-      <c r="E6" s="60" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>Projeto para novo chiller</t>
         </is>
       </c>
-      <c r="F6" s="60" t="inlineStr">
+      <c r="F6" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G6" s="54" t="n">
+      <c r="G6" s="58" t="n">
         <v>45442</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="59">
         <f>IF(M6&lt;&gt;"OK",TODAY()-G6,"OK")</f>
         <v/>
       </c>
-      <c r="I6" s="55" t="inlineStr">
+      <c r="I6" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J6" s="57" t="inlineStr">
+      <c r="J6" s="61" t="inlineStr">
         <is>
           <t>ALAN PEDROSO</t>
         </is>
       </c>
-      <c r="K6" s="61" t="n">
+      <c r="K6" s="66" t="n">
         <v>50000</v>
       </c>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="L6" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M6" s="57" t="inlineStr">
+      <c r="M6" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N6" s="57" t="inlineStr">
+      <c r="N6" s="61" t="inlineStr">
         <is>
           <t>30.05.2024 11:55:49</t>
         </is>
       </c>
-      <c r="O6" s="57" t="n"/>
-      <c r="P6" s="57" t="n"/>
+      <c r="O6" s="61" t="n"/>
+      <c r="P6" s="61" t="n"/>
     </row>
     <row r="7" ht="104.1" customHeight="1" s="3">
-      <c r="A7" s="59" t="inlineStr">
+      <c r="A7" s="64" t="inlineStr">
         <is>
           <t>131556669</t>
         </is>
       </c>
-      <c r="B7" s="57" t="inlineStr">
+      <c r="B7" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C7" s="59" t="inlineStr">
+      <c r="C7" s="64" t="inlineStr">
         <is>
           <t>LCP-210018</t>
         </is>
       </c>
-      <c r="D7" s="57" t="inlineStr">
+      <c r="D7" s="61" t="inlineStr">
         <is>
           <t>REPLACEMENT OF BOTTOM COOLING TANK D#4</t>
         </is>
       </c>
-      <c r="E7" s="60" t="inlineStr">
+      <c r="E7" s="65" t="inlineStr">
         <is>
           <t>DUPLEX #4- TANQUES RESFRIAMENTO</t>
         </is>
       </c>
-      <c r="F7" s="60" t="inlineStr">
+      <c r="F7" s="65" t="inlineStr">
         <is>
           <t>SET COOLING TANK D # 04 TQ2;
 SET COOLING TANK D#04 TQ3;
 SET PLATFORM AND GUARDRAIL D#04</t>
         </is>
       </c>
-      <c r="G7" s="54" t="n">
+      <c r="G7" s="58" t="n">
         <v>45476</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="59">
         <f>IF(M7&lt;&gt;"OK",TODAY()-G7,"OK")</f>
         <v/>
       </c>
-      <c r="I7" s="55" t="inlineStr">
+      <c r="I7" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J7" s="57" t="inlineStr">
+      <c r="J7" s="61" t="inlineStr">
         <is>
           <t>ROGERIO SIA</t>
         </is>
       </c>
-      <c r="K7" s="61" t="n">
+      <c r="K7" s="66" t="n">
         <v>60000</v>
       </c>
-      <c r="L7" s="57" t="inlineStr">
+      <c r="L7" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M7" s="57" t="inlineStr">
+      <c r="M7" s="61" t="inlineStr">
         <is>
           <t>ROGERIO SIA</t>
         </is>
       </c>
-      <c r="N7" s="57" t="inlineStr">
-        <is>
-          <t>09.06.2025 13:54:31</t>
-        </is>
-      </c>
-      <c r="O7" s="57" t="inlineStr">
+      <c r="N7" s="61" t="inlineStr">
+        <is>
+          <t>10.07.2025 13:44:12</t>
+        </is>
+      </c>
+      <c r="O7" s="61" t="inlineStr">
         <is>
           <t>05/02/2025 - Aguardando proposta Somartec revisada para encaminhar para Eng GY
 06/02/2025 - Enviado proposta para Eng GY avaliar tecnicamente. Compras está aguardando revisão para seguir com o processo de negociação
@@ -1392,35 +1392,35 @@
 04/07 - Engenharia enviou o Beakdown. Aguardando time de compras</t>
         </is>
       </c>
-      <c r="P7" s="57" t="n"/>
+      <c r="P7" s="61" t="n"/>
     </row>
     <row r="8" ht="90" customHeight="1" s="3">
-      <c r="A8" s="59" t="inlineStr">
+      <c r="A8" s="64" t="inlineStr">
         <is>
           <t>131556669</t>
         </is>
       </c>
-      <c r="B8" s="57" t="inlineStr">
+      <c r="B8" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C8" s="59" t="inlineStr">
+      <c r="C8" s="64" t="inlineStr">
         <is>
           <t>LCP-250030</t>
         </is>
       </c>
-      <c r="D8" s="57" t="inlineStr">
+      <c r="D8" s="61" t="inlineStr">
         <is>
           <t>AME - REPLACEMENT OF BOTTOM COOLING TANK D#4 - PHASE 2</t>
         </is>
       </c>
-      <c r="E8" s="60" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>DUPLEX #4- TANQUES RESFRIAMENTO</t>
         </is>
       </c>
-      <c r="F8" s="60" t="inlineStr">
+      <c r="F8" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres;
 CJ d Cooling tank #1 duplex #4;
@@ -1430,42 +1430,42 @@
 Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G8" s="54" t="n">
+      <c r="G8" s="58" t="n">
         <v>45476</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="59">
         <f>IF(M8&lt;&gt;"OK",TODAY()-G8,"OK")</f>
         <v/>
       </c>
-      <c r="I8" s="55" t="inlineStr">
+      <c r="I8" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J8" s="57" t="inlineStr">
+      <c r="J8" s="61" t="inlineStr">
         <is>
           <t>ROGERIO SIA</t>
         </is>
       </c>
-      <c r="K8" s="61" t="n">
+      <c r="K8" s="66" t="n">
         <v>4635000</v>
       </c>
-      <c r="L8" s="57" t="inlineStr">
+      <c r="L8" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M8" s="57" t="inlineStr">
+      <c r="M8" s="61" t="inlineStr">
         <is>
           <t>ROGERIO SIA</t>
         </is>
       </c>
-      <c r="N8" s="57" t="inlineStr">
-        <is>
-          <t>09.06.2025 13:54:31</t>
-        </is>
-      </c>
-      <c r="O8" s="57" t="inlineStr">
+      <c r="N8" s="61" t="inlineStr">
+        <is>
+          <t>10.07.2025 13:44:12</t>
+        </is>
+      </c>
+      <c r="O8" s="61" t="inlineStr">
         <is>
           <t>05/02/2025 - Aguardando proposta Somartec revisada para encaminhar para Eng GY
 06/02/2025 - Enviado proposta para Eng GY avaliar tecnicamente. Compras está aguardando revisão para seguir com o processo de negociação
@@ -1474,487 +1474,491 @@
 04/07 - Engenharia enviou o Beakdown. Aguardando time de compras</t>
         </is>
       </c>
-      <c r="P8" s="57" t="n"/>
+      <c r="P8" s="61" t="n"/>
     </row>
     <row r="9" ht="58.15" customHeight="1" s="3">
-      <c r="A9" s="51" t="inlineStr">
+      <c r="A9" s="54" t="inlineStr">
         <is>
           <t>131564321</t>
         </is>
       </c>
-      <c r="B9" s="52" t="inlineStr">
+      <c r="B9" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C9" s="51" t="inlineStr">
+      <c r="C9" s="56" t="inlineStr">
         <is>
           <t>LCP-240093</t>
         </is>
       </c>
-      <c r="D9" s="52" t="inlineStr">
+      <c r="D9" s="55" t="inlineStr">
         <is>
           <t>AME - NEW TRUCK GATE</t>
         </is>
       </c>
-      <c r="E9" s="53" t="inlineStr">
+      <c r="E9" s="57" t="inlineStr">
         <is>
           <t>LCP-240093 - NEW TRUCK GATE - CIVIL</t>
         </is>
       </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="F9" s="57" t="inlineStr">
         <is>
           <t>Execução, empreitada constr.civil</t>
         </is>
       </c>
-      <c r="G9" s="54" t="n">
+      <c r="G9" s="58" t="n">
         <v>45477</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="59">
         <f>IF(M9&lt;&gt;"OK",TODAY()-G9,"OK")</f>
         <v/>
       </c>
-      <c r="I9" s="55" t="inlineStr">
+      <c r="I9" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J9" s="57" t="inlineStr">
+      <c r="J9" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K9" s="61" t="n">
+      <c r="K9" s="66" t="n">
         <v>100000</v>
       </c>
-      <c r="L9" s="58" t="inlineStr">
+      <c r="L9" s="62" t="inlineStr">
         <is>
           <t>André</t>
         </is>
       </c>
-      <c r="M9" s="55" t="inlineStr">
-        <is>
-          <t>RICARDO SAAVEDRA</t>
-        </is>
-      </c>
-      <c r="N9" s="55" t="inlineStr">
-        <is>
-          <t>04.02.2025 07:57:36</t>
-        </is>
-      </c>
-      <c r="O9" s="52" t="inlineStr">
+      <c r="M9" s="59" t="inlineStr">
+        <is>
+          <t>ANDRE MONFRINATO</t>
+        </is>
+      </c>
+      <c r="N9" s="59" t="inlineStr">
+        <is>
+          <t>10.07.2025 08:53:19</t>
+        </is>
+      </c>
+      <c r="O9" s="55" t="inlineStr">
         <is>
           <t>Feito BID completo, porém no fim do processo foi constatado que as empresas não teriam capacidade de atender o escopo.
 01/06/2025 - Processo reiniciado. Definido novas empresas que irão participar do BID - Novo prazo estimado para ter o PO é Outubro 2025</t>
         </is>
       </c>
-      <c r="P9" s="52" t="n"/>
+      <c r="P9" s="55" t="n"/>
     </row>
     <row r="10" ht="87" customHeight="1" s="3">
-      <c r="A10" s="59" t="inlineStr">
+      <c r="A10" s="64" t="inlineStr">
         <is>
           <t>131606822</t>
         </is>
       </c>
-      <c r="B10" s="57" t="inlineStr">
+      <c r="B10" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C10" s="59" t="inlineStr">
+      <c r="C10" s="64" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D10" s="57" t="inlineStr">
+      <c r="D10" s="61" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E10" s="60" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>LCP 230060 Quad Equipment Setter</t>
         </is>
       </c>
-      <c r="F10" s="60" t="inlineStr">
+      <c r="F10" s="65" t="inlineStr">
         <is>
           <t>Fornecimento M.O. temporário, contratad</t>
         </is>
       </c>
-      <c r="G10" s="54" t="n">
+      <c r="G10" s="58" t="n">
         <v>45484</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="59">
         <f>IF(M10&lt;&gt;"OK",TODAY()-G10,"OK")</f>
         <v/>
       </c>
-      <c r="I10" s="55" t="inlineStr">
+      <c r="I10" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J10" s="57" t="inlineStr">
+      <c r="J10" s="61" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K10" s="61" t="n">
+      <c r="K10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="L10" s="57" t="n"/>
-      <c r="M10" s="57" t="inlineStr">
+      <c r="L10" s="61" t="n"/>
+      <c r="M10" s="61" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="N10" s="57" t="inlineStr">
+      <c r="N10" s="61" t="inlineStr">
         <is>
           <t>21.01.2025 16:30:37</t>
         </is>
       </c>
-      <c r="O10" s="57" t="n"/>
-      <c r="P10" s="57" t="n"/>
+      <c r="O10" s="61" t="n"/>
+      <c r="P10" s="61" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1" s="3">
-      <c r="A11" s="59" t="inlineStr">
+      <c r="A11" s="64" t="inlineStr">
         <is>
           <t>131799960</t>
         </is>
       </c>
-      <c r="B11" s="57" t="inlineStr">
+      <c r="B11" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C11" s="59" t="inlineStr">
+      <c r="C11" s="64" t="inlineStr">
         <is>
           <t>LCP-240100</t>
         </is>
       </c>
-      <c r="D11" s="57" t="inlineStr">
+      <c r="D11" s="61" t="inlineStr">
         <is>
           <t>NEW CHILLER</t>
         </is>
       </c>
-      <c r="E11" s="60" t="inlineStr">
+      <c r="E11" s="65" t="inlineStr">
         <is>
           <t>Novo chilller - FSB</t>
         </is>
       </c>
-      <c r="F11" s="60" t="inlineStr">
+      <c r="F11" s="65" t="inlineStr">
         <is>
           <t>CHILLER PAC 108S;
 Lubrificação, limpeza, conserto, manuten</t>
         </is>
       </c>
-      <c r="G11" s="54" t="n">
+      <c r="G11" s="58" t="n">
         <v>45511</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="59">
         <f>IF(M11&lt;&gt;"OK",TODAY()-G11,"OK")</f>
         <v/>
       </c>
-      <c r="I11" s="55" t="inlineStr">
+      <c r="I11" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J11" s="57" t="inlineStr">
+      <c r="J11" s="61" t="inlineStr">
         <is>
           <t>ALAN PEDROSO</t>
         </is>
       </c>
-      <c r="K11" s="61" t="n">
+      <c r="K11" s="66" t="n">
         <v>650000</v>
       </c>
-      <c r="L11" s="57" t="inlineStr">
+      <c r="L11" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M11" s="57" t="inlineStr">
+      <c r="M11" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N11" s="57" t="inlineStr">
+      <c r="N11" s="61" t="inlineStr">
         <is>
           <t>03.03.2025 11:52:29</t>
         </is>
       </c>
-      <c r="O11" s="57" t="n"/>
-      <c r="P11" s="57" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
     </row>
     <row r="12" ht="29.1" customHeight="1" s="3">
-      <c r="A12" s="59" t="inlineStr">
+      <c r="A12" s="64" t="inlineStr">
         <is>
           <t>132003762</t>
         </is>
       </c>
-      <c r="B12" s="57" t="inlineStr">
+      <c r="B12" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C12" s="59" t="inlineStr">
+      <c r="C12" s="64" t="inlineStr">
         <is>
           <t>LCP-230121</t>
         </is>
       </c>
-      <c r="D12" s="57" t="inlineStr">
+      <c r="D12" s="61" t="inlineStr">
         <is>
           <t>AER - NEW BUILDING MACHINE (AZ/SOL) - VMI MACHINE</t>
         </is>
       </c>
-      <c r="E12" s="60" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>Infra/Instalação AZ SOL</t>
         </is>
       </c>
-      <c r="F12" s="60" t="inlineStr">
+      <c r="F12" s="65" t="inlineStr">
         <is>
           <t>Lubrificação, limpeza, conserto, manuten</t>
         </is>
       </c>
-      <c r="G12" s="54" t="n">
+      <c r="G12" s="58" t="n">
         <v>45537</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="59">
         <f>IF(M12&lt;&gt;"OK",TODAY()-G12,"OK")</f>
         <v/>
       </c>
-      <c r="I12" s="55" t="inlineStr">
+      <c r="I12" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J12" s="57" t="inlineStr">
+      <c r="J12" s="61" t="inlineStr">
         <is>
           <t>ALAN PEDROSO</t>
         </is>
       </c>
-      <c r="K12" s="61" t="n">
+      <c r="K12" s="66" t="n">
         <v>101000</v>
       </c>
-      <c r="L12" s="57" t="inlineStr">
+      <c r="L12" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M12" s="57" t="inlineStr">
+      <c r="M12" s="61" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="N12" s="57" t="inlineStr">
+      <c r="N12" s="61" t="inlineStr">
         <is>
           <t>02.09.2024 17:02:36</t>
         </is>
       </c>
-      <c r="O12" s="57" t="n"/>
-      <c r="P12" s="57" t="n"/>
+      <c r="O12" s="61" t="n"/>
+      <c r="P12" s="61" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="inlineStr">
+      <c r="A13" s="68" t="inlineStr">
         <is>
           <t>132096670</t>
         </is>
       </c>
-      <c r="B13" s="57" t="inlineStr">
+      <c r="B13" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C13" s="59" t="inlineStr">
+      <c r="C13" s="64" t="inlineStr">
         <is>
           <t>LCP-250006</t>
         </is>
       </c>
-      <c r="D13" s="57" t="inlineStr">
+      <c r="D13" s="61" t="inlineStr">
         <is>
           <t>AME - 2025 MISCELLANEOUS ANNUAL BUDGET</t>
         </is>
       </c>
-      <c r="E13" s="60" t="inlineStr">
+      <c r="E13" s="65" t="inlineStr">
         <is>
           <t>Serv. Engenheiro de Projetos - Quartely</t>
         </is>
       </c>
-      <c r="F13" s="60" t="inlineStr">
+      <c r="F13" s="65" t="inlineStr">
         <is>
           <t>Fornecimento M.O. temporário, contratad</t>
         </is>
       </c>
-      <c r="G13" s="54" t="n">
+      <c r="G13" s="58" t="n">
         <v>45548</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="59">
         <f>IF(M13&lt;&gt;"OK",TODAY()-G13,"OK")</f>
         <v/>
       </c>
-      <c r="I13" s="55" t="inlineStr">
+      <c r="I13" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J13" s="57" t="inlineStr">
+      <c r="J13" s="61" t="inlineStr">
         <is>
           <t>EBENEZER DA ROCHA DAINEZ</t>
         </is>
       </c>
-      <c r="K13" s="61" t="n">
+      <c r="K13" s="66" t="n">
         <v>100000</v>
       </c>
-      <c r="L13" s="57" t="inlineStr">
+      <c r="L13" s="61" t="inlineStr">
         <is>
           <t>CAROLINA MARTINS</t>
         </is>
       </c>
-      <c r="M13" s="57" t="inlineStr">
+      <c r="M13" s="61" t="inlineStr">
         <is>
           <t>EBENEZER DA ROCHA DAINEZ</t>
         </is>
       </c>
-      <c r="N13" s="57" t="inlineStr">
+      <c r="N13" s="61" t="inlineStr">
         <is>
           <t>13.05.2025 12:34:02</t>
         </is>
       </c>
-      <c r="O13" s="57" t="n"/>
-      <c r="P13" s="57" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="inlineStr">
+      <c r="A14" s="64" t="inlineStr">
         <is>
           <t>132119839</t>
         </is>
       </c>
-      <c r="B14" s="57" t="inlineStr">
+      <c r="B14" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C14" s="59" t="inlineStr">
+      <c r="C14" s="64" t="inlineStr">
         <is>
           <t>LCP-240102</t>
         </is>
       </c>
-      <c r="D14" s="57" t="inlineStr">
+      <c r="D14" s="61" t="inlineStr">
         <is>
           <t>NEW AIR COMPRESSOR - 100 PSI - CENTAC 20</t>
         </is>
       </c>
-      <c r="E14" s="60" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>LCP-240102 PROJ E INST. PLATAFORMA FILTR</t>
         </is>
       </c>
-      <c r="F14" s="60" t="inlineStr">
+      <c r="F14" s="65" t="inlineStr">
         <is>
           <t>PLATAFORMA METALICA PARA FILTRO QUIMICO</t>
         </is>
       </c>
-      <c r="G14" s="54" t="n">
+      <c r="G14" s="58" t="n">
         <v>45551</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="59">
         <f>IF(M14&lt;&gt;"OK",TODAY()-G14,"OK")</f>
         <v/>
       </c>
-      <c r="I14" s="55" t="inlineStr">
+      <c r="I14" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J14" s="57" t="inlineStr">
+      <c r="J14" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K14" s="61" t="n">
+      <c r="K14" s="66" t="n">
         <v>10000</v>
       </c>
-      <c r="L14" s="57" t="n"/>
-      <c r="M14" s="57" t="inlineStr">
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="N14" s="57" t="inlineStr">
+      <c r="N14" s="61" t="inlineStr">
         <is>
           <t>07.02.2025 04:30:48</t>
         </is>
       </c>
-      <c r="O14" s="57" t="n"/>
-      <c r="P14" s="57" t="n"/>
+      <c r="O14" s="61" t="inlineStr">
+        <is>
+          <t>04/07 - Alocação de Capex está para 2026, porém o time de compras ja pode iniciar as negociações e colocar a SC em rota de aprovação.</t>
+        </is>
+      </c>
+      <c r="P14" s="61" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="inlineStr">
+      <c r="A15" s="64" t="inlineStr">
         <is>
           <t>132158893</t>
         </is>
       </c>
-      <c r="B15" s="57" t="inlineStr">
+      <c r="B15" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C15" s="59" t="inlineStr">
+      <c r="C15" s="64" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D15" s="57" t="inlineStr">
+      <c r="D15" s="61" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E15" s="60" t="inlineStr">
+      <c r="E15" s="65" t="inlineStr">
         <is>
           <t>LCP 230060 new goodplace</t>
         </is>
       </c>
-      <c r="F15" s="60" t="inlineStr">
+      <c r="F15" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G15" s="54" t="n">
+      <c r="G15" s="58" t="n">
         <v>45556</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="59">
         <f>IF(M15&lt;&gt;"OK",TODAY()-G15,"OK")</f>
         <v/>
       </c>
-      <c r="I15" s="55" t="inlineStr">
+      <c r="I15" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J15" s="57" t="inlineStr">
+      <c r="J15" s="61" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K15" s="61" t="n">
+      <c r="K15" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="57" t="inlineStr">
+      <c r="L15" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M15" s="57" t="inlineStr">
+      <c r="M15" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N15" s="57" t="inlineStr">
+      <c r="N15" s="61" t="inlineStr">
         <is>
           <t>21.09.2024 11:58:13</t>
         </is>
       </c>
-      <c r="O15" s="57" t="inlineStr">
+      <c r="O15" s="61" t="inlineStr">
         <is>
           <t>Aguardando retorno Cave/ OSV/Ridarp para enviar para Engenharia Reavaliar.
 05/02 - OSV Solicitou ao Thiago horário para reunião para esclarecer dúvidas.Agendado para dia 10/02 pela Engenharia Goodyear. 
@@ -1966,153 +1970,153 @@
 29/05 - Engenharia revisou o escopo e deu prazo até o dia 06/05 para retorno dos fornecedores</t>
         </is>
       </c>
-      <c r="P15" s="57" t="inlineStr">
+      <c r="P15" s="61" t="inlineStr">
         <is>
           <t>Cave/ OSV/ Ridarp/Ryce updated offer</t>
         </is>
       </c>
     </row>
     <row r="16" ht="116.1" customHeight="1" s="3">
-      <c r="A16" s="51" t="inlineStr">
+      <c r="A16" s="54" t="inlineStr">
         <is>
           <t>132237682</t>
         </is>
       </c>
-      <c r="B16" s="52" t="inlineStr">
+      <c r="B16" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C16" s="51" t="inlineStr">
+      <c r="C16" s="56" t="inlineStr">
         <is>
           <t>LCP-240102</t>
         </is>
       </c>
-      <c r="D16" s="52" t="inlineStr">
+      <c r="D16" s="55" t="inlineStr">
         <is>
           <t>NEW AIR COMPRESSOR - 100 PSI - CENTAC 20</t>
         </is>
       </c>
-      <c r="E16" s="53" t="inlineStr">
+      <c r="E16" s="57" t="inlineStr">
         <is>
           <t>LCP-240102 - Projeto Torre Resfriamento</t>
         </is>
       </c>
-      <c r="F16" s="63" t="inlineStr">
+      <c r="F16" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G16" s="54" t="n">
+      <c r="G16" s="58" t="n">
         <v>45566</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="59">
         <f>IF(M16&lt;&gt;"OK",TODAY()-G16,"OK")</f>
         <v/>
       </c>
-      <c r="I16" s="55" t="inlineStr">
+      <c r="I16" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J16" s="57" t="inlineStr">
+      <c r="J16" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K16" s="56" t="n">
+      <c r="K16" s="60" t="n">
         <v>5000</v>
       </c>
-      <c r="L16" s="62" t="inlineStr">
+      <c r="L16" s="67" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="M16" s="62" t="inlineStr">
-        <is>
-          <t>RICARDO DA SILVA NETO</t>
-        </is>
-      </c>
-      <c r="N16" s="62" t="inlineStr">
-        <is>
-          <t>01.10.2024 11:28:03</t>
-        </is>
-      </c>
-      <c r="O16" s="52" t="inlineStr">
+      <c r="M16" s="67" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N16" s="67" t="inlineStr">
+        <is>
+          <t>10.07.2025 09:13:54</t>
+        </is>
+      </c>
+      <c r="O16" s="55" t="inlineStr">
         <is>
           <t>10/02 - E-mail encamnhado para os fornecedores ( Marcato, Deproi e Indaclima) Prazo de retorno 12/02. Obs. SC está com teco ainda.
 16/05- SC sem ação se compras, esta com TECO ainda. Fui informado que so vai sr liberado em 2026.</t>
         </is>
       </c>
-      <c r="P16" s="52" t="n"/>
+      <c r="P16" s="55" t="n"/>
     </row>
     <row r="17" ht="26.1" customHeight="1" s="3">
-      <c r="A17" s="51" t="inlineStr">
+      <c r="A17" s="54" t="inlineStr">
         <is>
           <t>132247419</t>
         </is>
       </c>
-      <c r="B17" s="52" t="inlineStr">
+      <c r="B17" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C17" s="51" t="inlineStr">
+      <c r="C17" s="56" t="inlineStr">
         <is>
           <t>LCP-240093</t>
         </is>
       </c>
-      <c r="D17" s="52" t="inlineStr">
+      <c r="D17" s="55" t="inlineStr">
         <is>
           <t>AME - NEW TRUCK GATE</t>
         </is>
       </c>
-      <c r="E17" s="53" t="inlineStr">
+      <c r="E17" s="57" t="inlineStr">
         <is>
           <t>LCP-240093 - Balança Rodoviária Bi Train</t>
         </is>
       </c>
-      <c r="F17" s="53" t="inlineStr">
+      <c r="F17" s="57" t="inlineStr">
         <is>
           <t>BALANÇA RODOVIÁRIA BI TRAIN EMBUTIDA</t>
         </is>
       </c>
-      <c r="G17" s="54" t="n">
+      <c r="G17" s="58" t="n">
         <v>45567</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="59">
         <f>IF(M17&lt;&gt;"OK",TODAY()-G17,"OK")</f>
         <v/>
       </c>
-      <c r="I17" s="55" t="inlineStr">
+      <c r="I17" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J17" s="57" t="inlineStr">
+      <c r="J17" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K17" s="56" t="n">
+      <c r="K17" s="60" t="n">
         <v>175000</v>
       </c>
-      <c r="L17" s="62" t="inlineStr">
+      <c r="L17" s="67" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="M17" s="62" t="inlineStr">
+      <c r="M17" s="67" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="N17" s="62" t="inlineStr">
+      <c r="N17" s="67" t="inlineStr">
         <is>
           <t>06.06.2025 10:44:11</t>
         </is>
       </c>
-      <c r="O17" s="52" t="inlineStr">
+      <c r="O17" s="55" t="inlineStr">
         <is>
           <t>Reenviar para fornecedores atualizarem as propostas. 
 07/03 - Maicon vai fazer FUP até que todas as propostas estejam tecnicamente aprovadas
@@ -2125,80 +2129,80 @@
 05/06 - Aguardando requistante equalizar os fornecedores tecnicamente.</t>
         </is>
       </c>
-      <c r="P17" s="52" t="inlineStr">
+      <c r="P17" s="55" t="inlineStr">
         <is>
           <t>Equalização feita. 
 30/01 - Tirado Teco</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="51" t="inlineStr">
+    <row r="18" ht="67.5" customHeight="1" s="3">
+      <c r="A18" s="54" t="inlineStr">
         <is>
           <t>132271597</t>
         </is>
       </c>
-      <c r="B18" s="52" t="inlineStr">
+      <c r="B18" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C18" s="51" t="inlineStr">
+      <c r="C18" s="56" t="inlineStr">
         <is>
           <t>LCP-220048</t>
         </is>
       </c>
-      <c r="D18" s="52" t="inlineStr">
+      <c r="D18" s="55" t="inlineStr">
         <is>
           <t>AME - OTR PRESS TRANSFER (P85)</t>
         </is>
       </c>
-      <c r="E18" s="53" t="inlineStr">
+      <c r="E18" s="57" t="inlineStr">
         <is>
           <t>Instal.Isolemanto térmico Vulca AC06</t>
         </is>
       </c>
-      <c r="F18" s="53" t="inlineStr">
+      <c r="F18" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G18" s="54" t="n">
+      <c r="G18" s="58" t="n">
         <v>45570</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="59">
         <f>IF(M18&lt;&gt;"OK",TODAY()-G18,"OK")</f>
         <v/>
       </c>
-      <c r="I18" s="55" t="inlineStr">
+      <c r="I18" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J18" s="52" t="inlineStr">
+      <c r="J18" s="55" t="inlineStr">
         <is>
           <t>HEBERT FERREIRA</t>
         </is>
       </c>
-      <c r="K18" s="56" t="n">
+      <c r="K18" s="60" t="n">
         <v>35000</v>
       </c>
-      <c r="L18" s="62" t="inlineStr">
+      <c r="L18" s="67" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="M18" s="62" t="inlineStr">
+      <c r="M18" s="67" t="inlineStr">
         <is>
           <t>HEBERT FERREIRA</t>
         </is>
       </c>
-      <c r="N18" s="62" t="inlineStr">
+      <c r="N18" s="67" t="inlineStr">
         <is>
           <t>11.02.2025 08:46:46</t>
         </is>
       </c>
-      <c r="O18" s="52" t="inlineStr">
+      <c r="O18" s="55" t="inlineStr">
         <is>
           <t>04/12 - Email encaminhado para Vapor Total realizar visita técnica, o fornecedor Mundial está com o cadastro bloqueado e Isar declinou.
 07/12 - RFQ aberto dia 06/02. Aguardando Engenharia agendar visita com Vapor Total 
@@ -2207,75 +2211,75 @@
 06/06 - Aguardando proposta tecnica revisada Vapor Total. Prazo  10/06</t>
         </is>
       </c>
-      <c r="P18" s="52" t="n"/>
+      <c r="P18" s="55" t="n"/>
     </row>
     <row r="19" ht="65.09999999999999" customHeight="1" s="3">
-      <c r="A19" s="51" t="inlineStr">
+      <c r="A19" s="54" t="inlineStr">
         <is>
           <t>132271684</t>
         </is>
       </c>
-      <c r="B19" s="52" t="inlineStr">
+      <c r="B19" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C19" s="51" t="inlineStr">
+      <c r="C19" s="56" t="inlineStr">
         <is>
           <t>LCP-240087</t>
         </is>
       </c>
-      <c r="D19" s="52" t="inlineStr">
+      <c r="D19" s="55" t="inlineStr">
         <is>
           <t>AME - UPGRADE GENERAL PANEL B2 CURING</t>
         </is>
       </c>
-      <c r="E19" s="53" t="inlineStr">
+      <c r="E19" s="57" t="inlineStr">
         <is>
           <t>Inst. Isolam. Térmico Válvulas Linha S/T</t>
         </is>
       </c>
-      <c r="F19" s="53" t="inlineStr">
+      <c r="F19" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G19" s="54" t="n">
+      <c r="G19" s="58" t="n">
         <v>45570</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="59">
         <f>IF(M19&lt;&gt;"OK",TODAY()-G19,"OK")</f>
         <v/>
       </c>
-      <c r="I19" s="55" t="inlineStr">
+      <c r="I19" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J19" s="52" t="inlineStr">
+      <c r="J19" s="55" t="inlineStr">
         <is>
           <t>HEBERT FERREIRA</t>
         </is>
       </c>
-      <c r="K19" s="56" t="n">
+      <c r="K19" s="60" t="n">
         <v>45000</v>
       </c>
-      <c r="L19" s="62" t="inlineStr">
+      <c r="L19" s="67" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="M19" s="62" t="inlineStr">
+      <c r="M19" s="67" t="inlineStr">
         <is>
           <t>HEBERT FERREIRA</t>
         </is>
       </c>
-      <c r="N19" s="62" t="inlineStr">
+      <c r="N19" s="67" t="inlineStr">
         <is>
           <t>11.02.2025 08:46:16</t>
         </is>
       </c>
-      <c r="O19" s="52" t="inlineStr">
+      <c r="O19" s="55" t="inlineStr">
         <is>
           <t>04/12 - Email encaminhado para Vapor Total realizar visita técnica, o fornecedor Mundial está com o cadastro bloqueado e Isar declinou.
 07/12 - RFQ aberto dia 06/02. Aguardando Engenharia agendar visita com Vapor Total 
@@ -2284,222 +2288,221 @@
 06/06 - Aguardando proposta tecnica revisada Vapor Total. Prazo  10/06</t>
         </is>
       </c>
-      <c r="P19" s="52" t="n"/>
+      <c r="P19" s="55" t="n"/>
     </row>
     <row r="20" ht="65.09999999999999" customHeight="1" s="3">
-      <c r="A20" s="51" t="inlineStr">
-        <is>
-          <t>132302384</t>
-        </is>
-      </c>
-      <c r="B20" s="52" t="inlineStr">
+      <c r="A20" s="54" t="n">
+        <v>132302384</v>
+      </c>
+      <c r="B20" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C20" s="51" t="inlineStr">
+      <c r="C20" s="56" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D20" s="52" t="inlineStr">
+      <c r="D20" s="55" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E20" s="53" t="inlineStr">
+      <c r="E20" s="57" t="inlineStr">
         <is>
           <t>LCP 230060 Quad 7 fire system design</t>
         </is>
       </c>
-      <c r="F20" s="53" t="inlineStr">
+      <c r="F20" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G20" s="54" t="n">
+      <c r="G20" s="58" t="n">
         <v>45574</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="59">
         <f>IF(M20&lt;&gt;"OK",TODAY()-G20,"OK")</f>
         <v/>
       </c>
-      <c r="I20" s="55" t="inlineStr">
+      <c r="I20" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J20" s="52" t="inlineStr">
+      <c r="J20" s="55" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K20" s="56" t="n">
+      <c r="K20" s="60" t="n">
         <v>152000</v>
       </c>
-      <c r="L20" s="57" t="inlineStr">
+      <c r="L20" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M20" s="62" t="inlineStr">
+      <c r="M20" s="67" t="inlineStr">
         <is>
           <t>FABIO DA SILVA</t>
         </is>
       </c>
-      <c r="N20" s="62" t="inlineStr">
+      <c r="N20" s="67" t="inlineStr">
         <is>
           <t>09.07.2025 10:23:03</t>
         </is>
       </c>
-      <c r="O20" s="52" t="inlineStr">
-        <is>
-          <t>31/01 - Aguardando revisão técnica Engenharia</t>
-        </is>
-      </c>
-      <c r="P20" s="55" t="n"/>
+      <c r="O20" s="63" t="inlineStr">
+        <is>
+          <t>31/01 - Aguardando revisão técnica Engenharia
+09/07 - SC em rota de aprovação</t>
+        </is>
+      </c>
+      <c r="P20" s="59" t="n"/>
     </row>
     <row r="21" ht="81" customHeight="1" s="3">
-      <c r="A21" s="51" t="inlineStr">
+      <c r="A21" s="54" t="inlineStr">
         <is>
           <t>132320679</t>
         </is>
       </c>
-      <c r="B21" s="52" t="inlineStr">
+      <c r="B21" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C21" s="51" t="inlineStr">
+      <c r="C21" s="56" t="inlineStr">
         <is>
           <t>LCP-240102</t>
         </is>
       </c>
-      <c r="D21" s="52" t="inlineStr">
+      <c r="D21" s="55" t="inlineStr">
         <is>
           <t>NEW AIR COMPRESSOR - 100 PSI - CENTAC 20</t>
         </is>
       </c>
-      <c r="E21" s="53" t="inlineStr">
+      <c r="E21" s="57" t="inlineStr">
         <is>
           <t>LCP-240102 - Projeto Sala Monitoramento</t>
         </is>
       </c>
-      <c r="F21" s="63" t="inlineStr">
+      <c r="F21" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G21" s="54" t="n">
+      <c r="G21" s="58" t="n">
         <v>45576</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="59">
         <f>IF(M21&lt;&gt;"OK",TODAY()-G21,"OK")</f>
         <v/>
       </c>
-      <c r="I21" s="55" t="inlineStr">
+      <c r="I21" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J21" s="57" t="inlineStr">
+      <c r="J21" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K21" s="56" t="n">
+      <c r="K21" s="60" t="n">
         <v>15000</v>
       </c>
-      <c r="L21" s="62" t="inlineStr">
+      <c r="L21" s="67" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="M21" s="62" t="inlineStr">
-        <is>
-          <t>RICARDO DA SILVA NETO</t>
-        </is>
-      </c>
-      <c r="N21" s="62" t="inlineStr">
-        <is>
-          <t>11.10.2024 17:05:32</t>
-        </is>
-      </c>
-      <c r="O21" s="52" t="inlineStr">
+      <c r="M21" s="67" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N21" s="67" t="inlineStr">
+        <is>
+          <t>10.07.2025 09:15:15</t>
+        </is>
+      </c>
+      <c r="O21" s="55" t="inlineStr">
         <is>
           <t>10/02 - E-mail encamnhado para os fornecedores ( Marcato, Mantest e Charles) Prazo de retorno 12/02. Obs. SC está com teco ainda.
 16/05 - Sc esta com TECO ainda. Fui informado que vai ser liberado somente em 2026.</t>
         </is>
       </c>
-      <c r="P21" s="52" t="n"/>
+      <c r="P21" s="55" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="inlineStr">
+      <c r="A22" s="54" t="inlineStr">
         <is>
           <t>133141377</t>
         </is>
       </c>
-      <c r="B22" s="52" t="inlineStr">
+      <c r="B22" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C22" s="51" t="inlineStr">
+      <c r="C22" s="56" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D22" s="52" t="inlineStr">
+      <c r="D22" s="55" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E22" s="53" t="inlineStr">
+      <c r="E22" s="57" t="inlineStr">
         <is>
           <t>LCP-240140 - Predios TBM e Estoque Molde</t>
         </is>
       </c>
-      <c r="F22" s="53" t="inlineStr">
+      <c r="F22" s="57" t="inlineStr">
         <is>
           <t>Execução, empreitada constr.civil</t>
         </is>
       </c>
-      <c r="G22" s="54" t="n">
+      <c r="G22" s="58" t="n">
         <v>45663</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="59">
         <f>IF(M22&lt;&gt;"OK",TODAY()-G22,"OK")</f>
         <v/>
       </c>
-      <c r="I22" s="55" t="inlineStr">
+      <c r="I22" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J22" s="52" t="inlineStr">
+      <c r="J22" s="55" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K22" s="61" t="n">
+      <c r="K22" s="66" t="n">
         <v>1000</v>
       </c>
-      <c r="L22" s="58" t="inlineStr">
+      <c r="L22" s="62" t="inlineStr">
         <is>
           <t>KATHERINE</t>
         </is>
       </c>
-      <c r="M22" s="55" t="inlineStr">
+      <c r="M22" s="59" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N22" s="55" t="inlineStr">
+      <c r="N22" s="59" t="inlineStr">
         <is>
           <t>03.07.2025 08:36:08</t>
         </is>
       </c>
-      <c r="O22" s="52" t="inlineStr">
+      <c r="O22" s="55" t="inlineStr">
         <is>
           <t>31/01Declinio Manara e Engevale cond pag/ Fonseca e Mercadante declinaram por falta de disponibilidade de atender o projeto. Rio verde devido ao tamanho do projeto pequeno declinou. Ridarp/ Novac e Trieng. Precisa tentar Afonso França seguem no processo
 30/05/2025 - Processo está com a Katherine. Status:
@@ -2508,143 +2511,76 @@
 Manara: Estamos aguardando confirmação se irão continuar no processo.</t>
         </is>
       </c>
-      <c r="P22" s="52" t="n"/>
-    </row>
-    <row r="23" ht="43.5" customHeight="1" s="3">
-      <c r="A23" s="59" t="inlineStr">
-        <is>
-          <t>133206001</t>
-        </is>
-      </c>
-      <c r="B23" s="57" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C23" s="59" t="inlineStr">
-        <is>
-          <t>LCP-220207</t>
-        </is>
-      </c>
-      <c r="D23" s="57" t="inlineStr">
-        <is>
-          <t>AME PIGMENT WEIGHT SYSTEM</t>
-        </is>
-      </c>
-      <c r="E23" s="60" t="inlineStr">
-        <is>
-          <t>SC p/ compra de 3 Access Points - FAM</t>
-        </is>
-      </c>
-      <c r="F23" s="60" t="inlineStr">
-        <is>
-          <t>ACCESS POINT- CATALYST C9120AXE-Z;
-Antena Access Point Externo 2.4GHz 4dBi;
-Licenciamento, cessão uso programas</t>
-        </is>
-      </c>
-      <c r="G23" s="54" t="n">
-        <v>45670</v>
-      </c>
-      <c r="H23" s="55">
-        <f>IF(M23&lt;&gt;"OK",TODAY()-G23,"OK")</f>
-        <v/>
-      </c>
-      <c r="I23" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J23" s="57" t="inlineStr">
-        <is>
-          <t>DERLI JUNIOR</t>
-        </is>
-      </c>
-      <c r="K23" s="61" t="n">
-        <v>49612.89</v>
-      </c>
-      <c r="L23" s="57" t="n"/>
-      <c r="M23" s="57" t="inlineStr">
-        <is>
-          <t>DERLI JUNIOR</t>
-        </is>
-      </c>
-      <c r="N23" s="57" t="inlineStr">
-        <is>
-          <t>25.06.2025 13:33:44</t>
-        </is>
-      </c>
-      <c r="O23" s="57" t="n"/>
-      <c r="P23" s="65" t="n"/>
-    </row>
-    <row r="24" ht="104.1" customHeight="1" s="3">
-      <c r="A24" s="51" t="inlineStr">
+      <c r="P22" s="55" t="n"/>
+    </row>
+    <row r="23" ht="104.1" customHeight="1" s="3">
+      <c r="A23" s="54" t="inlineStr">
         <is>
           <t>133228192</t>
         </is>
       </c>
-      <c r="B24" s="52" t="inlineStr">
+      <c r="B23" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C24" s="51" t="inlineStr">
+      <c r="C23" s="56" t="inlineStr">
         <is>
           <t>LCP-210146</t>
         </is>
       </c>
-      <c r="D24" s="52" t="inlineStr">
+      <c r="D23" s="55" t="inlineStr">
         <is>
           <t>AME - NR12 - WIRE CALENDER - BRZ MANDATORY</t>
         </is>
       </c>
-      <c r="E24" s="53" t="inlineStr">
+      <c r="E23" s="57" t="inlineStr">
         <is>
           <t>Proteções mecânicas Calandra Z</t>
         </is>
       </c>
-      <c r="F24" s="53" t="inlineStr">
+      <c r="F23" s="57" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare;
 modular aluminum protection</t>
         </is>
       </c>
-      <c r="G24" s="54" t="n">
+      <c r="G23" s="58" t="n">
         <v>45672</v>
       </c>
-      <c r="H24" s="55">
-        <f>IF(M24&lt;&gt;"OK",TODAY()-G24,"OK")</f>
-        <v/>
-      </c>
-      <c r="I24" s="55" t="inlineStr">
+      <c r="H23" s="59">
+        <f>IF(M23&lt;&gt;"OK",TODAY()-G23,"OK")</f>
+        <v/>
+      </c>
+      <c r="I23" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J24" s="52" t="inlineStr">
+      <c r="J23" s="55" t="inlineStr">
         <is>
           <t>WILLIAN SOUZA</t>
         </is>
       </c>
-      <c r="K24" s="56" t="n">
+      <c r="K23" s="60" t="n">
         <v>400000</v>
       </c>
-      <c r="L24" s="58" t="inlineStr">
+      <c r="L23" s="62" t="inlineStr">
         <is>
           <t>ALEXANDRE SANT ANNA</t>
         </is>
       </c>
-      <c r="M24" s="55" t="inlineStr">
-        <is>
-          <t>CLAUDIA ARBELAEZ</t>
-        </is>
-      </c>
-      <c r="N24" s="55" t="inlineStr">
+      <c r="M23" s="59" t="inlineStr">
+        <is>
+          <t>RICARDO DE MELLO PINTO</t>
+        </is>
+      </c>
+      <c r="N23" s="59" t="inlineStr">
         <is>
           <t>03.07.2025 14:09:45</t>
         </is>
       </c>
-      <c r="O24" s="52" t="inlineStr">
+      <c r="O23" s="63" t="inlineStr">
         <is>
           <t>03/02 - Enviado o convite visita técnica para os forncedores:  GII, K3, M Garcia com o prazo para o dia 10.02.202
 14/02 - Empresas compareceram e GY está aguardando propostas técnicas 
@@ -2657,108 +2593,106 @@
 04/07 - Aguardando aprovacao da Claudia e da Sarah (Claudia está de férias)</t>
         </is>
       </c>
-      <c r="P24" s="52" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="51" t="inlineStr">
-        <is>
-          <t>133275001</t>
-        </is>
-      </c>
-      <c r="B25" s="52" t="inlineStr">
+      <c r="P23" s="55" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="54" t="n">
+        <v>133275001</v>
+      </c>
+      <c r="B24" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C25" s="51" t="inlineStr">
+      <c r="C24" s="56" t="inlineStr">
         <is>
           <t>LCP-240193</t>
         </is>
       </c>
-      <c r="D25" s="52" t="inlineStr">
+      <c r="D24" s="55" t="inlineStr">
         <is>
           <t>MC - CARBON PROJECT 17" - GRAVATAI</t>
         </is>
       </c>
-      <c r="E25" s="53" t="inlineStr">
+      <c r="E24" s="57" t="inlineStr">
         <is>
           <t>Upgrade Mont SemiAut - CM Gravataí</t>
         </is>
       </c>
-      <c r="F25" s="53" t="inlineStr">
+      <c r="F24" s="57" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G25" s="54" t="n">
+      <c r="G24" s="58" t="n">
         <v>45677</v>
       </c>
-      <c r="H25" s="55">
-        <f>IF(M25&lt;&gt;"OK",TODAY()-G25,"OK")</f>
-        <v/>
-      </c>
-      <c r="I25" s="55" t="inlineStr">
+      <c r="H24" s="59">
+        <f>IF(M24&lt;&gt;"OK",TODAY()-G24,"OK")</f>
+        <v/>
+      </c>
+      <c r="I24" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J25" s="52" t="inlineStr">
+      <c r="J24" s="55" t="inlineStr">
         <is>
           <t>RONALDO CAPELLI</t>
         </is>
       </c>
-      <c r="K25" s="56" t="n">
+      <c r="K24" s="60" t="n">
         <v>580000</v>
       </c>
-      <c r="L25" s="57" t="inlineStr">
+      <c r="L24" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M25" s="62" t="inlineStr">
+      <c r="M24" s="67" t="inlineStr">
         <is>
           <t>SARAH PEDROZA</t>
         </is>
       </c>
-      <c r="N25" s="62" t="inlineStr">
+      <c r="N24" s="67" t="inlineStr">
         <is>
           <t>02.07.2025 10:09:38</t>
         </is>
       </c>
-      <c r="O25" s="66" t="inlineStr">
+      <c r="O24" s="63" t="inlineStr">
         <is>
           <t>Compras já realizou a parte dele. Está em rota de aprovação</t>
         </is>
       </c>
-      <c r="P25" s="55" t="n"/>
-    </row>
-    <row r="26" ht="78" customHeight="1" s="3">
-      <c r="A26" s="51" t="inlineStr">
+      <c r="P24" s="59" t="n"/>
+    </row>
+    <row r="25" ht="78" customHeight="1" s="3">
+      <c r="A25" s="54" t="inlineStr">
         <is>
           <t>133372834</t>
         </is>
       </c>
-      <c r="B26" s="52" t="inlineStr">
+      <c r="B25" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C26" s="51" t="inlineStr">
+      <c r="C25" s="56" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D26" s="52" t="inlineStr">
+      <c r="D25" s="55" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E26" s="67" t="inlineStr">
+      <c r="E25" s="69" t="inlineStr">
         <is>
           <t>Network Equipments - Quad #7 Extruder</t>
         </is>
       </c>
-      <c r="F26" s="67" t="inlineStr">
+      <c r="F25" s="69" t="inlineStr">
         <is>
           <t>Catalyst IE3300 with 8 GE PoE+ and 2 GE;
 Catalyst IE3300 with 16 GE Copper ports;
@@ -2768,264 +2702,264 @@
 1000Mbps Single Mode</t>
         </is>
       </c>
-      <c r="G26" s="54" t="n">
+      <c r="G25" s="58" t="n">
         <v>45687</v>
       </c>
-      <c r="H26" s="55">
-        <f>IF(M26&lt;&gt;"OK",TODAY()-G26,"OK")</f>
-        <v/>
-      </c>
-      <c r="I26" s="55" t="inlineStr">
+      <c r="H25" s="59">
+        <f>IF(M25&lt;&gt;"OK",TODAY()-G25,"OK")</f>
+        <v/>
+      </c>
+      <c r="I25" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J26" s="55" t="inlineStr">
+      <c r="J25" s="59" t="inlineStr">
         <is>
           <t>STEFFANY PEREIRA</t>
         </is>
       </c>
-      <c r="K26" s="56" t="n">
+      <c r="K25" s="60" t="n">
         <v>86063.06</v>
       </c>
-      <c r="L26" s="55" t="inlineStr">
+      <c r="L25" s="59" t="inlineStr">
         <is>
           <t>JONAS SHARTENER</t>
         </is>
       </c>
-      <c r="M26" s="55" t="inlineStr">
+      <c r="M25" s="59" t="inlineStr">
         <is>
           <t>JONAS SHARTENER</t>
         </is>
       </c>
-      <c r="N26" s="55" t="inlineStr">
+      <c r="N25" s="59" t="inlineStr">
         <is>
           <t>18.02.2025 15:47:56</t>
         </is>
       </c>
-      <c r="O26" s="55" t="inlineStr">
+      <c r="O25" s="59" t="inlineStr">
         <is>
           <t>23/05 - Adicionado na planilha
 30/05 - Expectativa de fechar negociação até dia 09/06 e contrato até dia 29/06</t>
         </is>
       </c>
-      <c r="P26" s="55" t="n"/>
-    </row>
-    <row r="27" ht="26.1" customHeight="1" s="3">
-      <c r="A27" s="51" t="inlineStr">
+      <c r="P25" s="59" t="n"/>
+    </row>
+    <row r="26" ht="26.1" customHeight="1" s="3">
+      <c r="A26" s="54" t="inlineStr">
         <is>
           <t>133378924</t>
         </is>
       </c>
-      <c r="B27" s="52" t="inlineStr">
+      <c r="B26" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C27" s="51" t="inlineStr">
+      <c r="C26" s="56" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D27" s="52" t="inlineStr">
+      <c r="D26" s="55" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E27" s="53" t="inlineStr">
+      <c r="E26" s="57" t="inlineStr">
         <is>
           <t>LCP-240140 - COOLING SYSTEM COLD CHAMBER</t>
         </is>
       </c>
-      <c r="F27" s="53" t="inlineStr">
+      <c r="F26" s="57" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G27" s="54" t="n">
+      <c r="G26" s="58" t="n">
         <v>45688</v>
       </c>
-      <c r="H27" s="55">
-        <f>IF(M27&lt;&gt;"OK",TODAY()-G27,"OK")</f>
-        <v/>
-      </c>
-      <c r="I27" s="55" t="inlineStr">
+      <c r="H26" s="59">
+        <f>IF(M26&lt;&gt;"OK",TODAY()-G26,"OK")</f>
+        <v/>
+      </c>
+      <c r="I26" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J27" s="52" t="inlineStr">
+      <c r="J26" s="55" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K27" s="56" t="n">
+      <c r="K26" s="60" t="n">
         <v>1000</v>
       </c>
-      <c r="L27" s="57" t="inlineStr">
+      <c r="L26" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M27" s="55" t="inlineStr">
+      <c r="M26" s="59" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N27" s="55" t="inlineStr">
+      <c r="N26" s="59" t="inlineStr">
         <is>
           <t>03.07.2025 08:03:54</t>
         </is>
       </c>
-      <c r="O27" s="52" t="inlineStr">
+      <c r="O26" s="55" t="inlineStr">
         <is>
           <t>13/02 - Feito reunião com Stoco e definido os fornecedores: PEOL, Indaclima, Fancold, CF Engenharia. Foi iniciado o processo de cotação utilizando estes fornecedores indicados pelo Stoco + o fornecedor Climat. Dado prazo até dia 07/03 para retorno. SC encaminhada para Lucas para agendamento da visita técnica com os fornecedores.
 04/07 - SC será colocada em rota de aprovação até dia 05/07.</t>
         </is>
       </c>
-      <c r="P27" s="55" t="n"/>
-    </row>
-    <row r="28" ht="26.1" customHeight="1" s="3">
-      <c r="A28" s="51" t="inlineStr">
+      <c r="P26" s="59" t="n"/>
+    </row>
+    <row r="27" ht="26.1" customHeight="1" s="3">
+      <c r="A27" s="54" t="inlineStr">
         <is>
           <t>133420060</t>
         </is>
       </c>
-      <c r="B28" s="52" t="inlineStr">
+      <c r="B27" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C28" s="51" t="inlineStr">
+      <c r="C27" s="56" t="inlineStr">
         <is>
           <t>LCP-210020</t>
         </is>
       </c>
-      <c r="D28" s="52" t="inlineStr">
+      <c r="D27" s="55" t="inlineStr">
         <is>
           <t>AME - NEW AIR COMPRESSOR - 100 PSI - CENTAC 19</t>
         </is>
       </c>
-      <c r="E28" s="67" t="inlineStr">
+      <c r="E27" s="69" t="inlineStr">
         <is>
           <t>LCP-210020 - FABRICAÇÃO MONOVIA</t>
         </is>
       </c>
-      <c r="F28" s="67" t="inlineStr">
+      <c r="F27" s="69" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G28" s="54" t="n">
+      <c r="G27" s="58" t="n">
         <v>45692</v>
       </c>
-      <c r="H28" s="55">
-        <f>IF(M28&lt;&gt;"OK",TODAY()-G28,"OK")</f>
-        <v/>
-      </c>
-      <c r="I28" s="55" t="inlineStr">
+      <c r="H27" s="59">
+        <f>IF(M27&lt;&gt;"OK",TODAY()-G27,"OK")</f>
+        <v/>
+      </c>
+      <c r="I27" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J28" s="57" t="inlineStr">
+      <c r="J27" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K28" s="56" t="n">
+      <c r="K27" s="60" t="n">
         <v>100000</v>
       </c>
-      <c r="L28" s="55" t="inlineStr">
+      <c r="L27" s="59" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="M28" s="55" t="inlineStr">
+      <c r="M27" s="59" t="inlineStr">
         <is>
           <t>ALEXANDRE SANT ANNA</t>
         </is>
       </c>
-      <c r="N28" s="55" t="inlineStr">
+      <c r="N27" s="59" t="inlineStr">
         <is>
           <t>18.06.2025 15:21:40</t>
         </is>
       </c>
-      <c r="O28" s="55" t="inlineStr">
+      <c r="O27" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">30/05 - Segundo round equalização técnica aguardando revisão MP Engenharia e Ricamil.
 06.06 - Aguardando revisão na proposta técnica RIcamil </t>
         </is>
       </c>
-      <c r="P28" s="55" t="n"/>
-    </row>
-    <row r="29" ht="58.15" customHeight="1" s="3">
-      <c r="A29" s="59" t="inlineStr">
+      <c r="P27" s="59" t="n"/>
+    </row>
+    <row r="28" ht="58.15" customHeight="1" s="3">
+      <c r="A28" s="64" t="inlineStr">
         <is>
           <t>133475817</t>
         </is>
       </c>
-      <c r="B29" s="57" t="inlineStr">
+      <c r="B28" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C29" s="59" t="inlineStr">
+      <c r="C28" s="64" t="inlineStr">
         <is>
           <t>LCP-240196</t>
         </is>
       </c>
-      <c r="D29" s="57" t="inlineStr">
+      <c r="D28" s="61" t="inlineStr">
         <is>
           <t>AME - NR12 - WULO PHASE 2</t>
         </is>
       </c>
-      <c r="E29" s="60" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>Aut. Comi. e Validação Wulo 2</t>
         </is>
       </c>
-      <c r="F29" s="60" t="inlineStr">
+      <c r="F28" s="65" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G29" s="54" t="n">
+      <c r="G28" s="58" t="n">
         <v>45698</v>
       </c>
-      <c r="H29" s="55">
-        <f>IF(M29&lt;&gt;"OK",TODAY()-G29,"OK")</f>
-        <v/>
-      </c>
-      <c r="I29" s="55" t="inlineStr">
+      <c r="H28" s="59">
+        <f>IF(M28&lt;&gt;"OK",TODAY()-G28,"OK")</f>
+        <v/>
+      </c>
+      <c r="I28" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J29" s="57" t="inlineStr">
+      <c r="J28" s="61" t="inlineStr">
         <is>
           <t>WILLIAN SOUZA</t>
         </is>
       </c>
-      <c r="K29" s="61" t="n">
+      <c r="K28" s="66" t="n">
         <v>3000000</v>
       </c>
-      <c r="L29" s="57" t="inlineStr">
+      <c r="L28" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M29" s="57" t="inlineStr">
+      <c r="M28" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N29" s="57" t="inlineStr">
+      <c r="N28" s="61" t="inlineStr">
         <is>
           <t>10.02.2025 10:45:02</t>
         </is>
       </c>
-      <c r="O29" s="57" t="inlineStr">
+      <c r="O28" s="61" t="inlineStr">
         <is>
           <t>11/2024 - Sendo negociado desde Novembro de 2024.
 10/02 - Aguardando revisão da Rockwell para submeter a proposta com Breakdown para o Andy Hofener negociar a aplicação do fundo de incentivo
@@ -3036,404 +2970,333 @@
 04/07 - Torrezan irá enviar um e-mail para a Lyan em 07/07 (finanças de Akron) aprovando a liberação de Capital, para assim o ANdy processar o Pedido de compras</t>
         </is>
       </c>
-      <c r="P29" s="57" t="n"/>
-    </row>
-    <row r="30" ht="43.5" customHeight="1" s="3">
-      <c r="A30" s="59" t="inlineStr">
-        <is>
-          <t>133588714</t>
-        </is>
-      </c>
-      <c r="B30" s="57" t="inlineStr">
+      <c r="P28" s="61" t="n"/>
+    </row>
+    <row r="29" ht="26.1" customHeight="1" s="3">
+      <c r="A29" s="54" t="inlineStr">
+        <is>
+          <t>133629218</t>
+        </is>
+      </c>
+      <c r="B29" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C30" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240194</t>
-        </is>
-      </c>
-      <c r="D30" s="57" t="inlineStr">
-        <is>
-          <t>MC - NEW AIR COMPRESSOR - EPIACABA</t>
-        </is>
-      </c>
-      <c r="E30" s="60" t="inlineStr">
-        <is>
-          <t>Compressor de Ar - MC Epiacaba</t>
-        </is>
-      </c>
-      <c r="F30" s="60" t="inlineStr">
-        <is>
-          <t>AIR COMPRESSOR 90KW 125CV 121HP 60Hz;
-Oil and Grease Separator OSC625;
-Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G30" s="54" t="n">
-        <v>45709</v>
-      </c>
-      <c r="H30" s="55">
-        <f>IF(M30&lt;&gt;"OK",TODAY()-G30,"OK")</f>
-        <v/>
-      </c>
-      <c r="I30" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J30" s="57" t="inlineStr">
-        <is>
-          <t>RONALDO CAPELLI</t>
-        </is>
-      </c>
-      <c r="K30" s="61" t="n">
-        <v>407877.54</v>
-      </c>
-      <c r="L30" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M30" s="57" t="inlineStr">
-        <is>
-          <t>SARAH PEDROZA</t>
-        </is>
-      </c>
-      <c r="N30" s="57" t="inlineStr">
-        <is>
-          <t>07.07.2025 09:09:45</t>
-        </is>
-      </c>
-      <c r="O30" s="57" t="n"/>
-      <c r="P30" s="57" t="n"/>
-    </row>
-    <row r="31" ht="26.1" customHeight="1" s="3">
-      <c r="A31" s="51" t="inlineStr">
-        <is>
-          <t>133629218</t>
-        </is>
-      </c>
-      <c r="B31" s="52" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C31" s="51" t="inlineStr">
+      <c r="C29" s="56" t="inlineStr">
         <is>
           <t>LCP-240200</t>
         </is>
       </c>
-      <c r="D31" s="52" t="inlineStr">
+      <c r="D29" s="55" t="inlineStr">
         <is>
           <t>MC – PROTECTIVE FENCE – WHEEL RACKS AREA</t>
         </is>
       </c>
-      <c r="E31" s="67" t="inlineStr">
+      <c r="E29" s="69" t="inlineStr">
         <is>
           <t>Cerca Protetiva - Área Rodas - Epiacaba</t>
         </is>
       </c>
-      <c r="F31" s="67" t="inlineStr">
+      <c r="F29" s="69" t="inlineStr">
         <is>
           <t>PROTECTIVE FENCE WHEEL STORAGE;
 Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G31" s="54" t="n">
+      <c r="G29" s="58" t="n">
         <v>45713</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H29" s="59">
+        <f>IF(M29&lt;&gt;"OK",TODAY()-G29,"OK")</f>
+        <v/>
+      </c>
+      <c r="I29" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J29" s="59" t="inlineStr">
+        <is>
+          <t>RONALDO CAPELLI</t>
+        </is>
+      </c>
+      <c r="K29" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M29" s="67" t="inlineStr">
+        <is>
+          <t>RONALDO CAPELLI</t>
+        </is>
+      </c>
+      <c r="N29" s="67" t="inlineStr">
+        <is>
+          <t>11.06.2025 12:02:47</t>
+        </is>
+      </c>
+      <c r="O29" s="59" t="inlineStr">
+        <is>
+          <t>Trieng, Mgarcia, Proeng, Titan</t>
+        </is>
+      </c>
+      <c r="P29" s="59" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="64" t="inlineStr">
+        <is>
+          <t>133641752</t>
+        </is>
+      </c>
+      <c r="B30" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C30" s="64" t="inlineStr">
+        <is>
+          <t>LCP-210020</t>
+        </is>
+      </c>
+      <c r="D30" s="61" t="inlineStr">
+        <is>
+          <t>AME - NEW AIR COMPRESSOR - 100 PSI - CENTAC 19</t>
+        </is>
+      </c>
+      <c r="E30" s="65" t="inlineStr">
+        <is>
+          <t>LCP-210020 - Progr. Rockwell Centac 19</t>
+        </is>
+      </c>
+      <c r="F30" s="65" t="inlineStr">
+        <is>
+          <t>Assistência Técnica</t>
+        </is>
+      </c>
+      <c r="G30" s="58" t="n">
+        <v>45714</v>
+      </c>
+      <c r="H30" s="59">
+        <f>IF(M30&lt;&gt;"OK",TODAY()-G30,"OK")</f>
+        <v/>
+      </c>
+      <c r="I30" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J30" s="61" t="inlineStr">
+        <is>
+          <t>MAICON EUGENIO NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="K30" s="66" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L30" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M30" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N30" s="61" t="inlineStr">
+        <is>
+          <t>25.04.2025 13:23:19</t>
+        </is>
+      </c>
+      <c r="O30" s="61" t="inlineStr">
+        <is>
+          <t>04/07 - Em negociação com a Rockwell pelo time de compras</t>
+        </is>
+      </c>
+      <c r="P30" s="61" t="n"/>
+    </row>
+    <row r="31" ht="39" customHeight="1" s="3">
+      <c r="A31" s="54" t="inlineStr">
+        <is>
+          <t>133713544</t>
+        </is>
+      </c>
+      <c r="B31" s="55" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C31" s="56" t="inlineStr">
+        <is>
+          <t>LCP-230034</t>
+        </is>
+      </c>
+      <c r="D31" s="55" t="inlineStr">
+        <is>
+          <t>AME - UPG CALENDER EXTRUDER REPLACEMENT BB#2</t>
+        </is>
+      </c>
+      <c r="E31" s="69" t="inlineStr">
+        <is>
+          <t>LCP-230034 Instal SKID TCU Redutor BB2</t>
+        </is>
+      </c>
+      <c r="F31" s="69" t="inlineStr">
+        <is>
+          <t>Instalação e montagem maquinas e apare</t>
+        </is>
+      </c>
+      <c r="G31" s="58" t="n">
+        <v>45721</v>
+      </c>
+      <c r="H31" s="59">
         <f>IF(M31&lt;&gt;"OK",TODAY()-G31,"OK")</f>
         <v/>
       </c>
-      <c r="I31" s="55" t="inlineStr">
+      <c r="I31" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J31" s="55" t="inlineStr">
-        <is>
-          <t>RONALDO CAPELLI</t>
-        </is>
-      </c>
-      <c r="K31" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M31" s="62" t="inlineStr">
-        <is>
-          <t>RONALDO CAPELLI</t>
-        </is>
-      </c>
-      <c r="N31" s="62" t="inlineStr">
-        <is>
-          <t>11.06.2025 12:02:47</t>
-        </is>
-      </c>
-      <c r="O31" s="55" t="inlineStr">
-        <is>
-          <t>Trieng, Mgarcia, Proeng, Titan</t>
-        </is>
-      </c>
-      <c r="P31" s="55" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="59" t="inlineStr">
-        <is>
-          <t>133641752</t>
-        </is>
-      </c>
-      <c r="B32" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C32" s="59" t="inlineStr">
-        <is>
-          <t>LCP-210020</t>
-        </is>
-      </c>
-      <c r="D32" s="57" t="inlineStr">
-        <is>
-          <t>AME - NEW AIR COMPRESSOR - 100 PSI - CENTAC 19</t>
-        </is>
-      </c>
-      <c r="E32" s="60" t="inlineStr">
-        <is>
-          <t>LCP-210020 - Progr. Rockwell Centac 19</t>
-        </is>
-      </c>
-      <c r="F32" s="60" t="inlineStr">
-        <is>
-          <t>Assistência Técnica</t>
-        </is>
-      </c>
-      <c r="G32" s="54" t="n">
-        <v>45714</v>
-      </c>
-      <c r="H32" s="55">
-        <f>IF(M32&lt;&gt;"OK",TODAY()-G32,"OK")</f>
-        <v/>
-      </c>
-      <c r="I32" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J32" s="57" t="inlineStr">
+      <c r="J31" s="61" t="inlineStr">
         <is>
           <t>MAICON EUGENIO NOGUEIRA</t>
         </is>
       </c>
-      <c r="K32" s="61" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L32" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M32" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="N32" s="57" t="inlineStr">
-        <is>
-          <t>25.04.2025 13:23:19</t>
-        </is>
-      </c>
-      <c r="O32" s="57" t="inlineStr">
-        <is>
-          <t>04/07 - Em negociação com a Rockwell pelo time de compras</t>
-        </is>
-      </c>
-      <c r="P32" s="57" t="n"/>
-    </row>
-    <row r="33" ht="39" customHeight="1" s="3">
-      <c r="A33" s="51" t="inlineStr">
-        <is>
-          <t>133713544</t>
-        </is>
-      </c>
-      <c r="B33" s="52" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C33" s="51" t="inlineStr">
-        <is>
-          <t>LCP-230034</t>
-        </is>
-      </c>
-      <c r="D33" s="52" t="inlineStr">
-        <is>
-          <t>AME - UPG CALENDER EXTRUDER REPLACEMENT BB#2</t>
-        </is>
-      </c>
-      <c r="E33" s="67" t="inlineStr">
-        <is>
-          <t>LCP-230034 Instal SKID TCU Redutor BB2</t>
-        </is>
-      </c>
-      <c r="F33" s="67" t="inlineStr">
-        <is>
-          <t>Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G33" s="54" t="n">
-        <v>45721</v>
-      </c>
-      <c r="H33" s="55">
-        <f>IF(M33&lt;&gt;"OK",TODAY()-G33,"OK")</f>
-        <v/>
-      </c>
-      <c r="I33" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J33" s="57" t="inlineStr">
-        <is>
-          <t>MAICON EUGENIO NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="K33" s="56" t="n">
+      <c r="K31" s="60" t="n">
         <v>50000</v>
       </c>
-      <c r="L33" s="62" t="inlineStr">
+      <c r="L31" s="67" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="M33" s="62" t="inlineStr">
+      <c r="M31" s="67" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="N33" s="62" t="inlineStr">
+      <c r="N31" s="67" t="inlineStr">
         <is>
           <t>27.05.2025 13:40:56</t>
         </is>
       </c>
-      <c r="O33" s="55" t="inlineStr">
+      <c r="O31" s="59" t="inlineStr">
         <is>
           <t>05/03 -E-mail disparado para os fornecedores ( Ricamil, Proeng, Atus , MP e Works, Aguardando visita técnica, vai ser agendada pelo requisitante ainda.
 16/05 - Aguardando propostas para envio para a Engenharia
 23/05 - Aguardando area tecnica equalizar os fornecedores.</t>
         </is>
       </c>
-      <c r="P33" s="55" t="n"/>
-    </row>
-    <row r="34" ht="29.25" customHeight="1" s="3">
-      <c r="A34" s="59" t="inlineStr">
+      <c r="P31" s="59" t="n"/>
+    </row>
+    <row r="32" ht="29.25" customHeight="1" s="3">
+      <c r="A32" s="64" t="inlineStr">
         <is>
           <t>133728815</t>
         </is>
       </c>
-      <c r="B34" s="57" t="inlineStr">
+      <c r="B32" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C34" s="59" t="inlineStr">
+      <c r="C32" s="64" t="inlineStr">
         <is>
           <t>LCP-230255</t>
         </is>
       </c>
-      <c r="D34" s="57" t="inlineStr">
+      <c r="D32" s="61" t="inlineStr">
         <is>
           <t>AME - NEW BALANCE AKRODYNE MP04</t>
         </is>
       </c>
-      <c r="E34" s="60" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>LCP-230255 - PANELS CONVEYOR AKRODYNE</t>
         </is>
       </c>
-      <c r="F34" s="60" t="inlineStr">
+      <c r="F32" s="65" t="inlineStr">
         <is>
           <t>Z21 CV749-749A-750 APANELKRODYNE PANEL;
 Z21 CV747-748-748A APANELKRODYNE PANEL;
 POWER PANEL DISTRIBUTION</t>
         </is>
       </c>
-      <c r="G34" s="54" t="n">
+      <c r="G32" s="58" t="n">
         <v>45722</v>
       </c>
-      <c r="H34" s="55">
-        <f>IF(M34&lt;&gt;"OK",TODAY()-G34,"OK")</f>
-        <v/>
-      </c>
-      <c r="I34" s="55" t="inlineStr">
+      <c r="H32" s="59">
+        <f>IF(M32&lt;&gt;"OK",TODAY()-G32,"OK")</f>
+        <v/>
+      </c>
+      <c r="I32" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J34" s="57" t="inlineStr">
+      <c r="J32" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K34" s="61" t="n">
+      <c r="K32" s="66" t="n">
         <v>3000</v>
       </c>
-      <c r="L34" s="57" t="inlineStr">
+      <c r="L32" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M34" s="57" t="inlineStr">
+      <c r="M32" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="N34" s="57" t="inlineStr">
+      <c r="N32" s="61" t="inlineStr">
         <is>
           <t>17.06.2025 15:30:10</t>
         </is>
       </c>
-      <c r="O34" s="57" t="inlineStr">
+      <c r="O32" s="61" t="inlineStr">
         <is>
           <t>01/07 - Recebido cotação da JAV e enviado ao Lucas para analisar a parte técnica (foram convidadas também outras empresas (M2X e People Teams) mas não responderam - Aguardando OK do Lucas
 07/07 - Enviado novas solicitações para os fornecedores (People Teams, M2X e ADR). People teams está alinhando a parte técnica com o Lucas</t>
         </is>
       </c>
-      <c r="P34" s="65" t="n"/>
-    </row>
-    <row r="35" ht="130.15" customHeight="1" s="3">
-      <c r="A35" s="51" t="inlineStr">
+      <c r="P32" s="70" t="n"/>
+    </row>
+    <row r="33" ht="130.15" customHeight="1" s="3">
+      <c r="A33" s="54" t="inlineStr">
         <is>
           <t>133792930</t>
         </is>
       </c>
-      <c r="B35" s="52" t="inlineStr">
+      <c r="B33" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C35" s="51" t="inlineStr">
+      <c r="C33" s="56" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D35" s="52" t="inlineStr">
+      <c r="D33" s="55" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E35" s="67" t="inlineStr">
+      <c r="E33" s="69" t="inlineStr">
         <is>
           <t>Novo Lonado - Sistema Combate Incendio</t>
         </is>
       </c>
-      <c r="F35" s="67" t="inlineStr">
+      <c r="F33" s="69" t="inlineStr">
         <is>
           <t>Extintor d água pressurizada extintora2A;
 Extintor de dióxido de carbono (CO²);
@@ -3446,42 +3309,42 @@
 Placa de indicação de saída d emergência</t>
         </is>
       </c>
-      <c r="G35" s="54" t="n">
+      <c r="G33" s="58" t="n">
         <v>45728</v>
       </c>
-      <c r="H35" s="55">
-        <f>IF(M35&lt;&gt;"OK",TODAY()-G35,"OK")</f>
-        <v/>
-      </c>
-      <c r="I35" s="55" t="inlineStr">
+      <c r="H33" s="59">
+        <f>IF(M33&lt;&gt;"OK",TODAY()-G33,"OK")</f>
+        <v/>
+      </c>
+      <c r="I33" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J35" s="55" t="inlineStr">
+      <c r="J33" s="59" t="inlineStr">
         <is>
           <t>EBENEZER DA ROCHA DAINEZ</t>
         </is>
       </c>
-      <c r="K35" s="56" t="n">
+      <c r="K33" s="60" t="n">
         <v>32</v>
       </c>
-      <c r="L35" s="62" t="inlineStr">
+      <c r="L33" s="67" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="M35" s="55" t="inlineStr">
+      <c r="M33" s="59" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="N35" s="55" t="inlineStr">
+      <c r="N33" s="59" t="inlineStr">
         <is>
           <t>07.07.2025 16:40:57</t>
         </is>
       </c>
-      <c r="O35" s="55" t="inlineStr">
+      <c r="O33" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">26/03 - E-mail encaminhado para os fornecedores Ricamil, Proeng e Macontrin.
 02/04 - Somente Macontrin apresentou a propostas solcitadas, os fornecedores Proeng e Ricamil declinaram
@@ -3491,35 +3354,35 @@
 </t>
         </is>
       </c>
-      <c r="P35" s="55" t="n"/>
-    </row>
-    <row r="36" ht="217.5" customHeight="1" s="3">
-      <c r="A36" s="59" t="inlineStr">
+      <c r="P33" s="59" t="n"/>
+    </row>
+    <row r="34" ht="217.5" customHeight="1" s="3">
+      <c r="A34" s="64" t="inlineStr">
         <is>
           <t>134011509</t>
         </is>
       </c>
-      <c r="B36" s="57" t="inlineStr">
+      <c r="B34" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C36" s="59" t="inlineStr">
+      <c r="C34" s="64" t="inlineStr">
         <is>
           <t>LCP-230196</t>
         </is>
       </c>
-      <c r="D36" s="57" t="inlineStr">
+      <c r="D34" s="61" t="inlineStr">
         <is>
           <t>AME - NR12 - SAFETY REGULARIZATION NT 18 MG R3</t>
         </is>
       </c>
-      <c r="E36" s="60" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>Materiais Up Grad  Nesting 18</t>
         </is>
       </c>
-      <c r="F36" s="60" t="inlineStr">
+      <c r="F34" s="65" t="inlineStr">
         <is>
           <t>CONEXÃO RÁPIDA ROSCADA;
 CONEXÃO RÁPIDA L ROSCADA;
@@ -3538,116 +3401,116 @@
 CONEXÃO RÁPIDA ROSCADA QS-3/8-12</t>
         </is>
       </c>
-      <c r="G36" s="54" t="n">
+      <c r="G34" s="58" t="n">
         <v>45747</v>
       </c>
-      <c r="H36" s="55">
-        <f>IF(M36&lt;&gt;"OK",TODAY()-G36,"OK")</f>
-        <v/>
-      </c>
-      <c r="I36" s="55" t="inlineStr">
+      <c r="H34" s="59">
+        <f>IF(M34&lt;&gt;"OK",TODAY()-G34,"OK")</f>
+        <v/>
+      </c>
+      <c r="I34" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J36" s="57" t="inlineStr">
+      <c r="J34" s="61" t="inlineStr">
         <is>
           <t>JAIRO DOS SANTOS</t>
         </is>
       </c>
-      <c r="K36" s="61" t="n">
+      <c r="K34" s="66" t="n">
         <v>41828.85</v>
       </c>
-      <c r="L36" s="57" t="inlineStr">
+      <c r="L34" s="61" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="M36" s="57" t="inlineStr">
+      <c r="M34" s="61" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="N36" s="57" t="inlineStr">
+      <c r="N34" s="61" t="inlineStr">
         <is>
           <t>08.04.2025 15:46:08</t>
         </is>
       </c>
-      <c r="O36" s="57" t="inlineStr">
+      <c r="O34" s="61" t="inlineStr">
         <is>
           <t>01/07 - Verificando com a FESTO a descrição dos itens.
 08/07 - Enviado e-mail para Gustavo da FESTO solicitando cotação atualizada</t>
         </is>
       </c>
-      <c r="P36" s="65" t="n"/>
-    </row>
-    <row r="37" ht="52.15" customHeight="1" s="3">
-      <c r="A37" s="51" t="inlineStr">
+      <c r="P34" s="70" t="n"/>
+    </row>
+    <row r="35" ht="52.15" customHeight="1" s="3">
+      <c r="A35" s="54" t="inlineStr">
         <is>
           <t>134107128</t>
         </is>
       </c>
-      <c r="B37" s="52" t="inlineStr">
+      <c r="B35" s="55" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C37" s="51" t="inlineStr">
+      <c r="C35" s="56" t="inlineStr">
         <is>
           <t>LCP-230221</t>
         </is>
       </c>
-      <c r="D37" s="52" t="inlineStr">
+      <c r="D35" s="55" t="inlineStr">
         <is>
           <t>AME - NR12 - SAFETY ADEQUACY AND OBSOLESCENCE PROJECT FOR FVM’S MACHINE</t>
         </is>
       </c>
-      <c r="E37" s="67" t="inlineStr">
+      <c r="E35" s="69" t="inlineStr">
         <is>
           <t>LCP-230221 instalação eletromecanica FVM</t>
         </is>
       </c>
-      <c r="F37" s="67" t="inlineStr">
+      <c r="F35" s="69" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G37" s="54" t="n">
+      <c r="G35" s="58" t="n">
         <v>45755</v>
       </c>
-      <c r="H37" s="55">
-        <f>IF(M37&lt;&gt;"OK",TODAY()-G37,"OK")</f>
-        <v/>
-      </c>
-      <c r="I37" s="55" t="inlineStr">
+      <c r="H35" s="59">
+        <f>IF(M35&lt;&gt;"OK",TODAY()-G35,"OK")</f>
+        <v/>
+      </c>
+      <c r="I35" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J37" s="55" t="inlineStr">
+      <c r="J35" s="59" t="inlineStr">
         <is>
           <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
         </is>
       </c>
-      <c r="K37" s="56" t="n">
+      <c r="K35" s="60" t="n">
         <v>3650000</v>
       </c>
-      <c r="L37" s="57" t="inlineStr">
+      <c r="L35" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M37" s="55" t="inlineStr">
-        <is>
-          <t>CLAUDIA ARBELAEZ</t>
-        </is>
-      </c>
-      <c r="N37" s="55" t="inlineStr">
-        <is>
-          <t>03.07.2025 14:09:40</t>
-        </is>
-      </c>
-      <c r="O37" s="68" t="inlineStr">
+      <c r="M35" s="59" t="inlineStr">
+        <is>
+          <t>FABIO CARVALHO</t>
+        </is>
+      </c>
+      <c r="N35" s="59" t="inlineStr">
+        <is>
+          <t>10.07.2025 16:55:16</t>
+        </is>
+      </c>
+      <c r="O35" s="71" t="inlineStr">
         <is>
           <t>30/05 - Segundo round equalização técnica aguardando revisão MP Engenharia e Ricamil.
 06.06 - Aguardando revisão na proposta técnica RIcamil 
@@ -3655,1042 +3518,1045 @@
 SC em rota de aprovação</t>
         </is>
       </c>
-      <c r="P37" s="55" t="n"/>
+      <c r="P35" s="59" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="54" t="inlineStr">
+        <is>
+          <t>134360443</t>
+        </is>
+      </c>
+      <c r="B36" s="55" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C36" s="56" t="inlineStr">
+        <is>
+          <t>LCP-250008</t>
+        </is>
+      </c>
+      <c r="D36" s="55" t="inlineStr">
+        <is>
+          <t>AME - MIXER#5 BODY REPLACEMENT</t>
+        </is>
+      </c>
+      <c r="E36" s="69" t="inlineStr">
+        <is>
+          <t>LCP-250008 - Projeto de instalação BB5</t>
+        </is>
+      </c>
+      <c r="F36" s="69" t="inlineStr">
+        <is>
+          <t>Engenharia, Agronomia, congêneres</t>
+        </is>
+      </c>
+      <c r="G36" s="58" t="n">
+        <v>45775</v>
+      </c>
+      <c r="H36" s="59">
+        <f>IF(M36&lt;&gt;"OK",TODAY()-G36,"OK")</f>
+        <v/>
+      </c>
+      <c r="I36" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J36" s="61" t="inlineStr">
+        <is>
+          <t>MAICON EUGENIO NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="K36" s="60" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L36" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M36" s="59" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N36" s="59" t="inlineStr">
+        <is>
+          <t>28.04.2025 15:48:56</t>
+        </is>
+      </c>
+      <c r="O36" s="59" t="inlineStr">
+        <is>
+          <t>16/05 - Agendado visita técnica para 19/05 - Belsys, Microsel, KGB, Marcato</t>
+        </is>
+      </c>
+      <c r="P36" s="59" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="64" t="inlineStr">
+        <is>
+          <t>134395498</t>
+        </is>
+      </c>
+      <c r="B37" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240196</t>
+        </is>
+      </c>
+      <c r="D37" s="61" t="inlineStr">
+        <is>
+          <t>AME - NR12 - WULO PHASE 2</t>
+        </is>
+      </c>
+      <c r="E37" s="65" t="inlineStr">
+        <is>
+          <t>ENT - PROTEÇÕES NR12 - D#4</t>
+        </is>
+      </c>
+      <c r="F37" s="65" t="inlineStr">
+        <is>
+          <t>Carpintaria e serralheria</t>
+        </is>
+      </c>
+      <c r="G37" s="58" t="n">
+        <v>45778</v>
+      </c>
+      <c r="H37" s="59">
+        <f>IF(M37&lt;&gt;"OK",TODAY()-G37,"OK")</f>
+        <v/>
+      </c>
+      <c r="I37" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J37" s="61" t="inlineStr">
+        <is>
+          <t>VINICIUS PELISSARI</t>
+        </is>
+      </c>
+      <c r="K37" s="66" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L37" s="61" t="n"/>
+      <c r="M37" s="61" t="inlineStr">
+        <is>
+          <t>VINICIUS PELISSARI</t>
+        </is>
+      </c>
+      <c r="N37" s="61" t="inlineStr">
+        <is>
+          <t>19.05.2025 14:29:07</t>
+        </is>
+      </c>
+      <c r="O37" s="61" t="n"/>
+      <c r="P37" s="61" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="inlineStr">
-        <is>
-          <t>134360443</t>
-        </is>
-      </c>
-      <c r="B38" s="52" t="inlineStr">
+      <c r="A38" s="64" t="inlineStr">
+        <is>
+          <t>134451929</t>
+        </is>
+      </c>
+      <c r="B38" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C38" s="51" t="inlineStr">
-        <is>
-          <t>LCP-250008</t>
-        </is>
-      </c>
-      <c r="D38" s="52" t="inlineStr">
-        <is>
-          <t>AME - MIXER#5 BODY REPLACEMENT</t>
-        </is>
-      </c>
-      <c r="E38" s="67" t="inlineStr">
-        <is>
-          <t>LCP-250008 - Projeto de instalação BB5</t>
-        </is>
-      </c>
-      <c r="F38" s="67" t="inlineStr">
+      <c r="C38" s="64" t="inlineStr">
+        <is>
+          <t>LCP-220207</t>
+        </is>
+      </c>
+      <c r="D38" s="61" t="inlineStr">
+        <is>
+          <t>AME PIGMENT WEIGHT SYSTEM</t>
+        </is>
+      </c>
+      <c r="E38" s="65" t="inlineStr">
+        <is>
+          <t>LCP 220207 Fire protection installing</t>
+        </is>
+      </c>
+      <c r="F38" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G38" s="54" t="n">
-        <v>45775</v>
-      </c>
-      <c r="H38" s="55">
+      <c r="G38" s="58" t="n">
+        <v>45782</v>
+      </c>
+      <c r="H38" s="59">
         <f>IF(M38&lt;&gt;"OK",TODAY()-G38,"OK")</f>
         <v/>
       </c>
-      <c r="I38" s="55" t="inlineStr">
+      <c r="I38" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J38" s="57" t="inlineStr">
-        <is>
-          <t>MAICON EUGENIO NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="K38" s="56" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L38" s="57" t="inlineStr">
+      <c r="J38" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K38" s="66" t="n">
+        <v>5812838</v>
+      </c>
+      <c r="L38" s="61" t="inlineStr">
+        <is>
+          <t>ANDRE MONFRINATO</t>
+        </is>
+      </c>
+      <c r="M38" s="61" t="inlineStr">
+        <is>
+          <t>ANDRE MONFRINATO</t>
+        </is>
+      </c>
+      <c r="N38" s="61" t="inlineStr">
+        <is>
+          <t>29.06.2025 19:14:25</t>
+        </is>
+      </c>
+      <c r="O38" s="61" t="n"/>
+      <c r="P38" s="61" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="64" t="inlineStr">
+        <is>
+          <t>134466814</t>
+        </is>
+      </c>
+      <c r="B39" s="61" t="inlineStr">
+        <is>
+          <t>MANILA</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="inlineStr">
+        <is>
+          <t>LCP-250006</t>
+        </is>
+      </c>
+      <c r="D39" s="61" t="inlineStr">
+        <is>
+          <t>AME - 2025 MISCELLANEOUS ANNUAL BUDGET</t>
+        </is>
+      </c>
+      <c r="E39" s="65" t="inlineStr">
+        <is>
+          <t>LCP-250006-07 DISPLAY QUADRIPLEX</t>
+        </is>
+      </c>
+      <c r="F39" s="65" t="inlineStr">
+        <is>
+          <t>COLOR MARQUEE DISPLAY</t>
+        </is>
+      </c>
+      <c r="G39" s="58" t="n">
+        <v>45783</v>
+      </c>
+      <c r="H39" s="59">
+        <f>IF(M39&lt;&gt;"OK",TODAY()-G39,"OK")</f>
+        <v/>
+      </c>
+      <c r="I39" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J39" s="61" t="inlineStr">
+        <is>
+          <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K39" s="66" t="n">
+        <v>97126.58</v>
+      </c>
+      <c r="L39" s="61" t="inlineStr">
+        <is>
+          <t>CZARINA NICOLE BANAAG</t>
+        </is>
+      </c>
+      <c r="M39" s="61" t="inlineStr">
+        <is>
+          <t>CZARINA NICOLE BANAAG</t>
+        </is>
+      </c>
+      <c r="N39" s="61" t="inlineStr">
+        <is>
+          <t>07.05.2025 09:04:44</t>
+        </is>
+      </c>
+      <c r="O39" s="61" t="inlineStr">
+        <is>
+          <t>08/07 - Fornecedor enviou as propostas técnicas e o Fabiano aprovou tecnicamente. Agora o time de compras está realizando as negociações comerciais</t>
+        </is>
+      </c>
+      <c r="P39" s="61" t="n"/>
+    </row>
+    <row r="40" ht="40.5" customHeight="1" s="3">
+      <c r="A40" s="54" t="inlineStr">
+        <is>
+          <t>134492199</t>
+        </is>
+      </c>
+      <c r="B40" s="55" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C40" s="56" t="inlineStr">
+        <is>
+          <t>LCP-210146</t>
+        </is>
+      </c>
+      <c r="D40" s="55" t="inlineStr">
+        <is>
+          <t>AME - NR12 - WIRE CALENDER - BRZ MANDATORY</t>
+        </is>
+      </c>
+      <c r="E40" s="69" t="inlineStr">
+        <is>
+          <t>Instalação eletromecânica Calandra Z</t>
+        </is>
+      </c>
+      <c r="F40" s="69" t="inlineStr">
+        <is>
+          <t>Instalação e montagem maquinas e apare</t>
+        </is>
+      </c>
+      <c r="G40" s="58" t="n">
+        <v>45785</v>
+      </c>
+      <c r="H40" s="59">
+        <f>IF(M40&lt;&gt;"OK",TODAY()-G40,"OK")</f>
+        <v/>
+      </c>
+      <c r="I40" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J40" s="59" t="inlineStr">
+        <is>
+          <t>WILLIAN SOUZA</t>
+        </is>
+      </c>
+      <c r="K40" s="60" t="n">
+        <v>400000</v>
+      </c>
+      <c r="L40" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M38" s="55" t="inlineStr">
+      <c r="M40" s="59" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N38" s="55" t="inlineStr">
-        <is>
-          <t>28.04.2025 15:48:56</t>
-        </is>
-      </c>
-      <c r="O38" s="55" t="inlineStr">
-        <is>
-          <t>16/05 - Agendado visita técnica para 19/05 - Belsys, Microsel, KGB, Marcato</t>
-        </is>
-      </c>
-      <c r="P38" s="55" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="59" t="inlineStr">
-        <is>
-          <t>134395498</t>
-        </is>
-      </c>
-      <c r="B39" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C39" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240196</t>
-        </is>
-      </c>
-      <c r="D39" s="57" t="inlineStr">
-        <is>
-          <t>AME - NR12 - WULO PHASE 2</t>
-        </is>
-      </c>
-      <c r="E39" s="60" t="inlineStr">
-        <is>
-          <t>ENT - PROTEÇÕES NR12 - D#4</t>
-        </is>
-      </c>
-      <c r="F39" s="60" t="inlineStr">
-        <is>
-          <t>Carpintaria e serralheria</t>
-        </is>
-      </c>
-      <c r="G39" s="54" t="n">
-        <v>45778</v>
-      </c>
-      <c r="H39" s="55">
-        <f>IF(M39&lt;&gt;"OK",TODAY()-G39,"OK")</f>
-        <v/>
-      </c>
-      <c r="I39" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J39" s="57" t="inlineStr">
-        <is>
-          <t>VINICIUS PELISSARI</t>
-        </is>
-      </c>
-      <c r="K39" s="61" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L39" s="57" t="n"/>
-      <c r="M39" s="57" t="inlineStr">
-        <is>
-          <t>VINICIUS PELISSARI</t>
-        </is>
-      </c>
-      <c r="N39" s="57" t="inlineStr">
-        <is>
-          <t>19.05.2025 14:29:07</t>
-        </is>
-      </c>
-      <c r="O39" s="57" t="n"/>
-      <c r="P39" s="57" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="59" t="inlineStr">
-        <is>
-          <t>134451929</t>
-        </is>
-      </c>
-      <c r="B40" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C40" s="59" t="inlineStr">
-        <is>
-          <t>LCP-220207</t>
-        </is>
-      </c>
-      <c r="D40" s="57" t="inlineStr">
-        <is>
-          <t>AME PIGMENT WEIGHT SYSTEM</t>
-        </is>
-      </c>
-      <c r="E40" s="60" t="inlineStr">
-        <is>
-          <t>LCP 220207 Fire protection installing</t>
-        </is>
-      </c>
-      <c r="F40" s="60" t="inlineStr">
-        <is>
-          <t>Engenharia, Agronomia, congêneres</t>
-        </is>
-      </c>
-      <c r="G40" s="54" t="n">
-        <v>45782</v>
-      </c>
-      <c r="H40" s="55">
-        <f>IF(M40&lt;&gt;"OK",TODAY()-G40,"OK")</f>
-        <v/>
-      </c>
-      <c r="I40" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J40" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K40" s="61" t="n">
-        <v>5812838</v>
-      </c>
-      <c r="L40" s="57" t="inlineStr">
-        <is>
-          <t>ANDRE MONFRINATO</t>
-        </is>
-      </c>
-      <c r="M40" s="57" t="inlineStr">
-        <is>
-          <t>ANDRE MONFRINATO</t>
-        </is>
-      </c>
-      <c r="N40" s="57" t="inlineStr">
-        <is>
-          <t>29.06.2025 19:14:25</t>
-        </is>
-      </c>
-      <c r="O40" s="57" t="n"/>
-      <c r="P40" s="57" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="59" t="inlineStr">
-        <is>
-          <t>134466814</t>
-        </is>
-      </c>
-      <c r="B41" s="57" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C41" s="59" t="inlineStr">
-        <is>
-          <t>LCP-250006</t>
-        </is>
-      </c>
-      <c r="D41" s="57" t="inlineStr">
-        <is>
-          <t>AME - 2025 MISCELLANEOUS ANNUAL BUDGET</t>
-        </is>
-      </c>
-      <c r="E41" s="60" t="inlineStr">
-        <is>
-          <t>LCP-250006-07 DISPLAY QUADRIPLEX</t>
-        </is>
-      </c>
-      <c r="F41" s="60" t="inlineStr">
-        <is>
-          <t>COLOR MARQUEE DISPLAY</t>
-        </is>
-      </c>
-      <c r="G41" s="54" t="n">
-        <v>45783</v>
-      </c>
-      <c r="H41" s="55">
-        <f>IF(M41&lt;&gt;"OK",TODAY()-G41,"OK")</f>
-        <v/>
-      </c>
-      <c r="I41" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J41" s="57" t="inlineStr">
-        <is>
-          <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K41" s="61" t="n">
-        <v>97126.58</v>
-      </c>
-      <c r="L41" s="57" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="M41" s="57" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="N41" s="57" t="inlineStr">
-        <is>
-          <t>07.05.2025 09:04:44</t>
-        </is>
-      </c>
-      <c r="O41" s="57" t="inlineStr">
-        <is>
-          <t>08/07 - Fornecedor enviou as propostas técnicas e o Fabiano aprovou tecnicamente. Agora o time de compras está realizando as negociações comerciais</t>
-        </is>
-      </c>
-      <c r="P41" s="57" t="n"/>
-    </row>
-    <row r="42" ht="40.5" customHeight="1" s="3">
-      <c r="A42" s="51" t="inlineStr">
-        <is>
-          <t>134492199</t>
-        </is>
-      </c>
-      <c r="B42" s="52" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C42" s="51" t="inlineStr">
-        <is>
-          <t>LCP-210146</t>
-        </is>
-      </c>
-      <c r="D42" s="52" t="inlineStr">
-        <is>
-          <t>AME - NR12 - WIRE CALENDER - BRZ MANDATORY</t>
-        </is>
-      </c>
-      <c r="E42" s="67" t="inlineStr">
-        <is>
-          <t>Instalação eletromecânica Calandra Z</t>
-        </is>
-      </c>
-      <c r="F42" s="67" t="inlineStr">
-        <is>
-          <t>Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G42" s="54" t="n">
-        <v>45785</v>
-      </c>
-      <c r="H42" s="55">
-        <f>IF(M42&lt;&gt;"OK",TODAY()-G42,"OK")</f>
-        <v/>
-      </c>
-      <c r="I42" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J42" s="55" t="inlineStr">
-        <is>
-          <t>WILLIAN SOUZA</t>
-        </is>
-      </c>
-      <c r="K42" s="56" t="n">
-        <v>400000</v>
-      </c>
-      <c r="L42" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M42" s="55" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="N42" s="55" t="inlineStr">
+      <c r="N40" s="59" t="inlineStr">
         <is>
           <t>08.05.2025 08:12:43</t>
         </is>
       </c>
-      <c r="O42" s="55" t="inlineStr">
+      <c r="O40" s="59" t="inlineStr">
         <is>
           <t>23/05 - Adicionado na planilha. Ricamil, Proeng, ATUS, MP. 
 06/06 - Works declinou, MP e Proeng vieram. Ricamil e Atus não retornaram. Compras irá fazer um FUP
 04/07 - Aguardando retorno do fornecedor para colocar SC em rota de aprovação (MP e PROENG)</t>
         </is>
       </c>
-      <c r="P42" s="55" t="n"/>
-    </row>
-    <row r="43" ht="26.1" customHeight="1" s="3">
-      <c r="A43" s="59" t="inlineStr">
+      <c r="P40" s="59" t="n"/>
+    </row>
+    <row r="41" ht="26.1" customHeight="1" s="3">
+      <c r="A41" s="64" t="inlineStr">
         <is>
           <t>134492198</t>
         </is>
       </c>
-      <c r="B43" s="57" t="inlineStr">
+      <c r="B41" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C43" s="59" t="inlineStr">
+      <c r="C41" s="64" t="inlineStr">
         <is>
           <t>LCP-210146</t>
         </is>
       </c>
-      <c r="D43" s="57" t="inlineStr">
+      <c r="D41" s="61" t="inlineStr">
         <is>
           <t>AME - NR12 - WIRE CALENDER - BRZ MANDATORY</t>
         </is>
       </c>
-      <c r="E43" s="60" t="inlineStr">
+      <c r="E41" s="65" t="inlineStr">
         <is>
           <t>Projeto e instalação Pneumática</t>
         </is>
       </c>
-      <c r="F43" s="60" t="inlineStr">
+      <c r="F41" s="65" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G43" s="54" t="n">
+      <c r="G41" s="58" t="n">
         <v>45785</v>
       </c>
-      <c r="H43" s="55">
-        <f>IF(M43&lt;&gt;"OK",TODAY()-G43,"OK")</f>
-        <v/>
-      </c>
-      <c r="I43" s="55" t="inlineStr">
+      <c r="H41" s="59">
+        <f>IF(M41&lt;&gt;"OK",TODAY()-G41,"OK")</f>
+        <v/>
+      </c>
+      <c r="I41" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J43" s="57" t="inlineStr">
+      <c r="J41" s="61" t="inlineStr">
         <is>
           <t>WILLIAN SOUZA</t>
         </is>
       </c>
-      <c r="K43" s="61" t="n">
+      <c r="K41" s="66" t="n">
         <v>100000</v>
       </c>
-      <c r="L43" s="55" t="inlineStr">
+      <c r="L41" s="59" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M43" s="57" t="inlineStr">
+      <c r="M41" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N43" s="57" t="inlineStr">
+      <c r="N41" s="61" t="inlineStr">
         <is>
           <t>08.05.2025 08:28:20</t>
         </is>
       </c>
-      <c r="O43" s="57" t="inlineStr">
+      <c r="O41" s="61" t="inlineStr">
         <is>
           <t>04/07 - Aguardando propostas técnicas dos fornecedores, para então o Willian fazer a equalização técnica (prazo para os fornecedores era até 04/07)</t>
         </is>
       </c>
-      <c r="P43" s="57" t="n"/>
-    </row>
-    <row r="44" ht="45" customHeight="1" s="3">
-      <c r="A44" s="59" t="inlineStr">
+      <c r="P41" s="61" t="n"/>
+    </row>
+    <row r="42" ht="45" customHeight="1" s="3">
+      <c r="A42" s="64" t="inlineStr">
         <is>
           <t>134492198</t>
         </is>
       </c>
-      <c r="B44" s="57" t="inlineStr">
+      <c r="B42" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C44" s="59" t="inlineStr">
+      <c r="C42" s="64" t="inlineStr">
         <is>
           <t>LCP-240196</t>
         </is>
       </c>
-      <c r="D44" s="57" t="inlineStr">
+      <c r="D42" s="61" t="inlineStr">
         <is>
           <t>AME - NR12 - WULO PHASE 2</t>
         </is>
       </c>
-      <c r="E44" s="60" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>Projeto e instalação Pneumática</t>
         </is>
       </c>
-      <c r="F44" s="60" t="inlineStr">
+      <c r="F42" s="65" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G44" s="54" t="n">
+      <c r="G42" s="58" t="n">
         <v>45785</v>
       </c>
-      <c r="H44" s="55">
-        <f>IF(M44&lt;&gt;"OK",TODAY()-G44,"OK")</f>
-        <v/>
-      </c>
-      <c r="I44" s="55" t="inlineStr">
+      <c r="H42" s="59">
+        <f>IF(M42&lt;&gt;"OK",TODAY()-G42,"OK")</f>
+        <v/>
+      </c>
+      <c r="I42" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J44" s="57" t="inlineStr">
+      <c r="J42" s="61" t="inlineStr">
         <is>
           <t>WILLIAN SOUZA</t>
         </is>
       </c>
-      <c r="K44" s="61" t="n">
+      <c r="K42" s="66" t="n">
         <v>400000</v>
       </c>
-      <c r="L44" s="55" t="inlineStr">
+      <c r="L42" s="59" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M44" s="57" t="inlineStr">
+      <c r="M42" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="N44" s="57" t="inlineStr">
+      <c r="N42" s="61" t="inlineStr">
         <is>
           <t>08.05.2025 08:28:20</t>
         </is>
       </c>
-      <c r="O44" s="57" t="inlineStr">
+      <c r="O42" s="61" t="inlineStr">
         <is>
           <t>23/05 - Adicionado na planilha. Festo, SMC, Emerson, Trade, MTX
 06/06 - SMC, Parcamp, Trade e MTX vieram. Festo e Emerson não retornaram. SMC vai trabalhar em parceria com MTX. Quem irá faturar será a MTX. Compras irá fazer um FUP na Festo e Emerson
 04/07 - Aguardando propostas técnicas dos fornecedores, para então o Willian fazer a equalização técnica (prazo para os fornecedores era até 04/07)</t>
         </is>
       </c>
-      <c r="P44" s="57" t="n"/>
-    </row>
-    <row r="45" ht="43.5" customHeight="1" s="3">
-      <c r="A45" s="59" t="inlineStr">
+      <c r="P42" s="61" t="n"/>
+    </row>
+    <row r="43" ht="43.5" customHeight="1" s="3">
+      <c r="A43" s="64" t="inlineStr">
         <is>
           <t>134496203</t>
         </is>
       </c>
-      <c r="B45" s="57" t="inlineStr">
+      <c r="B43" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C45" s="59" t="inlineStr">
+      <c r="C43" s="64" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D45" s="57" t="inlineStr">
+      <c r="D43" s="61" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E45" s="60" t="inlineStr">
+      <c r="E43" s="65" t="inlineStr">
         <is>
           <t>LCP 240140 Ace II mechanical package I</t>
         </is>
       </c>
-      <c r="F45" s="60" t="inlineStr">
+      <c r="F43" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G45" s="54" t="n">
+      <c r="G43" s="58" t="n">
         <v>45785</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H43" s="59">
+        <f>IF(M43&lt;&gt;"OK",TODAY()-G43,"OK")</f>
+        <v/>
+      </c>
+      <c r="I43" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J43" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K43" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="61" t="inlineStr">
+        <is>
+          <t>KATHERINE OSPINA</t>
+        </is>
+      </c>
+      <c r="M43" s="61" t="inlineStr">
+        <is>
+          <t>KATHERINE OSPINA</t>
+        </is>
+      </c>
+      <c r="N43" s="61" t="inlineStr">
+        <is>
+          <t>08.05.2025 14:10:07</t>
+        </is>
+      </c>
+      <c r="O43" s="61" t="n"/>
+      <c r="P43" s="61" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="64" t="inlineStr">
+        <is>
+          <t>134510801</t>
+        </is>
+      </c>
+      <c r="B44" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C44" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240193</t>
+        </is>
+      </c>
+      <c r="D44" s="61" t="inlineStr">
+        <is>
+          <t>MC - CARBON PROJECT 17" - GRAVATAI</t>
+        </is>
+      </c>
+      <c r="E44" s="65" t="inlineStr">
+        <is>
+          <t>Base da Balanceadora - CM Gravataí</t>
+        </is>
+      </c>
+      <c r="F44" s="65" t="inlineStr">
+        <is>
+          <t>Execução, empreitada constr.civil</t>
+        </is>
+      </c>
+      <c r="G44" s="58" t="n">
+        <v>45786</v>
+      </c>
+      <c r="H44" s="59">
+        <f>IF(M44&lt;&gt;"OK",TODAY()-G44,"OK")</f>
+        <v/>
+      </c>
+      <c r="I44" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J44" s="61" t="inlineStr">
+        <is>
+          <t>RONALDO CAPELLI</t>
+        </is>
+      </c>
+      <c r="K44" s="66" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L44" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M44" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N44" s="61" t="inlineStr">
+        <is>
+          <t>09.05.2025 16:42:56</t>
+        </is>
+      </c>
+      <c r="O44" s="61" t="n"/>
+      <c r="P44" s="61" t="n"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" s="3">
+      <c r="A45" s="68" t="inlineStr">
+        <is>
+          <t>134575310</t>
+        </is>
+      </c>
+      <c r="B45" s="61" t="inlineStr">
+        <is>
+          <t>MANILA</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="inlineStr">
+        <is>
+          <t>LCP-200130</t>
+        </is>
+      </c>
+      <c r="D45" s="61" t="inlineStr">
+        <is>
+          <t>AME - UPGRADE PLC PRESSES MRT (12 PRESSES)</t>
+        </is>
+      </c>
+      <c r="E45" s="65" t="inlineStr">
+        <is>
+          <t>Painel p/ rack de válvulas pneumaticas</t>
+        </is>
+      </c>
+      <c r="F45" s="65" t="inlineStr">
+        <is>
+          <t>SUPPORT / METAL PANEL FOR UPGRADE</t>
+        </is>
+      </c>
+      <c r="G45" s="58" t="n">
+        <v>45791</v>
+      </c>
+      <c r="H45" s="59">
         <f>IF(M45&lt;&gt;"OK",TODAY()-G45,"OK")</f>
         <v/>
       </c>
-      <c r="I45" s="55" t="inlineStr">
+      <c r="I45" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J45" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K45" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" s="57" t="inlineStr">
-        <is>
-          <t>KATHERINE OSPINA</t>
-        </is>
-      </c>
-      <c r="M45" s="57" t="inlineStr">
-        <is>
-          <t>KATHERINE OSPINA</t>
-        </is>
-      </c>
-      <c r="N45" s="57" t="inlineStr">
-        <is>
-          <t>08.05.2025 14:10:07</t>
-        </is>
-      </c>
-      <c r="O45" s="57" t="n"/>
-      <c r="P45" s="57" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="59" t="inlineStr">
-        <is>
-          <t>134510801</t>
-        </is>
-      </c>
-      <c r="B46" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C46" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240193</t>
-        </is>
-      </c>
-      <c r="D46" s="57" t="inlineStr">
-        <is>
-          <t>MC - CARBON PROJECT 17" - GRAVATAI</t>
-        </is>
-      </c>
-      <c r="E46" s="60" t="inlineStr">
-        <is>
-          <t>Base da Balanceadora - CM Gravataí</t>
-        </is>
-      </c>
-      <c r="F46" s="60" t="inlineStr">
-        <is>
-          <t>Execução, empreitada constr.civil</t>
-        </is>
-      </c>
-      <c r="G46" s="54" t="n">
-        <v>45786</v>
-      </c>
-      <c r="H46" s="55">
-        <f>IF(M46&lt;&gt;"OK",TODAY()-G46,"OK")</f>
-        <v/>
-      </c>
-      <c r="I46" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J46" s="57" t="inlineStr">
-        <is>
-          <t>RONALDO CAPELLI</t>
-        </is>
-      </c>
-      <c r="K46" s="61" t="n">
-        <v>45000</v>
-      </c>
-      <c r="L46" s="57" t="inlineStr">
+      <c r="J45" s="61" t="inlineStr">
+        <is>
+          <t>HEBERT FERREIRA</t>
+        </is>
+      </c>
+      <c r="K45" s="66" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L45" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M46" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="N46" s="57" t="inlineStr">
-        <is>
-          <t>09.05.2025 16:42:56</t>
-        </is>
-      </c>
-      <c r="O46" s="57" t="n"/>
-      <c r="P46" s="57" t="n"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" s="3">
-      <c r="A47" s="69" t="inlineStr">
-        <is>
-          <t>134575310</t>
-        </is>
-      </c>
-      <c r="B47" s="57" t="inlineStr">
+      <c r="M45" s="61" t="inlineStr">
+        <is>
+          <t>HEBERT FERREIRA</t>
+        </is>
+      </c>
+      <c r="N45" s="61" t="inlineStr">
+        <is>
+          <t>04.07.2025 09:11:56</t>
+        </is>
+      </c>
+      <c r="O45" s="61" t="inlineStr">
+        <is>
+          <t>08/07 - SC será revisada, mudando de Material para Serviço</t>
+        </is>
+      </c>
+      <c r="P45" s="61" t="n"/>
+    </row>
+    <row r="46" ht="45" customHeight="1" s="3">
+      <c r="A46" s="64" t="inlineStr">
+        <is>
+          <t>134676044</t>
+        </is>
+      </c>
+      <c r="B46" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C47" s="59" t="inlineStr">
-        <is>
-          <t>LCP-200130</t>
-        </is>
-      </c>
-      <c r="D47" s="57" t="inlineStr">
-        <is>
-          <t>AME - UPGRADE PLC PRESSES MRT (12 PRESSES)</t>
-        </is>
-      </c>
-      <c r="E47" s="60" t="inlineStr">
-        <is>
-          <t>Painel p/ rack de válvulas pneumaticas</t>
-        </is>
-      </c>
-      <c r="F47" s="60" t="inlineStr">
-        <is>
-          <t>SUPPORT / METAL PANEL FOR UPGRADE</t>
-        </is>
-      </c>
-      <c r="G47" s="54" t="n">
-        <v>45791</v>
-      </c>
-      <c r="H47" s="55">
-        <f>IF(M47&lt;&gt;"OK",TODAY()-G47,"OK")</f>
-        <v/>
-      </c>
-      <c r="I47" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J47" s="57" t="inlineStr">
-        <is>
-          <t>HEBERT FERREIRA</t>
-        </is>
-      </c>
-      <c r="K47" s="61" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L47" s="57" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="M47" s="57" t="inlineStr">
-        <is>
-          <t>HEBERT FERREIRA</t>
-        </is>
-      </c>
-      <c r="N47" s="57" t="inlineStr">
-        <is>
-          <t>04.07.2025 09:11:56</t>
-        </is>
-      </c>
-      <c r="O47" s="57" t="inlineStr">
-        <is>
-          <t>08/07 - SC será cancelada
-Tem uma cotação da M GARCIA</t>
-        </is>
-      </c>
-      <c r="P47" s="57" t="n"/>
-    </row>
-    <row r="48" ht="45" customHeight="1" s="3">
-      <c r="A48" s="59" t="inlineStr">
-        <is>
-          <t>134676044</t>
-        </is>
-      </c>
-      <c r="B48" s="57" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C48" s="59" t="inlineStr">
+      <c r="C46" s="64" t="inlineStr">
         <is>
           <t>LCP-190215</t>
         </is>
       </c>
-      <c r="D48" s="57" t="inlineStr">
+      <c r="D46" s="61" t="inlineStr">
         <is>
           <t>AME - CONTOUR CORRECTION MACHINE</t>
         </is>
       </c>
-      <c r="E48" s="60" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>LCP-190215 - MATTEUZZI FIELD DEVICES</t>
         </is>
       </c>
-      <c r="F48" s="60" t="inlineStr">
+      <c r="F46" s="65" t="inlineStr">
         <is>
           <t>BOTÃO DE PRESSÃO SEM TOQUE;
 CAIXA DE PASSAGEM METÁLICA 150X150X120;
 CABO MINI QD 889N-F4AFC-30F 30 METROS</t>
         </is>
       </c>
-      <c r="G48" s="54" t="n">
+      <c r="G46" s="58" t="n">
         <v>45798</v>
       </c>
-      <c r="H48" s="55">
-        <f>IF(M48&lt;&gt;"OK",TODAY()-G48,"OK")</f>
-        <v/>
-      </c>
-      <c r="I48" s="55" t="inlineStr">
+      <c r="H46" s="59">
+        <f>IF(M46&lt;&gt;"OK",TODAY()-G46,"OK")</f>
+        <v/>
+      </c>
+      <c r="I46" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J48" s="57" t="inlineStr">
+      <c r="J46" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K48" s="61" t="n">
+      <c r="K46" s="66" t="n">
         <v>700</v>
       </c>
-      <c r="L48" s="57" t="inlineStr">
+      <c r="L46" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M48" s="57" t="inlineStr">
+      <c r="M46" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="N48" s="57" t="inlineStr">
+      <c r="N46" s="61" t="inlineStr">
         <is>
           <t>21.05.2025 14:16:13</t>
         </is>
       </c>
-      <c r="O48" s="57" t="inlineStr">
+      <c r="O46" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">01/07 - Compras irá solicitar cotações a JAV
 </t>
         </is>
       </c>
-      <c r="P48" s="65" t="n"/>
-    </row>
-    <row r="49" ht="43.5" customHeight="1" s="3">
-      <c r="A49" s="59" t="inlineStr">
+      <c r="P46" s="70" t="n"/>
+    </row>
+    <row r="47" ht="43.5" customHeight="1" s="3">
+      <c r="A47" s="64" t="inlineStr">
         <is>
           <t>134691578</t>
         </is>
       </c>
-      <c r="B49" s="57" t="inlineStr">
+      <c r="B47" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C49" s="59" t="inlineStr">
+      <c r="C47" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D49" s="57" t="inlineStr">
+      <c r="D47" s="61" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E49" s="60" t="inlineStr">
+      <c r="E47" s="65" t="inlineStr">
         <is>
           <t>LCP-220207 - DEAD WEIGHTS FOR PWS</t>
         </is>
       </c>
-      <c r="F49" s="60" t="inlineStr">
+      <c r="F47" s="65" t="inlineStr">
         <is>
           <t>STANDARD WEIGHT 2KG - PWS W/RBC CERTIFIC;
 STANDARD WEIGHT 5KG - PWS W/RBC CERTIFIC;
 STANDARD WEIGHT 10KG - PWS W/RBC CERTIF.</t>
         </is>
       </c>
-      <c r="G49" s="54" t="n">
+      <c r="G47" s="58" t="n">
         <v>45799</v>
       </c>
-      <c r="H49" s="55">
-        <f>IF(M49&lt;&gt;"OK",TODAY()-G49,"OK")</f>
-        <v/>
-      </c>
-      <c r="I49" s="55" t="inlineStr">
+      <c r="H47" s="59">
+        <f>IF(M47&lt;&gt;"OK",TODAY()-G47,"OK")</f>
+        <v/>
+      </c>
+      <c r="I47" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J49" s="57" t="inlineStr">
+      <c r="J47" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K49" s="61" t="n">
+      <c r="K47" s="66" t="n">
         <v>27137.08</v>
       </c>
-      <c r="L49" s="57" t="n"/>
-      <c r="M49" s="57" t="inlineStr">
+      <c r="L47" s="61" t="inlineStr">
+        <is>
+          <t>JESHURUN EPHRAIM ALBAN</t>
+        </is>
+      </c>
+      <c r="M47" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="N49" s="57" t="inlineStr">
+      <c r="N47" s="61" t="inlineStr">
         <is>
           <t>16.06.2025 12:54:55</t>
         </is>
       </c>
-      <c r="O49" s="57" t="inlineStr">
+      <c r="O47" s="72" t="inlineStr">
         <is>
           <t>01/07 - Etapa de Compras ja está OK
 01/07 - Lucas está aguardando confirmação com o time de Qualidade</t>
         </is>
       </c>
-      <c r="P49" s="65" t="n"/>
-    </row>
-    <row r="50" ht="43.5" customHeight="1" s="3">
-      <c r="A50" s="59" t="inlineStr">
+      <c r="P47" s="70" t="n"/>
+    </row>
+    <row r="48" ht="43.5" customHeight="1" s="3">
+      <c r="A48" s="64" t="inlineStr">
         <is>
           <t>134691875</t>
         </is>
       </c>
-      <c r="B50" s="57" t="inlineStr">
+      <c r="B48" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C50" s="59" t="inlineStr">
+      <c r="C48" s="64" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D50" s="57" t="inlineStr">
+      <c r="D48" s="61" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E50" s="60" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>LCP-240140 - ACE2 Electrical Package 1</t>
         </is>
       </c>
-      <c r="F50" s="60" t="inlineStr">
+      <c r="F48" s="65" t="inlineStr">
         <is>
           <t>Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G50" s="54" t="n">
+      <c r="G48" s="58" t="n">
         <v>45799</v>
       </c>
-      <c r="H50" s="55">
-        <f>IF(M50&lt;&gt;"OK",TODAY()-G50,"OK")</f>
-        <v/>
-      </c>
-      <c r="I50" s="55" t="inlineStr">
+      <c r="H48" s="59">
+        <f>IF(M48&lt;&gt;"OK",TODAY()-G48,"OK")</f>
+        <v/>
+      </c>
+      <c r="I48" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J50" s="57" t="inlineStr">
+      <c r="J48" s="61" t="inlineStr">
         <is>
           <t>CARLOS MATIOLI</t>
         </is>
       </c>
-      <c r="K50" s="61" t="n">
+      <c r="K48" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="L50" s="57" t="inlineStr">
+      <c r="L48" s="61" t="inlineStr">
         <is>
           <t>KATHERINE</t>
         </is>
       </c>
-      <c r="M50" s="57" t="inlineStr">
+      <c r="M48" s="61" t="inlineStr">
         <is>
           <t>ANDRE MONFRINATO</t>
         </is>
       </c>
-      <c r="N50" s="57" t="inlineStr">
+      <c r="N48" s="61" t="inlineStr">
         <is>
           <t>23.05.2025 16:15:30</t>
         </is>
       </c>
-      <c r="O50" s="57" t="inlineStr">
+      <c r="O48" s="61" t="inlineStr">
         <is>
           <t>04/07 - Katherine está atuando nesta SC</t>
         </is>
       </c>
-      <c r="P50" s="57" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="59" t="inlineStr">
+      <c r="P48" s="61" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="64" t="inlineStr">
         <is>
           <t>134701012</t>
         </is>
       </c>
-      <c r="B51" s="57" t="inlineStr">
+      <c r="B49" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C51" s="59" t="inlineStr">
+      <c r="C49" s="64" t="inlineStr">
         <is>
           <t>LCP-240100</t>
         </is>
       </c>
-      <c r="D51" s="57" t="inlineStr">
+      <c r="D49" s="61" t="inlineStr">
         <is>
           <t>NEW CHILLER</t>
         </is>
       </c>
-      <c r="E51" s="60" t="inlineStr">
+      <c r="E49" s="65" t="inlineStr">
         <is>
           <t>Projeto executivo - Chiller</t>
         </is>
       </c>
-      <c r="F51" s="60" t="inlineStr">
+      <c r="F49" s="65" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G51" s="54" t="n">
+      <c r="G49" s="58" t="n">
         <v>45800</v>
       </c>
-      <c r="H51" s="55">
-        <f>IF(M51&lt;&gt;"OK",TODAY()-G51,"OK")</f>
-        <v/>
-      </c>
-      <c r="I51" s="55" t="inlineStr">
+      <c r="H49" s="59">
+        <f>IF(M49&lt;&gt;"OK",TODAY()-G49,"OK")</f>
+        <v/>
+      </c>
+      <c r="I49" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J51" s="57" t="inlineStr">
+      <c r="J49" s="61" t="inlineStr">
         <is>
           <t>ALAN PEDROSO</t>
         </is>
       </c>
-      <c r="K51" s="61" t="n">
+      <c r="K49" s="66" t="n">
         <v>30556</v>
       </c>
-      <c r="L51" s="57" t="inlineStr">
+      <c r="L49" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M51" s="57" t="inlineStr">
+      <c r="M49" s="61" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="N51" s="57" t="inlineStr">
+      <c r="N49" s="61" t="inlineStr">
         <is>
           <t>17.06.2025 09:57:15</t>
         </is>
       </c>
-      <c r="O51" s="57" t="n"/>
-      <c r="P51" s="57" t="n"/>
-    </row>
-    <row r="52" ht="180" customHeight="1" s="3">
-      <c r="A52" s="59" t="inlineStr">
+      <c r="O49" s="61" t="n"/>
+      <c r="P49" s="61" t="n"/>
+    </row>
+    <row r="50" ht="180" customHeight="1" s="3">
+      <c r="A50" s="64" t="inlineStr">
         <is>
           <t>134760163</t>
         </is>
       </c>
-      <c r="B52" s="57" t="inlineStr">
+      <c r="B50" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C52" s="59" t="inlineStr">
+      <c r="C50" s="64" t="inlineStr">
         <is>
           <t>LCP-210086</t>
         </is>
       </c>
-      <c r="D52" s="57" t="inlineStr">
+      <c r="D50" s="61" t="inlineStr">
         <is>
           <t>AME - NEW MRT KOKUSAI MACHINE</t>
         </is>
       </c>
-      <c r="E52" s="60" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>LCP-210086 - ListaPeças2 Esteira kokusai</t>
         </is>
       </c>
-      <c r="F52" s="60" t="inlineStr">
-        <is>
-          <t>Limite de Seguranca 440E-LL5SE5;
+      <c r="F50" s="65" t="inlineStr">
+        <is>
+          <t>Safety Limit 440E-LL5SE5;
 CABO SENSOR 4 PINOS 889DS-F4FCDM-10;
 SENSOR DE PROXIMIDADE INDUTIVO 18MM PNP;
 PORTAL DATALOGIC 5 CABEÇAS STS320-115;
@@ -4704,428 +4570,353 @@
 CONTROLADOR DE SEGURANÇA 1756-L82ESK</t>
         </is>
       </c>
-      <c r="G52" s="54" t="n">
+      <c r="G50" s="58" t="n">
         <v>45804</v>
       </c>
-      <c r="H52" s="55">
+      <c r="H50" s="59">
+        <f>IF(M50&lt;&gt;"OK",TODAY()-G50,"OK")</f>
+        <v/>
+      </c>
+      <c r="I50" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J50" s="61" t="inlineStr">
+        <is>
+          <t>MAICON EUGENIO NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="K50" s="66" t="n">
+        <v>130474.78</v>
+      </c>
+      <c r="L50" s="61" t="inlineStr">
+        <is>
+          <t>CZARINA NICOLE BANAAG</t>
+        </is>
+      </c>
+      <c r="M50" s="61" t="inlineStr">
+        <is>
+          <t>CZARINA NICOLE BANAAG</t>
+        </is>
+      </c>
+      <c r="N50" s="61" t="inlineStr">
+        <is>
+          <t>30.05.2025 17:15:47</t>
+        </is>
+      </c>
+      <c r="O50" s="61" t="n"/>
+      <c r="P50" s="61" t="n"/>
+    </row>
+    <row r="51" ht="174" customHeight="1" s="3">
+      <c r="A51" s="64" t="inlineStr">
+        <is>
+          <t>134760903</t>
+        </is>
+      </c>
+      <c r="B51" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="inlineStr">
+        <is>
+          <t>LCP-230060</t>
+        </is>
+      </c>
+      <c r="D51" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
+        </is>
+      </c>
+      <c r="E51" s="65" t="inlineStr">
+        <is>
+          <t>LCP 230060- Grounding and air cond insta</t>
+        </is>
+      </c>
+      <c r="F51" s="65" t="inlineStr">
+        <is>
+          <t>Instalação e montagem maquinas e apare</t>
+        </is>
+      </c>
+      <c r="G51" s="58" t="n">
+        <v>45804</v>
+      </c>
+      <c r="H51" s="59">
+        <f>IF(M51&lt;&gt;"OK",TODAY()-G51,"OK")</f>
+        <v/>
+      </c>
+      <c r="I51" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J51" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K51" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M51" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N51" s="61" t="inlineStr">
+        <is>
+          <t>27.05.2025 14:56:39</t>
+        </is>
+      </c>
+      <c r="O51" s="61" t="n"/>
+      <c r="P51" s="61" t="n"/>
+    </row>
+    <row r="52" ht="391.5" customHeight="1" s="3">
+      <c r="A52" s="64" t="n">
+        <v>134805487</v>
+      </c>
+      <c r="B52" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C52" s="64" t="inlineStr">
+        <is>
+          <t>EEX-240006-00-09</t>
+        </is>
+      </c>
+      <c r="D52" s="61" t="inlineStr">
+        <is>
+          <t>ADEQUAÇÃO DA SALA DE TI</t>
+        </is>
+      </c>
+      <c r="E52" s="65" t="inlineStr">
+        <is>
+          <t>Serviço Civil</t>
+        </is>
+      </c>
+      <c r="F52" s="69" t="inlineStr">
+        <is>
+          <t>Instalação e montagem maquinas e apare</t>
+        </is>
+      </c>
+      <c r="G52" s="58" t="n">
+        <v>45807</v>
+      </c>
+      <c r="H52" s="59">
         <f>IF(M52&lt;&gt;"OK",TODAY()-G52,"OK")</f>
         <v/>
       </c>
-      <c r="I52" s="55" t="inlineStr">
+      <c r="I52" s="59" t="n"/>
+      <c r="J52" s="59" t="inlineStr">
+        <is>
+          <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K52" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M52" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N52" s="59" t="inlineStr">
+        <is>
+          <t>27.06.2025 14:09:40</t>
+        </is>
+      </c>
+      <c r="O52" s="61" t="inlineStr">
+        <is>
+          <t>04/07 - Aguardando propostas técnicas dos fornecedores. Temos 2 (RYCE e TRIENG) e estamos aguardando a terceira (OSV), porém a RYCE está reprovada tecnicamente e a TRIENG ainda não realizou a visita técnica (Fabiano vai reavaliar a proposta da RYCE)</t>
+        </is>
+      </c>
+      <c r="P52" s="61" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="64" t="inlineStr">
+        <is>
+          <t>134838248</t>
+        </is>
+      </c>
+      <c r="B53" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240114</t>
+        </is>
+      </c>
+      <c r="D53" s="61" t="inlineStr">
+        <is>
+          <t>AME - TBM01 - SERVO DRIVE AND CONTROL REPLACEMENT</t>
+        </is>
+      </c>
+      <c r="E53" s="65" t="inlineStr">
+        <is>
+          <t>Serviço Upgrade Servo-Drives TBM-1</t>
+        </is>
+      </c>
+      <c r="F53" s="65" t="inlineStr">
+        <is>
+          <t>Engenharia, Agronomia, congêneres</t>
+        </is>
+      </c>
+      <c r="G53" s="58" t="n">
+        <v>45810</v>
+      </c>
+      <c r="H53" s="59">
+        <f>IF(M53&lt;&gt;"OK",TODAY()-G53,"OK")</f>
+        <v/>
+      </c>
+      <c r="I53" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J52" s="57" t="inlineStr">
-        <is>
-          <t>MAICON EUGENIO NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="K52" s="61" t="n">
-        <v>136435.42</v>
-      </c>
-      <c r="L52" s="57" t="inlineStr">
+      <c r="J53" s="61" t="inlineStr">
+        <is>
+          <t>HEBERT FERREIRA</t>
+        </is>
+      </c>
+      <c r="K53" s="66" t="n">
+        <v>900000</v>
+      </c>
+      <c r="L53" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M53" s="61" t="inlineStr">
+        <is>
+          <t>HEBERT FERREIRA</t>
+        </is>
+      </c>
+      <c r="N53" s="61" t="inlineStr">
+        <is>
+          <t>04.07.2025 15:42:58</t>
+        </is>
+      </c>
+      <c r="O53" s="61" t="inlineStr">
+        <is>
+          <t>04/07 - Engenharia de Projetos e o time de compras de Akron estão definindo com o fornecedor HF se vamos separar ou não os materiais dos serviços</t>
+        </is>
+      </c>
+      <c r="P53" s="61" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="64" t="inlineStr">
+        <is>
+          <t>134858927</t>
+        </is>
+      </c>
+      <c r="B54" s="61" t="inlineStr">
+        <is>
+          <t>MANILA</t>
+        </is>
+      </c>
+      <c r="C54" s="64" t="inlineStr">
+        <is>
+          <t>LCP-210131</t>
+        </is>
+      </c>
+      <c r="D54" s="61" t="inlineStr">
+        <is>
+          <t>AME - WOMEN'S RESTROOM</t>
+        </is>
+      </c>
+      <c r="E54" s="65" t="inlineStr">
+        <is>
+          <t>Proteção Banheiro feminno- div A</t>
+        </is>
+      </c>
+      <c r="F54" s="65" t="inlineStr">
+        <is>
+          <t>TELA DE PROTEÇÃO PARA BANHEIRO FEMININO</t>
+        </is>
+      </c>
+      <c r="G54" s="58" t="n">
+        <v>45811</v>
+      </c>
+      <c r="H54" s="59">
+        <f>IF(M54&lt;&gt;"OK",TODAY()-G54,"OK")</f>
+        <v/>
+      </c>
+      <c r="I54" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J54" s="61" t="inlineStr">
+        <is>
+          <t>ROGERIO SIA</t>
+        </is>
+      </c>
+      <c r="K54" s="66" t="n">
+        <v>2254.58</v>
+      </c>
+      <c r="L54" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M52" s="57" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="N52" s="57" t="inlineStr">
-        <is>
-          <t>30.05.2025 17:15:46</t>
-        </is>
-      </c>
-      <c r="O52" s="57" t="n"/>
-      <c r="P52" s="57" t="n"/>
-    </row>
-    <row r="53" ht="174" customHeight="1" s="3">
-      <c r="A53" s="59" t="inlineStr">
-        <is>
-          <t>134760903</t>
-        </is>
-      </c>
-      <c r="B53" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C53" s="59" t="inlineStr">
-        <is>
-          <t>LCP-230060</t>
-        </is>
-      </c>
-      <c r="D53" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
-        </is>
-      </c>
-      <c r="E53" s="60" t="inlineStr">
-        <is>
-          <t>LCP 230060- Grounding and air cond insta</t>
-        </is>
-      </c>
-      <c r="F53" s="60" t="inlineStr">
-        <is>
-          <t>Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G53" s="54" t="n">
-        <v>45804</v>
-      </c>
-      <c r="H53" s="55">
-        <f>IF(M53&lt;&gt;"OK",TODAY()-G53,"OK")</f>
-        <v/>
-      </c>
-      <c r="I53" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J53" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K53" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M53" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="N53" s="57" t="inlineStr">
-        <is>
-          <t>27.05.2025 14:56:39</t>
-        </is>
-      </c>
-      <c r="O53" s="57" t="n"/>
-      <c r="P53" s="57" t="n"/>
-    </row>
-    <row r="54" ht="391.5" customHeight="1" s="3">
-      <c r="A54" s="59" t="n">
-        <v>134805487</v>
-      </c>
-      <c r="B54" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C54" s="59" t="inlineStr">
-        <is>
-          <t>EEX-240006-00-09</t>
-        </is>
-      </c>
-      <c r="D54" s="57" t="inlineStr">
-        <is>
-          <t>ADEQUAÇÃO DA SALA DE TI</t>
-        </is>
-      </c>
-      <c r="E54" s="60" t="inlineStr">
-        <is>
-          <t>Serviço Civil</t>
-        </is>
-      </c>
-      <c r="F54" s="67" t="inlineStr">
-        <is>
-          <t>Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G54" s="54" t="n">
-        <v>45807</v>
-      </c>
-      <c r="H54" s="55">
-        <f>IF(M54&lt;&gt;"OK",TODAY()-G54,"OK")</f>
-        <v/>
-      </c>
-      <c r="I54" s="55" t="n"/>
-      <c r="J54" s="55" t="inlineStr">
-        <is>
-          <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K54" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M54" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="N54" s="55" t="inlineStr">
-        <is>
-          <t>27.06.2025 14:09:40</t>
-        </is>
-      </c>
-      <c r="O54" s="57" t="inlineStr">
-        <is>
-          <t>04/07 - Aguardando propostas técnicas dos fornecedores. Temos 2 (RYCE e TRIENG) e estamos aguardando a terceira (OSV), porém a RYCE está reprovada tecnicamente e a TRIENG ainda não realizou a visita técnica (Fabiano vai reavaliar a proposta da RYCE)</t>
-        </is>
-      </c>
-      <c r="P54" s="57" t="n"/>
-    </row>
-    <row r="55" ht="39" customHeight="1" s="3">
-      <c r="A55" s="51" t="inlineStr">
-        <is>
-          <t>134804880</t>
-        </is>
-      </c>
-      <c r="B55" s="55" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C55" s="70" t="inlineStr">
-        <is>
-          <t>LCP-230060</t>
-        </is>
-      </c>
-      <c r="D55" s="55" t="inlineStr">
-        <is>
-          <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
-        </is>
-      </c>
-      <c r="E55" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESTUDO DE CARGA TORNO CNC</t>
-        </is>
-      </c>
-      <c r="F55" s="53" t="inlineStr">
-        <is>
-          <t>Engenharia, Agronomia, congêneres</t>
-        </is>
-      </c>
-      <c r="G55" s="54" t="n">
-        <v>45807</v>
-      </c>
-      <c r="H55" s="55">
-        <f>IF(M55&lt;&gt;"OK",TODAY()-G55,"OK")</f>
-        <v/>
-      </c>
-      <c r="I55" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J55" s="52" t="inlineStr">
-        <is>
-          <t>JAIRO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K55" s="56" t="n">
-        <v>24818</v>
-      </c>
-      <c r="L55" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M55" s="55" t="inlineStr">
-        <is>
-          <t>FABIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="N55" s="55" t="inlineStr">
-        <is>
-          <t>27.06.2025 16:42:58</t>
-        </is>
-      </c>
-      <c r="O55" s="66" t="inlineStr">
-        <is>
-          <t>06/06 - Compras irá disparar o RFQ hoje para resposta até 19/06. Obs na SC há um processo anterior para usar mesmos fornecedores Consutiva, MP, Works, 
-20/06 - SOS enviou proposta e a MP fez a visita técnica e confirmou o envio até dia 23/06. Works declinou
-01/07 - SC em rota de aprovação</t>
-        </is>
-      </c>
-      <c r="P55" s="55" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="59" t="inlineStr">
-        <is>
-          <t>134838248</t>
-        </is>
-      </c>
-      <c r="B56" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C56" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240114</t>
-        </is>
-      </c>
-      <c r="D56" s="57" t="inlineStr">
-        <is>
-          <t>AME - TBM01 - SERVO DRIVE AND CONTROL REPLACEMENT</t>
-        </is>
-      </c>
-      <c r="E56" s="60" t="inlineStr">
-        <is>
-          <t>Serviço Upgrade Servo-Drives TBM-1</t>
-        </is>
-      </c>
-      <c r="F56" s="60" t="inlineStr">
-        <is>
-          <t>Engenharia, Agronomia, congêneres</t>
-        </is>
-      </c>
-      <c r="G56" s="54" t="n">
-        <v>45810</v>
-      </c>
-      <c r="H56" s="55">
-        <f>IF(M56&lt;&gt;"OK",TODAY()-G56,"OK")</f>
-        <v/>
-      </c>
-      <c r="I56" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J56" s="57" t="inlineStr">
-        <is>
-          <t>HEBERT FERREIRA</t>
-        </is>
-      </c>
-      <c r="K56" s="61" t="n">
-        <v>900000</v>
-      </c>
-      <c r="L56" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M56" s="57" t="inlineStr">
-        <is>
-          <t>HEBERT FERREIRA</t>
-        </is>
-      </c>
-      <c r="N56" s="57" t="inlineStr">
-        <is>
-          <t>04.07.2025 15:42:58</t>
-        </is>
-      </c>
-      <c r="O56" s="57" t="inlineStr">
-        <is>
-          <t>04/07 - Engenharia de Projetos e o time de compras de Akron estão definindo com o fornecedor HF se vamos separar ou não os materiais dos serviços</t>
-        </is>
-      </c>
-      <c r="P56" s="57" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="59" t="inlineStr">
-        <is>
-          <t>134858927</t>
-        </is>
-      </c>
-      <c r="B57" s="57" t="inlineStr">
+      <c r="M54" s="61" t="inlineStr">
+        <is>
+          <t>CLAUDIA ARBELAEZ</t>
+        </is>
+      </c>
+      <c r="N54" s="61" t="inlineStr">
+        <is>
+          <t>27.06.2025 08:21:23</t>
+        </is>
+      </c>
+      <c r="O54" s="72" t="inlineStr">
+        <is>
+          <t>01/07 - Compras já realizou a parte deles. SC está em rota de aprovação</t>
+        </is>
+      </c>
+      <c r="P54" s="61" t="n"/>
+    </row>
+    <row r="55" ht="409.5" customHeight="1" s="3">
+      <c r="A55" s="64" t="inlineStr">
+        <is>
+          <t>134892131</t>
+        </is>
+      </c>
+      <c r="B55" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C57" s="59" t="inlineStr">
-        <is>
-          <t>LCP-210131</t>
-        </is>
-      </c>
-      <c r="D57" s="57" t="inlineStr">
-        <is>
-          <t>AME - WOMEN'S RESTROOM</t>
-        </is>
-      </c>
-      <c r="E57" s="60" t="inlineStr">
-        <is>
-          <t>Proteção Banheiro feminno- div A</t>
-        </is>
-      </c>
-      <c r="F57" s="60" t="inlineStr">
-        <is>
-          <t>TELA DE PROTEÇÃO PARA BANHEIRO FEMININO</t>
-        </is>
-      </c>
-      <c r="G57" s="54" t="n">
-        <v>45811</v>
-      </c>
-      <c r="H57" s="55">
-        <f>IF(M57&lt;&gt;"OK",TODAY()-G57,"OK")</f>
-        <v/>
-      </c>
-      <c r="I57" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J57" s="57" t="inlineStr">
-        <is>
-          <t>ROGERIO SIA</t>
-        </is>
-      </c>
-      <c r="K57" s="61" t="n">
-        <v>2254.58</v>
-      </c>
-      <c r="L57" s="57" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="M57" s="57" t="inlineStr">
-        <is>
-          <t>CLAUDIA ARBELAEZ</t>
-        </is>
-      </c>
-      <c r="N57" s="57" t="inlineStr">
-        <is>
-          <t>27.06.2025 08:21:23</t>
-        </is>
-      </c>
-      <c r="O57" s="71" t="inlineStr">
-        <is>
-          <t>01/07 - Compras já realizou a parte deles. SC está em rota de aprovação</t>
-        </is>
-      </c>
-      <c r="P57" s="57" t="n"/>
-    </row>
-    <row r="58" ht="409.5" customHeight="1" s="3">
-      <c r="A58" s="59" t="inlineStr">
-        <is>
-          <t>134892131</t>
-        </is>
-      </c>
-      <c r="B58" s="59" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C58" s="59" t="inlineStr">
+      <c r="C55" s="64" t="inlineStr">
         <is>
           <t>LCP-210180</t>
         </is>
       </c>
-      <c r="D58" s="59" t="inlineStr">
+      <c r="D55" s="64" t="inlineStr">
         <is>
           <t>AME -UPGRADE PLC MRT PRESSES (11 PRESSES)</t>
         </is>
       </c>
-      <c r="E58" s="72" t="inlineStr">
+      <c r="E55" s="73" t="inlineStr">
         <is>
           <t>Materiais Para inst. Prensas lcp-210180</t>
         </is>
       </c>
-      <c r="F58" s="72" t="inlineStr">
+      <c r="F55" s="73" t="inlineStr">
         <is>
           <t>ABRACADEIRA INSULOK REF.T-50L. GRANDE;
 BARRA CHATA ACO CARBONO 1.1/2" X 1/4";
@@ -5208,857 +4999,784 @@
 CABO PT100 COD: 009.939</t>
         </is>
       </c>
-      <c r="G58" s="73" t="n">
+      <c r="G55" s="74" t="n">
         <v>45813</v>
       </c>
-      <c r="H58" s="55">
+      <c r="H55" s="59">
+        <f>IF(M55&lt;&gt;"OK",TODAY()-G55,"OK")</f>
+        <v/>
+      </c>
+      <c r="I55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr">
+        <is>
+          <t>JAIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K55" s="75" t="n">
+        <v>1542301.83</v>
+      </c>
+      <c r="L55" s="64" t="inlineStr">
+        <is>
+          <t>JESHURUN EPHRAIM ALBAN</t>
+        </is>
+      </c>
+      <c r="M55" s="64" t="inlineStr">
+        <is>
+          <t>JESHURUN EPHRAIM ALBAN</t>
+        </is>
+      </c>
+      <c r="N55" s="64" t="inlineStr">
+        <is>
+          <t>01.07.2025 08:51:53</t>
+        </is>
+      </c>
+      <c r="O55" s="64" t="inlineStr">
+        <is>
+          <t>08/07 - Jeshurun irá enviar as cotações para os possíveis fornecedores</t>
+        </is>
+      </c>
+      <c r="P55" s="64" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="64" t="inlineStr">
+        <is>
+          <t>134906361</t>
+        </is>
+      </c>
+      <c r="B56" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C56" s="64" t="inlineStr">
+        <is>
+          <t>LCP-230060</t>
+        </is>
+      </c>
+      <c r="D56" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
+        </is>
+      </c>
+      <c r="E56" s="65" t="inlineStr">
+        <is>
+          <t>retaining tank design quad-Ace</t>
+        </is>
+      </c>
+      <c r="F56" s="65" t="inlineStr">
+        <is>
+          <t>Elaboração de estudos constr.civil</t>
+        </is>
+      </c>
+      <c r="G56" s="58" t="n">
+        <v>45814</v>
+      </c>
+      <c r="H56" s="59">
+        <f>IF(M56&lt;&gt;"OK",TODAY()-G56,"OK")</f>
+        <v/>
+      </c>
+      <c r="I56" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J56" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K56" s="66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L56" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M56" s="61" t="inlineStr">
+        <is>
+          <t>RICARDO DA SILVA NETO</t>
+        </is>
+      </c>
+      <c r="N56" s="61" t="inlineStr">
+        <is>
+          <t>06.06.2025 11:42:25</t>
+        </is>
+      </c>
+      <c r="O56" s="61" t="n"/>
+      <c r="P56" s="61" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="64" t="inlineStr">
+        <is>
+          <t>134906361</t>
+        </is>
+      </c>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240093</t>
+        </is>
+      </c>
+      <c r="D57" s="61" t="inlineStr">
+        <is>
+          <t>AME - NEW TRUCK GATE</t>
+        </is>
+      </c>
+      <c r="E57" s="65" t="inlineStr">
+        <is>
+          <t>retaining tank design quad-Ace</t>
+        </is>
+      </c>
+      <c r="F57" s="65" t="inlineStr">
+        <is>
+          <t>Elaboração de estudos constr.civil</t>
+        </is>
+      </c>
+      <c r="G57" s="58" t="n">
+        <v>45814</v>
+      </c>
+      <c r="H57" s="59">
+        <f>IF(M57&lt;&gt;"OK",TODAY()-G57,"OK")</f>
+        <v/>
+      </c>
+      <c r="I57" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J57" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K57" s="66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L57" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M57" s="61" t="inlineStr">
+        <is>
+          <t>RICARDO DA SILVA NETO</t>
+        </is>
+      </c>
+      <c r="N57" s="61" t="inlineStr">
+        <is>
+          <t>06.06.2025 11:42:25</t>
+        </is>
+      </c>
+      <c r="O57" s="61" t="n"/>
+      <c r="P57" s="61" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="64" t="inlineStr">
+        <is>
+          <t>134906361</t>
+        </is>
+      </c>
+      <c r="B58" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C58" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240140</t>
+        </is>
+      </c>
+      <c r="D58" s="61" t="inlineStr">
+        <is>
+          <t>AME - CONSUMER EXPANSION PHASE 2</t>
+        </is>
+      </c>
+      <c r="E58" s="65" t="inlineStr">
+        <is>
+          <t>retaining tank design quad-Ace</t>
+        </is>
+      </c>
+      <c r="F58" s="65" t="inlineStr">
+        <is>
+          <t>Elaboração de estudos constr.civil</t>
+        </is>
+      </c>
+      <c r="G58" s="58" t="n">
+        <v>45814</v>
+      </c>
+      <c r="H58" s="59">
         <f>IF(M58&lt;&gt;"OK",TODAY()-G58,"OK")</f>
         <v/>
       </c>
-      <c r="I58" s="59" t="n"/>
-      <c r="J58" s="59" t="inlineStr">
-        <is>
-          <t>JAIRO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K58" s="74" t="n">
-        <v>1542301.83</v>
-      </c>
-      <c r="L58" s="59" t="inlineStr">
-        <is>
-          <t>JESHURUN EPHRAIM ALBAN</t>
-        </is>
-      </c>
-      <c r="M58" s="59" t="inlineStr">
-        <is>
-          <t>JESHURUN EPHRAIM ALBAN</t>
-        </is>
-      </c>
-      <c r="N58" s="59" t="inlineStr">
-        <is>
-          <t>01.07.2025 08:51:53</t>
-        </is>
-      </c>
-      <c r="O58" s="59" t="inlineStr">
-        <is>
-          <t>08/07 - Jeshurun irá enviar as cotações para os possíveis fornecedores</t>
-        </is>
-      </c>
-      <c r="P58" s="59" t="n"/>
+      <c r="I58" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J58" s="61" t="inlineStr">
+        <is>
+          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
+        </is>
+      </c>
+      <c r="K58" s="66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L58" s="61" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="M58" s="61" t="inlineStr">
+        <is>
+          <t>RICARDO DA SILVA NETO</t>
+        </is>
+      </c>
+      <c r="N58" s="61" t="inlineStr">
+        <is>
+          <t>06.06.2025 11:42:25</t>
+        </is>
+      </c>
+      <c r="O58" s="61" t="n"/>
+      <c r="P58" s="61" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="59" t="inlineStr">
-        <is>
-          <t>134906361</t>
-        </is>
-      </c>
-      <c r="B59" s="57" t="inlineStr">
+      <c r="A59" s="64" t="inlineStr">
+        <is>
+          <t>134944341</t>
+        </is>
+      </c>
+      <c r="B59" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C59" s="59" t="inlineStr">
+      <c r="C59" s="64" t="inlineStr">
         <is>
           <t>LCP-230060</t>
         </is>
       </c>
-      <c r="D59" s="57" t="inlineStr">
+      <c r="D59" s="61" t="inlineStr">
         <is>
           <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
         </is>
       </c>
-      <c r="E59" s="60" t="inlineStr">
-        <is>
-          <t>retaining tank design quad-Ace</t>
-        </is>
-      </c>
-      <c r="F59" s="60" t="inlineStr">
-        <is>
-          <t>Elaboração de estudos constr.civil</t>
-        </is>
-      </c>
-      <c r="G59" s="54" t="n">
-        <v>45814</v>
-      </c>
-      <c r="H59" s="55">
+      <c r="E59" s="65" t="inlineStr">
+        <is>
+          <t>Lcp 230060 Quad 7 equipment setting</t>
+        </is>
+      </c>
+      <c r="F59" s="65" t="inlineStr">
+        <is>
+          <t>Instalação e montagem maquinas e apare</t>
+        </is>
+      </c>
+      <c r="G59" s="58" t="n">
+        <v>45817</v>
+      </c>
+      <c r="H59" s="59">
         <f>IF(M59&lt;&gt;"OK",TODAY()-G59,"OK")</f>
         <v/>
       </c>
-      <c r="I59" s="55" t="inlineStr">
+      <c r="I59" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J59" s="57" t="inlineStr">
+      <c r="J59" s="61" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K59" s="61" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L59" s="57" t="inlineStr">
+      <c r="K59" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" s="61" t="inlineStr">
+        <is>
+          <t>ANDRE MONFRINATO</t>
+        </is>
+      </c>
+      <c r="M59" s="61" t="inlineStr">
+        <is>
+          <t>ANDRE MONFRINATO</t>
+        </is>
+      </c>
+      <c r="N59" s="61" t="inlineStr">
+        <is>
+          <t>09.06.2025 11:40:16</t>
+        </is>
+      </c>
+      <c r="O59" s="61" t="n"/>
+      <c r="P59" s="61" t="n"/>
+    </row>
+    <row r="60" ht="43.5" customHeight="1" s="3">
+      <c r="A60" s="64" t="inlineStr">
+        <is>
+          <t>134988504</t>
+        </is>
+      </c>
+      <c r="B60" s="61" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C60" s="64" t="inlineStr">
+        <is>
+          <t>LCP-250041</t>
+        </is>
+      </c>
+      <c r="D60" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RET - UPGRADE DUST COLLECTOR BUFFER </t>
+        </is>
+      </c>
+      <c r="E60" s="65" t="inlineStr">
+        <is>
+          <t>Projeto executivo Dust Collector</t>
+        </is>
+      </c>
+      <c r="F60" s="65" t="inlineStr">
+        <is>
+          <t>Engenharia, Agronomia, congêneres</t>
+        </is>
+      </c>
+      <c r="G60" s="58" t="n">
+        <v>45820</v>
+      </c>
+      <c r="H60" s="59">
+        <f>IF(M60&lt;&gt;"OK",TODAY()-G60,"OK")</f>
+        <v/>
+      </c>
+      <c r="I60" s="59" t="inlineStr">
+        <is>
+          <t>Engenharia</t>
+        </is>
+      </c>
+      <c r="J60" s="61" t="inlineStr">
+        <is>
+          <t>ALAN PEDROSO</t>
+        </is>
+      </c>
+      <c r="K60" s="66" t="n">
+        <v>85000</v>
+      </c>
+      <c r="L60" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M59" s="57" t="inlineStr">
+      <c r="M60" s="61" t="inlineStr">
         <is>
           <t>RICARDO DA SILVA NETO</t>
         </is>
       </c>
-      <c r="N59" s="57" t="inlineStr">
-        <is>
-          <t>06.06.2025 11:42:25</t>
-        </is>
-      </c>
-      <c r="O59" s="57" t="n"/>
-      <c r="P59" s="57" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="59" t="inlineStr">
-        <is>
-          <t>134906361</t>
-        </is>
-      </c>
-      <c r="B60" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C60" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240093</t>
-        </is>
-      </c>
-      <c r="D60" s="57" t="inlineStr">
-        <is>
-          <t>AME - NEW TRUCK GATE</t>
-        </is>
-      </c>
-      <c r="E60" s="60" t="inlineStr">
-        <is>
-          <t>retaining tank design quad-Ace</t>
-        </is>
-      </c>
-      <c r="F60" s="60" t="inlineStr">
-        <is>
-          <t>Elaboração de estudos constr.civil</t>
-        </is>
-      </c>
-      <c r="G60" s="54" t="n">
-        <v>45814</v>
-      </c>
-      <c r="H60" s="55">
-        <f>IF(M60&lt;&gt;"OK",TODAY()-G60,"OK")</f>
-        <v/>
-      </c>
-      <c r="I60" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J60" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K60" s="61" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L60" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M60" s="57" t="inlineStr">
-        <is>
-          <t>RICARDO DA SILVA NETO</t>
-        </is>
-      </c>
-      <c r="N60" s="57" t="inlineStr">
-        <is>
-          <t>06.06.2025 11:42:25</t>
-        </is>
-      </c>
-      <c r="O60" s="57" t="n"/>
-      <c r="P60" s="57" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="59" t="inlineStr">
-        <is>
-          <t>134906361</t>
-        </is>
-      </c>
-      <c r="B61" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C61" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240140</t>
-        </is>
-      </c>
-      <c r="D61" s="57" t="inlineStr">
-        <is>
-          <t>AME - CONSUMER EXPANSION PHASE 2</t>
-        </is>
-      </c>
-      <c r="E61" s="60" t="inlineStr">
-        <is>
-          <t>retaining tank design quad-Ace</t>
-        </is>
-      </c>
-      <c r="F61" s="60" t="inlineStr">
-        <is>
-          <t>Elaboração de estudos constr.civil</t>
-        </is>
-      </c>
-      <c r="G61" s="54" t="n">
-        <v>45814</v>
-      </c>
-      <c r="H61" s="55">
-        <f>IF(M61&lt;&gt;"OK",TODAY()-G61,"OK")</f>
-        <v/>
-      </c>
-      <c r="I61" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J61" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K61" s="61" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L61" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M61" s="57" t="inlineStr">
-        <is>
-          <t>RICARDO DA SILVA NETO</t>
-        </is>
-      </c>
-      <c r="N61" s="57" t="inlineStr">
-        <is>
-          <t>06.06.2025 11:42:25</t>
-        </is>
-      </c>
-      <c r="O61" s="57" t="n"/>
-      <c r="P61" s="57" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="59" t="inlineStr">
-        <is>
-          <t>134944341</t>
-        </is>
-      </c>
-      <c r="B62" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C62" s="59" t="inlineStr">
-        <is>
-          <t>LCP-230060</t>
-        </is>
-      </c>
-      <c r="D62" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA QUADRUPLEX EXTRUDER #7</t>
-        </is>
-      </c>
-      <c r="E62" s="60" t="inlineStr">
-        <is>
-          <t>Lcp 230060 Quad 7 equipment setting</t>
-        </is>
-      </c>
-      <c r="F62" s="60" t="inlineStr">
-        <is>
-          <t>Instalação e montagem maquinas e apare</t>
-        </is>
-      </c>
-      <c r="G62" s="54" t="n">
-        <v>45817</v>
-      </c>
-      <c r="H62" s="55">
-        <f>IF(M62&lt;&gt;"OK",TODAY()-G62,"OK")</f>
-        <v/>
-      </c>
-      <c r="I62" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J62" s="57" t="inlineStr">
-        <is>
-          <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
-        </is>
-      </c>
-      <c r="K62" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L62" s="57" t="inlineStr">
-        <is>
-          <t>ANDRE MONFRINATO</t>
-        </is>
-      </c>
-      <c r="M62" s="57" t="inlineStr">
-        <is>
-          <t>ANDRE MONFRINATO</t>
-        </is>
-      </c>
-      <c r="N62" s="57" t="inlineStr">
-        <is>
-          <t>09.06.2025 11:40:16</t>
-        </is>
-      </c>
-      <c r="O62" s="57" t="n"/>
-      <c r="P62" s="57" t="n"/>
-    </row>
-    <row r="63" ht="43.5" customHeight="1" s="3">
-      <c r="A63" s="59" t="inlineStr">
-        <is>
-          <t>134988504</t>
-        </is>
-      </c>
-      <c r="B63" s="57" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C63" s="59" t="inlineStr">
-        <is>
-          <t>LCP-250041</t>
-        </is>
-      </c>
-      <c r="D63" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RET - UPGRADE DUST COLLECTOR BUFFER </t>
-        </is>
-      </c>
-      <c r="E63" s="60" t="inlineStr">
-        <is>
-          <t>Projeto executivo Dust Collector</t>
-        </is>
-      </c>
-      <c r="F63" s="60" t="inlineStr">
-        <is>
-          <t>Engenharia, Agronomia, congêneres</t>
-        </is>
-      </c>
-      <c r="G63" s="54" t="n">
-        <v>45820</v>
-      </c>
-      <c r="H63" s="55">
-        <f>IF(M63&lt;&gt;"OK",TODAY()-G63,"OK")</f>
-        <v/>
-      </c>
-      <c r="I63" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J63" s="57" t="inlineStr">
-        <is>
-          <t>ALAN PEDROSO</t>
-        </is>
-      </c>
-      <c r="K63" s="61" t="n">
-        <v>85000</v>
-      </c>
-      <c r="L63" s="57" t="inlineStr">
-        <is>
-          <t>WADSON SIMOES</t>
-        </is>
-      </c>
-      <c r="M63" s="57" t="inlineStr">
-        <is>
-          <t>RICARDO DA SILVA NETO</t>
-        </is>
-      </c>
-      <c r="N63" s="57" t="inlineStr">
+      <c r="N60" s="61" t="inlineStr">
         <is>
           <t>12.06.2025 11:56:31</t>
         </is>
       </c>
-      <c r="O63" s="57" t="n"/>
-      <c r="P63" s="57" t="n"/>
-    </row>
-    <row r="64" ht="58.15" customHeight="1" s="3">
-      <c r="A64" s="59" t="inlineStr">
-        <is>
-          <t>135041906</t>
-        </is>
-      </c>
-      <c r="B64" s="57" t="inlineStr">
+      <c r="O60" s="61" t="n"/>
+      <c r="P60" s="61" t="n"/>
+    </row>
+    <row r="61" ht="58.15" customHeight="1" s="3">
+      <c r="A61" s="64" t="n">
+        <v>135041906</v>
+      </c>
+      <c r="B61" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C64" s="59" t="inlineStr">
+      <c r="C61" s="64" t="inlineStr">
         <is>
           <t>LCP-230158</t>
         </is>
       </c>
-      <c r="D64" s="57" t="inlineStr">
+      <c r="D61" s="61" t="inlineStr">
         <is>
           <t>AME - NR12 - SAFETY ADEQUACY IN WULO (WULO PHASE 1)</t>
         </is>
       </c>
-      <c r="E64" s="60" t="inlineStr">
+      <c r="E61" s="65" t="inlineStr">
         <is>
           <t>Materiais drive para ply cutter Sem cont</t>
         </is>
       </c>
-      <c r="F64" s="60" t="inlineStr">
+      <c r="F61" s="65" t="inlineStr">
         <is>
           <t>FILTER LINE;
 KINETIX 5500 H070 MODULE;
 RESISTOR 75 OHM 150W</t>
         </is>
       </c>
-      <c r="G64" s="54" t="n">
+      <c r="G61" s="58" t="n">
         <v>45824</v>
       </c>
-      <c r="H64" s="55">
-        <f>IF(M64&lt;&gt;"OK",TODAY()-G64,"OK")</f>
-        <v/>
-      </c>
-      <c r="I64" s="55" t="inlineStr">
+      <c r="H61" s="59">
+        <f>IF(M61&lt;&gt;"OK",TODAY()-G61,"OK")</f>
+        <v/>
+      </c>
+      <c r="I61" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J64" s="57" t="inlineStr">
+      <c r="J61" s="61" t="inlineStr">
         <is>
           <t>JAIRO DOS SANTOS</t>
         </is>
       </c>
-      <c r="K64" s="61" t="n">
+      <c r="K61" s="66" t="n">
         <v>26706.46</v>
       </c>
-      <c r="L64" s="57" t="inlineStr">
+      <c r="L61" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M64" s="57" t="inlineStr">
+      <c r="M61" s="61" t="inlineStr">
         <is>
           <t>FABIO DA SILVA</t>
         </is>
       </c>
-      <c r="N64" s="57" t="inlineStr">
+      <c r="N61" s="61" t="inlineStr">
         <is>
           <t>09.07.2025 06:00:57</t>
         </is>
       </c>
-      <c r="O64" s="57" t="n"/>
-      <c r="P64" s="57" t="n"/>
-    </row>
-    <row r="65" ht="29.1" customHeight="1" s="3">
-      <c r="A65" s="59" t="inlineStr">
+      <c r="O61" s="72" t="inlineStr">
+        <is>
+          <t>10/07 - Compras já realizou a parte deles. SC está em rota de aprovação</t>
+        </is>
+      </c>
+      <c r="P61" s="61" t="n"/>
+    </row>
+    <row r="62" ht="29.1" customHeight="1" s="3">
+      <c r="A62" s="64" t="inlineStr">
         <is>
           <t>135054987</t>
         </is>
       </c>
-      <c r="B65" s="57" t="inlineStr">
+      <c r="B62" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C65" s="59" t="inlineStr">
+      <c r="C62" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D65" s="57" t="inlineStr">
+      <c r="D62" s="61" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E65" s="60" t="inlineStr">
+      <c r="E62" s="65" t="inlineStr">
         <is>
           <t>LCP-220207 - MECHANICAL END STOP PWS</t>
         </is>
       </c>
-      <c r="F65" s="60" t="inlineStr">
+      <c r="F62" s="65" t="inlineStr">
         <is>
           <t>METARO DOCK STOPPER 380X90X85MM</t>
         </is>
       </c>
-      <c r="G65" s="54" t="n">
+      <c r="G62" s="58" t="n">
         <v>45825</v>
       </c>
-      <c r="H65" s="55">
-        <f>IF(M65&lt;&gt;"OK",TODAY()-G65,"OK")</f>
-        <v/>
-      </c>
-      <c r="I65" s="55" t="inlineStr">
+      <c r="H62" s="59">
+        <f>IF(M62&lt;&gt;"OK",TODAY()-G62,"OK")</f>
+        <v/>
+      </c>
+      <c r="I62" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J65" s="57" t="inlineStr">
+      <c r="J62" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K65" s="61" t="n">
-        <v>3069.78</v>
-      </c>
-      <c r="L65" s="57" t="inlineStr">
+      <c r="K62" s="66" t="n">
+        <v>3069.79</v>
+      </c>
+      <c r="L62" s="61" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="M65" s="57" t="inlineStr">
-        <is>
-          <t>JESHURUN EPHRAIM ALBAN</t>
-        </is>
-      </c>
-      <c r="N65" s="57" t="inlineStr">
-        <is>
-          <t>17.06.2025 15:52:23</t>
-        </is>
-      </c>
-      <c r="O65" s="57" t="inlineStr">
+      <c r="M62" s="61" t="inlineStr">
+        <is>
+          <t>LUIS VALLE</t>
+        </is>
+      </c>
+      <c r="N62" s="61" t="inlineStr">
+        <is>
+          <t>11.07.2025 09:06:16</t>
+        </is>
+      </c>
+      <c r="O62" s="61" t="inlineStr">
         <is>
           <t>01/07 - Compras está esperando a cotação do fornecedor (M GARCIA e ATUAL)
 08/07 - Recebido cotação da empresa ATUAL. Time de impostos precisa alterar o valor do imposto  (Matheus Carvalho). Estamos aguardando.</t>
         </is>
       </c>
-      <c r="P65" s="65" t="n"/>
-    </row>
-    <row r="66" ht="29.1" customHeight="1" s="3">
-      <c r="A66" s="59" t="inlineStr">
-        <is>
-          <t>135054988</t>
-        </is>
-      </c>
-      <c r="B66" s="57" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C66" s="59" t="inlineStr">
-        <is>
-          <t>LCP-220207</t>
-        </is>
-      </c>
-      <c r="D66" s="57" t="inlineStr">
-        <is>
-          <t>AME PIGMENT WEIGHT SYSTEM</t>
-        </is>
-      </c>
-      <c r="E66" s="60" t="inlineStr">
-        <is>
-          <t>LCP-220207 - PWS FENCES AND SUPPORTS</t>
-        </is>
-      </c>
-      <c r="F66" s="60" t="inlineStr">
-        <is>
-          <t>PWS PROTECTION SET;
-PRINTER SUPPORT FOR PWS MACHINES</t>
-        </is>
-      </c>
-      <c r="G66" s="54" t="n">
-        <v>45825</v>
-      </c>
-      <c r="H66" s="55">
-        <f>IF(M66&lt;&gt;"OK",TODAY()-G66,"OK")</f>
-        <v/>
-      </c>
-      <c r="I66" s="55" t="inlineStr">
-        <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="J66" s="57" t="inlineStr">
-        <is>
-          <t>LUCAS PEREIRA</t>
-        </is>
-      </c>
-      <c r="K66" s="61" t="n">
-        <v>36105.72</v>
-      </c>
-      <c r="L66" s="57" t="inlineStr">
-        <is>
-          <t>CLARISE JOY BALITE</t>
-        </is>
-      </c>
-      <c r="M66" s="57" t="inlineStr">
-        <is>
-          <t>CLARISE JOY BALITE</t>
-        </is>
-      </c>
-      <c r="N66" s="57" t="inlineStr">
-        <is>
-          <t>17.06.2025 15:55:33</t>
-        </is>
-      </c>
-      <c r="O66" s="71" t="inlineStr">
-        <is>
-          <t>01/07 - M GARCIA informou que deve ser um código de Serviço. Lucas irá pedir para M GARCIA revisar. Compras envou um e-mail com as informações para o Lucas
-08/07 - SC colocada em rota de aprovação</t>
-        </is>
-      </c>
-      <c r="P66" s="65" t="n"/>
-    </row>
-    <row r="67" ht="29.1" customHeight="1" s="3">
-      <c r="A67" s="59" t="inlineStr">
+      <c r="P62" s="70" t="n"/>
+    </row>
+    <row r="63" ht="29.1" customHeight="1" s="3">
+      <c r="A63" s="64" t="inlineStr">
         <is>
           <t>135095582</t>
         </is>
       </c>
-      <c r="B67" s="57" t="inlineStr">
+      <c r="B63" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C67" s="59" t="inlineStr">
+      <c r="C63" s="64" t="inlineStr">
         <is>
           <t>LCP-240185</t>
         </is>
       </c>
-      <c r="D67" s="57" t="inlineStr">
+      <c r="D63" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">AME - PREMIER RPA AUTOMATIC EQUIPMENT </t>
         </is>
       </c>
-      <c r="E67" s="60" t="inlineStr">
+      <c r="E63" s="65" t="inlineStr">
         <is>
           <t>Laboratory Equipments RPA and MDR</t>
         </is>
       </c>
-      <c r="F67" s="60" t="inlineStr">
+      <c r="F63" s="65" t="inlineStr">
         <is>
           <t>Premier RPA (Rubber Process Analyzer AUT;
 Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G67" s="54" t="n">
+      <c r="G63" s="58" t="n">
         <v>45828</v>
       </c>
-      <c r="H67" s="55">
-        <f>IF(M67&lt;&gt;"OK",TODAY()-G67,"OK")</f>
-        <v/>
-      </c>
-      <c r="I67" s="55" t="inlineStr">
+      <c r="H63" s="59">
+        <f>IF(M63&lt;&gt;"OK",TODAY()-G63,"OK")</f>
+        <v/>
+      </c>
+      <c r="I63" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J67" s="57" t="inlineStr">
+      <c r="J63" s="61" t="inlineStr">
         <is>
           <t>RONALDO DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="K67" s="61" t="n">
+      <c r="K63" s="66" t="n">
         <v>170768.25</v>
       </c>
-      <c r="L67" s="57" t="inlineStr">
+      <c r="L63" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M67" s="57" t="inlineStr">
+      <c r="M63" s="61" t="inlineStr">
         <is>
           <t>MITCHELL HOOPER</t>
         </is>
       </c>
-      <c r="N67" s="57" t="inlineStr">
+      <c r="N63" s="61" t="inlineStr">
         <is>
           <t>02.07.2025 13:54:48</t>
         </is>
       </c>
-      <c r="O67" s="71" t="inlineStr">
+      <c r="O63" s="72" t="inlineStr">
         <is>
           <t>04/07 - SC em rota de aprovação</t>
         </is>
       </c>
-      <c r="P67" s="57" t="n"/>
-    </row>
-    <row r="68" ht="159.6" customHeight="1" s="3">
-      <c r="A68" s="59" t="inlineStr">
+      <c r="P63" s="61" t="n"/>
+    </row>
+    <row r="64" ht="159.6" customHeight="1" s="3">
+      <c r="A64" s="64" t="inlineStr">
         <is>
           <t>135095582</t>
         </is>
       </c>
-      <c r="B68" s="57" t="inlineStr">
+      <c r="B64" s="61" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C68" s="59" t="inlineStr">
+      <c r="C64" s="64" t="inlineStr">
         <is>
           <t>LCP-240186</t>
         </is>
       </c>
-      <c r="D68" s="57" t="inlineStr">
+      <c r="D64" s="61" t="inlineStr">
         <is>
           <t>AME - PREMIER MDR AUTOMATIC EQUIPMENT</t>
         </is>
       </c>
-      <c r="E68" s="60" t="inlineStr">
+      <c r="E64" s="65" t="inlineStr">
         <is>
           <t>Laboratory Equipments RPA and MDR</t>
         </is>
       </c>
-      <c r="F68" s="60" t="inlineStr">
+      <c r="F64" s="65" t="inlineStr">
         <is>
           <t>PREMIER MOBILE RHOMETER (MDR)AUT.;
 Instalação e montagem maquinas e apare</t>
         </is>
       </c>
-      <c r="G68" s="54" t="n">
+      <c r="G64" s="58" t="n">
         <v>45828</v>
       </c>
-      <c r="H68" s="55">
-        <f>IF(M68&lt;&gt;"OK",TODAY()-G68,"OK")</f>
-        <v/>
-      </c>
-      <c r="I68" s="55" t="inlineStr">
+      <c r="H64" s="59">
+        <f>IF(M64&lt;&gt;"OK",TODAY()-G64,"OK")</f>
+        <v/>
+      </c>
+      <c r="I64" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J68" s="57" t="inlineStr">
+      <c r="J64" s="61" t="inlineStr">
         <is>
           <t>RONALDO DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="K68" s="61" t="n">
+      <c r="K64" s="66" t="n">
         <v>176379.1</v>
       </c>
-      <c r="L68" s="57" t="inlineStr">
+      <c r="L64" s="61" t="inlineStr">
         <is>
           <t>WADSON SIMOES</t>
         </is>
       </c>
-      <c r="M68" s="57" t="inlineStr">
+      <c r="M64" s="61" t="inlineStr">
         <is>
           <t>MITCHELL HOOPER</t>
         </is>
       </c>
-      <c r="N68" s="57" t="inlineStr">
+      <c r="N64" s="61" t="inlineStr">
         <is>
           <t>02.07.2025 13:54:48</t>
         </is>
       </c>
-      <c r="O68" s="71" t="inlineStr">
+      <c r="O64" s="72" t="inlineStr">
         <is>
           <t>04/07 - SC em rota de aprovação</t>
         </is>
       </c>
-      <c r="P68" s="57" t="n"/>
-    </row>
-    <row r="69" ht="87" customHeight="1" s="3">
-      <c r="A69" s="59" t="inlineStr">
+      <c r="P64" s="61" t="n"/>
+    </row>
+    <row r="65" ht="87" customHeight="1" s="3">
+      <c r="A65" s="64" t="inlineStr">
         <is>
           <t>135142146</t>
         </is>
       </c>
-      <c r="B69" s="57" t="inlineStr">
+      <c r="B65" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C69" s="59" t="inlineStr">
+      <c r="C65" s="64" t="inlineStr">
         <is>
           <t>LCP-250028</t>
         </is>
       </c>
-      <c r="D69" s="57" t="inlineStr">
+      <c r="D65" s="61" t="inlineStr">
         <is>
           <t>MC – MANUAL BALANCER MACHINES - ANCHIETA</t>
         </is>
       </c>
-      <c r="E69" s="60" t="inlineStr">
+      <c r="E65" s="65" t="inlineStr">
         <is>
           <t>Balanceadoras Manuais SWB600 - Anchieta</t>
         </is>
       </c>
-      <c r="F69" s="60" t="inlineStr">
+      <c r="F65" s="65" t="inlineStr">
         <is>
           <t>SUN WHEEL ROCKER</t>
         </is>
       </c>
-      <c r="G69" s="54" t="n">
+      <c r="G65" s="58" t="n">
         <v>45832</v>
       </c>
-      <c r="H69" s="55">
-        <f>IF(M69&lt;&gt;"OK",TODAY()-G69,"OK")</f>
-        <v/>
-      </c>
-      <c r="I69" s="55" t="inlineStr">
+      <c r="H65" s="59">
+        <f>IF(M65&lt;&gt;"OK",TODAY()-G65,"OK")</f>
+        <v/>
+      </c>
+      <c r="I65" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J69" s="57" t="inlineStr">
+      <c r="J65" s="61" t="inlineStr">
         <is>
           <t>RONALDO CAPELLI</t>
         </is>
       </c>
-      <c r="K69" s="61" t="n">
-        <v>110000</v>
-      </c>
-      <c r="L69" s="57" t="inlineStr">
+      <c r="K65" s="66" t="n">
+        <v>89106.66</v>
+      </c>
+      <c r="L65" s="61" t="inlineStr">
         <is>
           <t>ZUSSETTE MANUEL</t>
         </is>
       </c>
-      <c r="M69" s="57" t="inlineStr">
+      <c r="M65" s="61" t="inlineStr">
         <is>
           <t>ZUSSETTE MANUEL</t>
         </is>
       </c>
-      <c r="N69" s="57" t="inlineStr">
+      <c r="N65" s="61" t="inlineStr">
         <is>
           <t>24.06.2025 08:45:14</t>
         </is>
       </c>
-      <c r="O69" s="57" t="inlineStr">
+      <c r="O65" s="61" t="inlineStr">
         <is>
           <t>08/07 - Aguardando cotações da empresa Triders</t>
         </is>
       </c>
-      <c r="P69" s="57" t="n"/>
-    </row>
-    <row r="70" ht="29.1" customHeight="1" s="3">
-      <c r="A70" s="59" t="inlineStr">
+      <c r="P65" s="61" t="n"/>
+    </row>
+    <row r="66" ht="29.1" customHeight="1" s="3">
+      <c r="A66" s="64" t="inlineStr">
         <is>
           <t>135156808</t>
         </is>
       </c>
-      <c r="B70" s="57" t="inlineStr">
+      <c r="B66" s="61" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C70" s="59" t="inlineStr">
+      <c r="C66" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D70" s="57" t="inlineStr">
+      <c r="D66" s="61" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E70" s="60" t="inlineStr">
+      <c r="E66" s="65" t="inlineStr">
         <is>
           <t>LCP-220207 - FP INFRASTRUCTURE CABLES</t>
         </is>
       </c>
-      <c r="F70" s="60" t="inlineStr">
+      <c r="F66" s="65" t="inlineStr">
         <is>
           <t>CABO PP 3X4MM2 - AFUMEX FLEX 0,6 A 1KV;
 CONECTOR MACHO GIRATÓRIO 1"  ALUMÍNIO;
@@ -6068,75 +5786,76 @@
 CONDUTOR ELETRICO 4 MMÃ½ FLEXIVEL BRANCO</t>
         </is>
       </c>
-      <c r="G70" s="54" t="n">
+      <c r="G66" s="58" t="n">
         <v>45833</v>
       </c>
-      <c r="H70" s="55">
-        <f>IF(M70&lt;&gt;"OK",TODAY()-G70,"OK")</f>
-        <v/>
-      </c>
-      <c r="I70" s="55" t="inlineStr">
+      <c r="H66" s="59">
+        <f>IF(M66&lt;&gt;"OK",TODAY()-G66,"OK")</f>
+        <v/>
+      </c>
+      <c r="I66" s="59" t="inlineStr">
         <is>
           <t>Engenharia</t>
         </is>
       </c>
-      <c r="J70" s="57" t="inlineStr">
+      <c r="J66" s="61" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K70" s="61" t="n">
+      <c r="K66" s="66" t="n">
         <v>5502</v>
       </c>
-      <c r="L70" s="57" t="inlineStr">
+      <c r="L66" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M70" s="57" t="inlineStr">
+      <c r="M66" s="61" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="N70" s="57" t="inlineStr">
+      <c r="N66" s="61" t="inlineStr">
         <is>
           <t>25.06.2025 10:08:15</t>
         </is>
       </c>
-      <c r="O70" s="57" t="inlineStr">
-        <is>
-          <t>01/07 - Compras precisar solicitar as cotações (Fornecedores sugeridos: META / DIMENSIONAL / NORTEL)</t>
-        </is>
-      </c>
-      <c r="P70" s="65" t="n"/>
-    </row>
-    <row r="71" ht="217.5" customHeight="1" s="3">
-      <c r="A71" s="59" t="inlineStr">
+      <c r="O66" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01/07 - Compras precisar solicitar as cotações (Fornecedores sugeridos: META / DIMENSIONAL / NORTEL)
+11/07 - there are 2/3 quotes available, so i believe it can be approved on monday </t>
+        </is>
+      </c>
+      <c r="P66" s="70" t="n"/>
+    </row>
+    <row r="67" ht="217.5" customHeight="1" s="3">
+      <c r="A67" s="64" t="inlineStr">
         <is>
           <t>135219955</t>
         </is>
       </c>
-      <c r="B71" s="59" t="inlineStr">
+      <c r="B67" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C71" s="59" t="inlineStr">
+      <c r="C67" s="64" t="inlineStr">
         <is>
           <t>LCP-230159</t>
         </is>
       </c>
-      <c r="D71" s="59" t="inlineStr">
+      <c r="D67" s="64" t="inlineStr">
         <is>
           <t>AME - NR12 - SAFETY REGULARIZATION NT 19 MG R3</t>
         </is>
       </c>
-      <c r="E71" s="72" t="inlineStr">
+      <c r="E67" s="73" t="inlineStr">
         <is>
           <t>Materiais Up Grad  Nesting 19</t>
         </is>
       </c>
-      <c r="F71" s="72" t="inlineStr">
+      <c r="F67" s="73" t="inlineStr">
         <is>
           <t>CONEXÃO RÁPIDA ROSCADA;
 CONEXÃO RÁPIDA L ROSCADA;
@@ -6155,772 +5874,770 @@
 CONEXÃO RÁPIDA ROSCADA QS-3/8-12</t>
         </is>
       </c>
-      <c r="G71" s="73" t="n">
+      <c r="G67" s="74" t="n">
         <v>45838</v>
       </c>
-      <c r="H71" s="55">
-        <f>IF(M71&lt;&gt;"OK",TODAY()-G71,"OK")</f>
-        <v/>
-      </c>
-      <c r="I71" s="59" t="n"/>
-      <c r="J71" s="59" t="inlineStr">
+      <c r="H67" s="59">
+        <f>IF(M67&lt;&gt;"OK",TODAY()-G67,"OK")</f>
+        <v/>
+      </c>
+      <c r="I67" s="64" t="n"/>
+      <c r="J67" s="64" t="inlineStr">
         <is>
           <t>JAIRO DOS SANTOS</t>
         </is>
       </c>
-      <c r="K71" s="74" t="n">
+      <c r="K67" s="75" t="n">
         <v>41828.85</v>
       </c>
-      <c r="L71" s="59" t="inlineStr">
+      <c r="L67" s="64" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="M71" s="59" t="inlineStr">
+      <c r="M67" s="64" t="inlineStr">
         <is>
           <t>CZARINA NICOLE BANAAG</t>
         </is>
       </c>
-      <c r="N71" s="59" t="inlineStr">
+      <c r="N67" s="64" t="inlineStr">
         <is>
           <t>30.06.2025 10:50:22</t>
         </is>
       </c>
-      <c r="O71" s="59" t="inlineStr">
+      <c r="O67" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve">08/07 - Esta SC está substituindo a antiga SC 134106515
 Será encaminahda para a compradora Nicole
 </t>
         </is>
       </c>
-      <c r="P71" s="59" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="59" t="inlineStr">
-        <is>
-          <t>135231815</t>
-        </is>
-      </c>
-      <c r="B72" s="59" t="inlineStr">
+      <c r="P67" s="64" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="64" t="inlineStr">
+        <is>
+          <t>135234800</t>
+        </is>
+      </c>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C68" s="64" t="inlineStr">
+        <is>
+          <t>LCP-230053</t>
+        </is>
+      </c>
+      <c r="D68" s="64" t="inlineStr">
+        <is>
+          <t>UPGRADE E+LCALENDER 3 ROLLS</t>
+        </is>
+      </c>
+      <c r="E68" s="73" t="inlineStr">
+        <is>
+          <t>Validação de EX tarifario maquina E+L</t>
+        </is>
+      </c>
+      <c r="F68" s="73" t="inlineStr">
+        <is>
+          <t>Assessoria e consultoria analise, compil</t>
+        </is>
+      </c>
+      <c r="G68" s="74" t="n">
+        <v>45839</v>
+      </c>
+      <c r="H68" s="59">
+        <f>IF(M68&lt;&gt;"OK",TODAY()-G68,"OK")</f>
+        <v/>
+      </c>
+      <c r="I68" s="64" t="n"/>
+      <c r="J68" s="64" t="inlineStr">
+        <is>
+          <t>JAIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K68" s="75" t="n">
+        <v>9559</v>
+      </c>
+      <c r="L68" s="64" t="inlineStr">
+        <is>
+          <t>CAROLINA MARTINS</t>
+        </is>
+      </c>
+      <c r="M68" s="64" t="inlineStr">
+        <is>
+          <t>CAROLINA MARTINS</t>
+        </is>
+      </c>
+      <c r="N68" s="64" t="inlineStr">
+        <is>
+          <t>01.07.2025 14:03:47</t>
+        </is>
+      </c>
+      <c r="O68" s="64" t="n"/>
+      <c r="P68" s="64" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="64" t="inlineStr">
+        <is>
+          <t>135234818</t>
+        </is>
+      </c>
+      <c r="B69" s="64" t="inlineStr">
+        <is>
+          <t>AMERICANA</t>
+        </is>
+      </c>
+      <c r="C69" s="64" t="inlineStr">
+        <is>
+          <t>LCP-240140</t>
+        </is>
+      </c>
+      <c r="D69" s="64" t="inlineStr">
+        <is>
+          <t>AME - CONSUMER EXPANSION PHASE 2</t>
+        </is>
+      </c>
+      <c r="E69" s="73" t="inlineStr">
+        <is>
+          <t>Validacao de EXtarifario VMI MAXX TBM</t>
+        </is>
+      </c>
+      <c r="F69" s="73" t="inlineStr">
+        <is>
+          <t>Assessoria e consultoria analise, compil</t>
+        </is>
+      </c>
+      <c r="G69" s="74" t="n">
+        <v>45839</v>
+      </c>
+      <c r="H69" s="59">
+        <f>IF(M69&lt;&gt;"OK",TODAY()-G69,"OK")</f>
+        <v/>
+      </c>
+      <c r="I69" s="64" t="n"/>
+      <c r="J69" s="64" t="inlineStr">
+        <is>
+          <t>JAIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K69" s="75" t="n">
+        <v>9559</v>
+      </c>
+      <c r="L69" s="64" t="inlineStr">
+        <is>
+          <t>CAROLINA MARTINS</t>
+        </is>
+      </c>
+      <c r="M69" s="64" t="inlineStr">
+        <is>
+          <t>CAROLINA MARTINS</t>
+        </is>
+      </c>
+      <c r="N69" s="64" t="inlineStr">
+        <is>
+          <t>01.07.2025 14:21:20</t>
+        </is>
+      </c>
+      <c r="O69" s="64" t="n"/>
+      <c r="P69" s="64" t="n"/>
+    </row>
+    <row r="70" ht="43.5" customHeight="1" s="3">
+      <c r="A70" s="64" t="inlineStr">
+        <is>
+          <t>135235663</t>
+        </is>
+      </c>
+      <c r="B70" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C72" s="59" t="inlineStr">
+      <c r="C70" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D72" s="59" t="inlineStr">
+      <c r="D70" s="64" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E72" s="72" t="inlineStr">
-        <is>
-          <t>LCP-220207 - FIRE EXTINGUISHER SUUPORTS.</t>
-        </is>
-      </c>
-      <c r="F72" s="72" t="inlineStr">
-        <is>
-          <t>SUPORTE PARA EXTINTOR COM HASTE</t>
-        </is>
-      </c>
-      <c r="G72" s="73" t="n">
-        <v>45839</v>
-      </c>
-      <c r="H72" s="55">
-        <f>IF(M72&lt;&gt;"OK",TODAY()-G72,"OK")</f>
-        <v/>
-      </c>
-      <c r="I72" s="59" t="n"/>
-      <c r="J72" s="59" t="inlineStr">
-        <is>
-          <t>LUCAS PEREIRA</t>
-        </is>
-      </c>
-      <c r="K72" s="74" t="n">
-        <v>1250</v>
-      </c>
-      <c r="L72" s="59" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="M72" s="59" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="N72" s="59" t="inlineStr">
-        <is>
-          <t>01.07.2025 08:46:28</t>
-        </is>
-      </c>
-      <c r="O72" s="59" t="n"/>
-      <c r="P72" s="59" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="59" t="inlineStr">
-        <is>
-          <t>135234800</t>
-        </is>
-      </c>
-      <c r="B73" s="59" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C73" s="59" t="inlineStr">
-        <is>
-          <t>LCP-230053</t>
-        </is>
-      </c>
-      <c r="D73" s="59" t="inlineStr">
-        <is>
-          <t>UPGRADE E+LCALENDER 3 ROLLS</t>
-        </is>
-      </c>
-      <c r="E73" s="72" t="inlineStr">
-        <is>
-          <t>Validação de EX tarifario maquina E+L</t>
-        </is>
-      </c>
-      <c r="F73" s="72" t="inlineStr">
-        <is>
-          <t>Assessoria e consultoria analise, compil</t>
-        </is>
-      </c>
-      <c r="G73" s="73" t="n">
-        <v>45839</v>
-      </c>
-      <c r="H73" s="55">
-        <f>IF(M73&lt;&gt;"OK",TODAY()-G73,"OK")</f>
-        <v/>
-      </c>
-      <c r="I73" s="59" t="n"/>
-      <c r="J73" s="59" t="inlineStr">
-        <is>
-          <t>JAIRO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K73" s="74" t="n">
-        <v>9559</v>
-      </c>
-      <c r="L73" s="59" t="inlineStr">
-        <is>
-          <t>CAROLINA MARTINS</t>
-        </is>
-      </c>
-      <c r="M73" s="59" t="inlineStr">
-        <is>
-          <t>CAROLINA MARTINS</t>
-        </is>
-      </c>
-      <c r="N73" s="59" t="inlineStr">
-        <is>
-          <t>01.07.2025 14:03:47</t>
-        </is>
-      </c>
-      <c r="O73" s="59" t="n"/>
-      <c r="P73" s="59" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="59" t="inlineStr">
-        <is>
-          <t>135234818</t>
-        </is>
-      </c>
-      <c r="B74" s="59" t="inlineStr">
-        <is>
-          <t>AMERICANA</t>
-        </is>
-      </c>
-      <c r="C74" s="59" t="inlineStr">
-        <is>
-          <t>LCP-240140</t>
-        </is>
-      </c>
-      <c r="D74" s="59" t="inlineStr">
-        <is>
-          <t>AME - CONSUMER EXPANSION PHASE 2</t>
-        </is>
-      </c>
-      <c r="E74" s="72" t="inlineStr">
-        <is>
-          <t>Validacao de EXtarifario VMI MAXX TBM</t>
-        </is>
-      </c>
-      <c r="F74" s="72" t="inlineStr">
-        <is>
-          <t>Assessoria e consultoria analise, compil</t>
-        </is>
-      </c>
-      <c r="G74" s="73" t="n">
-        <v>45839</v>
-      </c>
-      <c r="H74" s="55">
-        <f>IF(M74&lt;&gt;"OK",TODAY()-G74,"OK")</f>
-        <v/>
-      </c>
-      <c r="I74" s="59" t="n"/>
-      <c r="J74" s="59" t="inlineStr">
-        <is>
-          <t>JAIRO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K74" s="74" t="n">
-        <v>9559</v>
-      </c>
-      <c r="L74" s="59" t="inlineStr">
-        <is>
-          <t>CAROLINA MARTINS</t>
-        </is>
-      </c>
-      <c r="M74" s="59" t="inlineStr">
-        <is>
-          <t>CAROLINA MARTINS</t>
-        </is>
-      </c>
-      <c r="N74" s="59" t="inlineStr">
-        <is>
-          <t>01.07.2025 14:21:20</t>
-        </is>
-      </c>
-      <c r="O74" s="59" t="n"/>
-      <c r="P74" s="59" t="n"/>
-    </row>
-    <row r="75" ht="43.5" customHeight="1" s="3">
-      <c r="A75" s="59" t="inlineStr">
-        <is>
-          <t>135235663</t>
-        </is>
-      </c>
-      <c r="B75" s="59" t="inlineStr">
-        <is>
-          <t>MANILA</t>
-        </is>
-      </c>
-      <c r="C75" s="59" t="inlineStr">
-        <is>
-          <t>LCP-220207</t>
-        </is>
-      </c>
-      <c r="D75" s="59" t="inlineStr">
-        <is>
-          <t>AME PIGMENT WEIGHT SYSTEM</t>
-        </is>
-      </c>
-      <c r="E75" s="72" t="inlineStr">
+      <c r="E70" s="73" t="inlineStr">
         <is>
           <t>LCP-220207 - GENERAL ITEMS</t>
         </is>
       </c>
-      <c r="F75" s="72" t="inlineStr">
+      <c r="F70" s="73" t="inlineStr">
         <is>
           <t>TOMADA.SOBREPOR NEGATIVA(MACHO). STECK;
 CAIXA PARA MONTAGEM ELETRICA. REF.CS007;
 DISJ. TERMO MAGNETICO. REF. 1492SPM3C300</t>
         </is>
       </c>
-      <c r="G75" s="73" t="n">
+      <c r="G70" s="74" t="n">
         <v>45839</v>
       </c>
-      <c r="H75" s="55">
-        <f>IF(M75&lt;&gt;"OK",TODAY()-G75,"OK")</f>
-        <v/>
-      </c>
-      <c r="I75" s="59" t="n"/>
-      <c r="J75" s="59" t="inlineStr">
+      <c r="H70" s="59">
+        <f>IF(M70&lt;&gt;"OK",TODAY()-G70,"OK")</f>
+        <v/>
+      </c>
+      <c r="I70" s="64" t="n"/>
+      <c r="J70" s="64" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K75" s="74" t="n">
+      <c r="K70" s="75" t="n">
         <v>420.46</v>
       </c>
-      <c r="L75" s="59" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="M75" s="59" t="inlineStr">
-        <is>
-          <t>CZARINA NICOLE BANAAG</t>
-        </is>
-      </c>
-      <c r="N75" s="59" t="inlineStr">
+      <c r="L70" s="64" t="inlineStr">
+        <is>
+          <t>CHRISTIAN TUMBAGAHAN</t>
+        </is>
+      </c>
+      <c r="M70" s="64" t="inlineStr">
+        <is>
+          <t>CHRISTIAN TUMBAGAHAN</t>
+        </is>
+      </c>
+      <c r="N70" s="64" t="inlineStr">
         <is>
           <t>01.07.2025 15:37:26</t>
         </is>
       </c>
-      <c r="O75" s="59" t="n"/>
-      <c r="P75" s="59" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="59" t="inlineStr">
+      <c r="O70" s="64" t="n"/>
+      <c r="P70" s="64" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="64" t="inlineStr">
         <is>
           <t>135245721</t>
         </is>
       </c>
-      <c r="B76" s="59" t="inlineStr">
+      <c r="B71" s="64" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C76" s="59" t="inlineStr">
+      <c r="C71" s="64" t="inlineStr">
         <is>
           <t>LCP-230206</t>
         </is>
       </c>
-      <c r="D76" s="59" t="inlineStr">
+      <c r="D71" s="64" t="inlineStr">
         <is>
           <t>AME - NEW AWS DRUMS RSX1</t>
         </is>
       </c>
-      <c r="E76" s="72" t="inlineStr">
+      <c r="E71" s="73" t="inlineStr">
         <is>
           <t>SERVIÇO REPARO TAMBOR AWS 22</t>
         </is>
       </c>
-      <c r="F76" s="72" t="inlineStr">
+      <c r="F71" s="73" t="inlineStr">
         <is>
           <t>Lubrificação, limpeza, conserto, manuten</t>
         </is>
       </c>
-      <c r="G76" s="73" t="n">
+      <c r="G71" s="74" t="n">
         <v>45840</v>
       </c>
-      <c r="H76" s="55">
-        <f>IF(M76&lt;&gt;"OK",TODAY()-G76,"OK")</f>
-        <v/>
-      </c>
-      <c r="I76" s="59" t="n"/>
-      <c r="J76" s="59" t="inlineStr">
+      <c r="H71" s="59">
+        <f>IF(M71&lt;&gt;"OK",TODAY()-G71,"OK")</f>
+        <v/>
+      </c>
+      <c r="I71" s="64" t="n"/>
+      <c r="J71" s="64" t="inlineStr">
         <is>
           <t>HELIVELTO DE LIMA</t>
         </is>
       </c>
-      <c r="K76" s="74" t="n">
+      <c r="K71" s="75" t="n">
         <v>77940</v>
       </c>
-      <c r="L76" s="59" t="inlineStr">
+      <c r="L71" s="64" t="inlineStr">
         <is>
           <t>ALEXANDRE SANT ANNA</t>
         </is>
       </c>
-      <c r="M76" s="59" t="inlineStr">
+      <c r="M71" s="64" t="inlineStr">
         <is>
           <t>ALEXANDRE SANT ANNA</t>
         </is>
       </c>
-      <c r="N76" s="59" t="inlineStr">
+      <c r="N71" s="64" t="inlineStr">
         <is>
           <t>02.07.2025 10:48:01</t>
         </is>
       </c>
-      <c r="O76" s="59" t="n"/>
-      <c r="P76" s="59" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="59" t="inlineStr">
+      <c r="O71" s="64" t="n"/>
+      <c r="P71" s="64" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="64" t="inlineStr">
         <is>
           <t>135257532</t>
         </is>
       </c>
-      <c r="B77" s="59" t="inlineStr">
+      <c r="B72" s="64" t="inlineStr">
         <is>
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="C77" s="59" t="inlineStr">
+      <c r="C72" s="64" t="inlineStr">
         <is>
           <t>LCP-240140</t>
         </is>
       </c>
-      <c r="D77" s="59" t="inlineStr">
+      <c r="D72" s="64" t="inlineStr">
         <is>
           <t>AME - CONSUMER EXPANSION PHASE 2</t>
         </is>
       </c>
-      <c r="E77" s="72" t="inlineStr">
+      <c r="E72" s="73" t="inlineStr">
         <is>
           <t>LCP 240140 Fire protection design Ace II</t>
         </is>
       </c>
-      <c r="F77" s="72" t="inlineStr">
+      <c r="F72" s="73" t="inlineStr">
         <is>
           <t>Engenharia, Agronomia, congêneres</t>
         </is>
       </c>
-      <c r="G77" s="73" t="n">
+      <c r="G72" s="74" t="n">
         <v>45841</v>
       </c>
-      <c r="H77" s="55">
-        <f>IF(M77&lt;&gt;"OK",TODAY()-G77,"OK")</f>
-        <v/>
-      </c>
-      <c r="I77" s="59" t="n"/>
-      <c r="J77" s="59" t="inlineStr">
+      <c r="H72" s="59">
+        <f>IF(M72&lt;&gt;"OK",TODAY()-G72,"OK")</f>
+        <v/>
+      </c>
+      <c r="I72" s="64" t="n"/>
+      <c r="J72" s="64" t="inlineStr">
         <is>
           <t>THIAGO MIGUEL RIBEIRO MARTINS</t>
         </is>
       </c>
-      <c r="K77" s="74" t="n">
+      <c r="K72" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="L77" s="59" t="inlineStr">
+      <c r="L72" s="64" t="inlineStr">
         <is>
           <t>KATHERINE OSPINA</t>
         </is>
       </c>
-      <c r="M77" s="59" t="inlineStr">
+      <c r="M72" s="64" t="inlineStr">
         <is>
           <t>KATHERINE OSPINA</t>
         </is>
       </c>
-      <c r="N77" s="59" t="inlineStr">
+      <c r="N72" s="64" t="inlineStr">
         <is>
           <t>03.07.2025 08:33:15</t>
         </is>
       </c>
-      <c r="O77" s="59" t="n"/>
-      <c r="P77" s="59" t="n"/>
-    </row>
-    <row r="78" ht="43.5" customHeight="1" s="3">
-      <c r="A78" s="59" t="inlineStr">
+      <c r="O72" s="64" t="n"/>
+      <c r="P72" s="64" t="n"/>
+    </row>
+    <row r="73" ht="43.5" customHeight="1" s="3">
+      <c r="A73" s="64" t="inlineStr">
         <is>
           <t>135257745</t>
         </is>
       </c>
-      <c r="B78" s="59" t="inlineStr">
+      <c r="B73" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C78" s="59" t="inlineStr">
+      <c r="C73" s="64" t="inlineStr">
         <is>
           <t>LCP-230151</t>
         </is>
       </c>
-      <c r="D78" s="59" t="inlineStr">
+      <c r="D73" s="64" t="inlineStr">
         <is>
           <t>AME - UPG BARCODE READERS PHASE 2 FF B2</t>
         </is>
       </c>
-      <c r="E78" s="72" t="inlineStr">
+      <c r="E73" s="73" t="inlineStr">
         <is>
           <t>LCP-230151-01 - Itens Elétricos</t>
         </is>
       </c>
-      <c r="F78" s="72" t="inlineStr">
+      <c r="F73" s="73" t="inlineStr">
         <is>
           <t>PAINEL MON CS 01.000.605030 600X500X300;
 FONTE ALIMENTACAO MONOFASICA. 100 A 240V;
 TOMADA TRIPOLAR 2P + T. P/ SISTEMA "X"</t>
         </is>
       </c>
-      <c r="G78" s="73" t="n">
+      <c r="G73" s="74" t="n">
         <v>45841</v>
       </c>
-      <c r="H78" s="55">
-        <f>IF(M78&lt;&gt;"OK",TODAY()-G78,"OK")</f>
-        <v/>
-      </c>
-      <c r="I78" s="59" t="n"/>
-      <c r="J78" s="59" t="inlineStr">
+      <c r="H73" s="59">
+        <f>IF(M73&lt;&gt;"OK",TODAY()-G73,"OK")</f>
+        <v/>
+      </c>
+      <c r="I73" s="64" t="n"/>
+      <c r="J73" s="64" t="inlineStr">
         <is>
           <t>EBENEZER DA ROCHA DAINEZ</t>
         </is>
       </c>
-      <c r="K78" s="74" t="n">
+      <c r="K73" s="75" t="n">
         <v>4008</v>
       </c>
-      <c r="L78" s="59" t="inlineStr">
+      <c r="L73" s="64" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="M78" s="59" t="inlineStr">
+      <c r="M73" s="64" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="N78" s="59" t="inlineStr">
+      <c r="N73" s="64" t="inlineStr">
         <is>
           <t>03.07.2025 09:01:36</t>
         </is>
       </c>
-      <c r="O78" s="59" t="n"/>
-      <c r="P78" s="59" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="59" t="inlineStr">
+      <c r="O73" s="64" t="n"/>
+      <c r="P73" s="64" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="64" t="inlineStr">
         <is>
           <t>135260170</t>
         </is>
       </c>
-      <c r="B79" s="59" t="inlineStr">
+      <c r="B74" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C79" s="59" t="inlineStr">
+      <c r="C74" s="64" t="inlineStr">
         <is>
           <t>LCP-230168</t>
         </is>
       </c>
-      <c r="D79" s="59" t="inlineStr">
+      <c r="D74" s="64" t="inlineStr">
         <is>
           <t>AME - NR12 -  SAFETY REGULARIZATION BW#05</t>
         </is>
       </c>
-      <c r="E79" s="72" t="inlineStr">
+      <c r="E74" s="73" t="inlineStr">
         <is>
           <t>LCP-230168 Upgrade Isoladora 05</t>
         </is>
       </c>
-      <c r="F79" s="72" t="inlineStr">
+      <c r="F74" s="73" t="inlineStr">
         <is>
           <t>POWER AMPLIFIER</t>
         </is>
       </c>
-      <c r="G79" s="73" t="n">
+      <c r="G74" s="74" t="n">
         <v>45841</v>
       </c>
-      <c r="H79" s="55">
-        <f>IF(M79&lt;&gt;"OK",TODAY()-G79,"OK")</f>
-        <v/>
-      </c>
-      <c r="I79" s="59" t="n"/>
-      <c r="J79" s="59" t="inlineStr">
+      <c r="H74" s="59">
+        <f>IF(M74&lt;&gt;"OK",TODAY()-G74,"OK")</f>
+        <v/>
+      </c>
+      <c r="I74" s="64" t="n"/>
+      <c r="J74" s="64" t="inlineStr">
         <is>
           <t>FABIANO RICARDO DE CAMPOS OLIVEIRA</t>
         </is>
       </c>
-      <c r="K79" s="74" t="n">
+      <c r="K74" s="75" t="n">
         <v>4125.22</v>
       </c>
-      <c r="L79" s="59" t="inlineStr">
+      <c r="L74" s="64" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="M79" s="59" t="inlineStr">
+      <c r="M74" s="64" t="inlineStr">
         <is>
           <t>JESHURUN EPHRAIM ALBAN</t>
         </is>
       </c>
-      <c r="N79" s="59" t="inlineStr">
+      <c r="N74" s="64" t="inlineStr">
         <is>
           <t>03.07.2025 14:07:23</t>
         </is>
       </c>
-      <c r="O79" s="59" t="n"/>
-      <c r="P79" s="59" t="n"/>
-    </row>
-    <row r="80" ht="30" customHeight="1" s="3">
-      <c r="A80" s="59" t="inlineStr">
+      <c r="O74" s="64" t="n"/>
+      <c r="P74" s="64" t="n"/>
+    </row>
+    <row r="75" ht="30" customHeight="1" s="3">
+      <c r="A75" s="64" t="inlineStr">
         <is>
           <t>135271553</t>
         </is>
       </c>
-      <c r="B80" s="59" t="inlineStr">
+      <c r="B75" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C80" s="59" t="inlineStr">
+      <c r="C75" s="64" t="inlineStr">
         <is>
           <t>LCP-210180</t>
         </is>
       </c>
-      <c r="D80" s="59" t="inlineStr">
+      <c r="D75" s="64" t="inlineStr">
         <is>
           <t>AME -UPGRADE PLC MRT PRESSES (11 PRESSES)</t>
         </is>
       </c>
-      <c r="E80" s="72" t="inlineStr">
+      <c r="E75" s="73" t="inlineStr">
         <is>
           <t>Materiais Para inst. Prensas lcp-210180</t>
         </is>
       </c>
-      <c r="F80" s="72" t="inlineStr">
-        <is>
-          <t>KIT DE MONTAGEM MANIFOLD P/ VALVULA 45A;
-BUCHA REDUCAO DE 1" X 3/4"NPT.3000 LBS</t>
-        </is>
-      </c>
-      <c r="G80" s="73" t="n">
+      <c r="F75" s="73" t="inlineStr">
+        <is>
+          <t>KIT PLATE;
+BUSHING REDUCTION 1" X 3/4"NPT.3000 LBS</t>
+        </is>
+      </c>
+      <c r="G75" s="74" t="n">
         <v>45842</v>
       </c>
-      <c r="H80" s="55">
-        <f>IF(M80&lt;&gt;"OK",TODAY()-G80,"OK")</f>
-        <v/>
-      </c>
-      <c r="I80" s="59" t="n"/>
-      <c r="J80" s="59" t="inlineStr">
+      <c r="H75" s="59">
+        <f>IF(M75&lt;&gt;"OK",TODAY()-G75,"OK")</f>
+        <v/>
+      </c>
+      <c r="I75" s="64" t="n"/>
+      <c r="J75" s="64" t="inlineStr">
         <is>
           <t>JAIRO DOS SANTOS</t>
         </is>
       </c>
-      <c r="K80" s="74" t="n">
-        <v>44755.32</v>
-      </c>
-      <c r="L80" s="59" t="inlineStr">
+      <c r="K75" s="75" t="n">
+        <v>60562.58</v>
+      </c>
+      <c r="L75" s="64" t="inlineStr">
         <is>
           <t>ZUSSETTE MANUEL</t>
         </is>
       </c>
-      <c r="M80" s="59" t="inlineStr">
+      <c r="M75" s="64" t="inlineStr">
         <is>
           <t>ZUSSETTE MANUEL</t>
         </is>
       </c>
-      <c r="N80" s="59" t="inlineStr">
+      <c r="N75" s="64" t="inlineStr">
         <is>
           <t>04.07.2025 11:21:14</t>
         </is>
       </c>
-      <c r="O80" s="59" t="inlineStr">
+      <c r="O75" s="64" t="inlineStr">
         <is>
           <t>08/07 - Compras está aguardando a cotação do fornecedor HMPC para a linha 01</t>
         </is>
       </c>
-      <c r="P80" s="59" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="59" t="inlineStr">
+      <c r="P75" s="64" t="n"/>
+    </row>
+    <row r="76" ht="30" customHeight="1" s="3">
+      <c r="A76" s="64" t="inlineStr">
         <is>
           <t>135306548</t>
         </is>
       </c>
-      <c r="B81" s="59" t="inlineStr">
+      <c r="B76" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C81" s="59" t="inlineStr">
+      <c r="C76" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D81" s="59" t="inlineStr">
+      <c r="D76" s="64" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E81" s="72" t="inlineStr">
+      <c r="E76" s="73" t="inlineStr">
         <is>
           <t>LCP-220207 - CHAIN FOR LIGHT FIXTURES</t>
         </is>
       </c>
-      <c r="F81" s="72" t="inlineStr">
+      <c r="F76" s="73" t="inlineStr">
         <is>
           <t>WELDED LINK CHAIN 3MMX13MMX22MM</t>
         </is>
       </c>
-      <c r="G81" s="73" t="n">
+      <c r="G76" s="74" t="n">
         <v>45845</v>
       </c>
-      <c r="H81" s="55">
-        <f>IF(M81&lt;&gt;"OK",TODAY()-G81,"OK")</f>
-        <v/>
-      </c>
-      <c r="I81" s="59" t="n"/>
-      <c r="J81" s="59" t="inlineStr">
+      <c r="H76" s="59">
+        <f>IF(M76&lt;&gt;"OK",TODAY()-G76,"OK")</f>
+        <v/>
+      </c>
+      <c r="I76" s="64" t="n"/>
+      <c r="J76" s="64" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K81" s="74" t="n">
-        <v>25000</v>
-      </c>
-      <c r="L81" s="59" t="inlineStr">
+      <c r="K76" s="75" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L76" s="64" t="inlineStr">
         <is>
           <t>CLARISE JOY BALITE</t>
         </is>
       </c>
-      <c r="M81" s="59" t="inlineStr">
+      <c r="M76" s="64" t="inlineStr">
         <is>
           <t>CLARISE JOY BALITE</t>
         </is>
       </c>
-      <c r="N81" s="59" t="inlineStr">
+      <c r="N76" s="64" t="inlineStr">
         <is>
           <t>07.07.2025 10:04:27</t>
         </is>
       </c>
-      <c r="O81" s="59" t="n"/>
-      <c r="P81" s="59" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="59" t="inlineStr">
+      <c r="O76" s="76" t="inlineStr">
+        <is>
+          <t>14/07 - Recebemos cotação da RADIAL (De 7 dias negociado para 4 dias prazo de entrega) e ATUAL (10 dias) - esperando resposta do Carlos Matioli se podemos prosseguir com a compra.
+14/07 - SC em rota de aprovação</t>
+        </is>
+      </c>
+      <c r="P76" s="64" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="64" t="inlineStr">
         <is>
           <t>135308502</t>
         </is>
       </c>
-      <c r="B82" s="59" t="inlineStr">
+      <c r="B77" s="64" t="inlineStr">
         <is>
           <t>MANILA</t>
         </is>
       </c>
-      <c r="C82" s="59" t="inlineStr">
+      <c r="C77" s="64" t="inlineStr">
         <is>
           <t>LCP-220207</t>
         </is>
       </c>
-      <c r="D82" s="59" t="inlineStr">
+      <c r="D77" s="64" t="inlineStr">
         <is>
           <t>AME PIGMENT WEIGHT SYSTEM</t>
         </is>
       </c>
-      <c r="E82" s="72" t="inlineStr">
+      <c r="E77" s="73" t="inlineStr">
         <is>
           <t>LCP-220207 - CARABINER FOR LIGHTS FIXTUR</t>
         </is>
       </c>
-      <c r="F82" s="72" t="inlineStr">
+      <c r="F77" s="73" t="inlineStr">
         <is>
           <t>MOSQUETÃO 50X5</t>
         </is>
       </c>
-      <c r="G82" s="73" t="n">
+      <c r="G77" s="74" t="n">
         <v>45845</v>
       </c>
-      <c r="H82" s="55">
-        <f>IF(M82&lt;&gt;"OK",TODAY()-G82,"OK")</f>
-        <v/>
-      </c>
-      <c r="I82" s="59" t="n"/>
-      <c r="J82" s="59" t="inlineStr">
+      <c r="H77" s="59">
+        <f>IF(M77&lt;&gt;"OK",TODAY()-G77,"OK")</f>
+        <v/>
+      </c>
+      <c r="I77" s="64" t="n"/>
+      <c r="J77" s="64" t="inlineStr">
         <is>
           <t>LUCAS PEREIRA</t>
         </is>
       </c>
-      <c r="K82" s="74" t="n">
+      <c r="K77" s="75" t="n">
         <v>780</v>
       </c>
-      <c r="L82" s="59" t="inlineStr">
+      <c r="L77" s="64" t="inlineStr">
         <is>
           <t>CLARISE JOY BALITE</t>
         </is>
       </c>
-      <c r="M82" s="59" t="inlineStr">
+      <c r="M77" s="64" t="inlineStr">
         <is>
           <t>CLARISE JOY BALITE</t>
         </is>
       </c>
-      <c r="N82" s="59" t="inlineStr">
+      <c r="N77" s="64" t="inlineStr">
         <is>
           <t>07.07.2025 13:06:35</t>
         </is>
       </c>
-      <c r="O82" s="59" t="n"/>
-      <c r="P82" s="59" t="n"/>
+      <c r="O77" s="64" t="inlineStr">
+        <is>
+          <t>14/07 - LUITEX e PERSICO - sem cotação. Cobrando ANHANGUERA e CELMAR. Enviei solicitação para GYNTUBOS. Negociando prazo de entrega com Atual (10 dias tambem - aguardando resposta</t>
+        </is>
+      </c>
+      <c r="P77" s="64" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="64" t="inlineStr">
+        <is>
+          <t>135363887</t>
+        </is>
+      </c>
+      <c r="B78" s="64" t="n"/>
+      <c r="C78" s="64" t="inlineStr">
+        <is>
+          <t>LCP-210213</t>
+        </is>
+      </c>
+      <c r="D78" s="64" t="inlineStr">
+        <is>
+          <t>LAPG - CHARGER FOR ELETRIC VEHICLE</t>
+        </is>
+      </c>
+      <c r="E78" s="73" t="inlineStr">
+        <is>
+          <t>LCP-210213 Adequação de SPDA</t>
+        </is>
+      </c>
+      <c r="F78" s="73" t="inlineStr">
+        <is>
+          <t>Execução, empreitada constr.civil</t>
+        </is>
+      </c>
+      <c r="G78" s="64" t="n">
+        <v>45849</v>
+      </c>
+      <c r="H78" s="64" t="n"/>
+      <c r="I78" s="64" t="n"/>
+      <c r="J78" s="64" t="inlineStr">
+        <is>
+          <t>EBENEZER DA ROCHA DAINEZ</t>
+        </is>
+      </c>
+      <c r="K78" s="75" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L78" s="64" t="n"/>
+      <c r="M78" s="64" t="inlineStr">
+        <is>
+          <t>WADSON SIMOES</t>
+        </is>
+      </c>
+      <c r="N78" s="64" t="inlineStr">
+        <is>
+          <t>11.07.2025 16:44:14</t>
+        </is>
+      </c>
+      <c r="O78" s="64" t="n"/>
+      <c r="P78" s="64" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U82"/>
+  <autoFilter ref="A1:U77"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Gestão de SC em aberto - Engenharia de Projetos.xlsx
+++ b/Gestão de SC em aberto - Engenharia de Projetos.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FollowUP-GY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goodyearcorp.sharepoint.com/sites/LAEng/bra/americana/PMO/00.34 Gestão de Shopping Carts em aberto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF1D37-12B9-424F-A285-45FA49B29E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F71632EB59DB330136180756A4841ABE62B58D40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2EDDE1-A3F0-46D0-9065-A861501C1302}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compras" sheetId="1" r:id="rId1"/>
     <sheet name="SC deletadas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Compras!$A$1:$U$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Compras!$A$1:$U$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="434">
   <si>
     <t>SC</t>
   </si>
@@ -478,19 +478,6 @@
     <t>11.02.2025 08:46:16</t>
   </si>
   <si>
-    <t>LCP 230060 Quad 7 fire system design</t>
-  </si>
-  <si>
-    <t>FABIO DA SILVA</t>
-  </si>
-  <si>
-    <t>09.07.2025 10:23:03</t>
-  </si>
-  <si>
-    <t>31/01 - Aguardando revisão técnica Engenharia
-09/07 - SC em rota de aprovação</t>
-  </si>
-  <si>
     <t>132320679</t>
   </si>
   <si>
@@ -548,10 +535,10 @@
     <t>ALEXANDRE SANT ANNA</t>
   </si>
   <si>
-    <t>RICARDO DE MELLO PINTO</t>
-  </si>
-  <si>
-    <t>03.07.2025 14:09:45</t>
+    <t>SARAH PEDROZA</t>
+  </si>
+  <si>
+    <t>14.07.2025 08:24:48</t>
   </si>
   <si>
     <t>03/02 - Enviado o convite visita técnica para os forncedores:  GII, K3, M Garcia com o prazo para o dia 10.02.202
@@ -571,19 +558,7 @@
     <t>MC - CARBON PROJECT 17" - GRAVATAI</t>
   </si>
   <si>
-    <t>Upgrade Mont SemiAut - CM Gravataí</t>
-  </si>
-  <si>
     <t>RONALDO CAPELLI</t>
-  </si>
-  <si>
-    <t>SARAH PEDROZA</t>
-  </si>
-  <si>
-    <t>02.07.2025 10:09:38</t>
-  </si>
-  <si>
-    <t>Compras já realizou a parte dele. Está em rota de aprovação</t>
   </si>
   <si>
     <t>133372834</t>
@@ -688,7 +663,8 @@
     <t>11.06.2025 12:02:47</t>
   </si>
   <si>
-    <t>Trieng, Mgarcia, Proeng, Titan</t>
+    <t>Trieng, Mgarcia, Proeng, Titan
+14/07 - Aguardando aprovação do Scope Change com suplemento de Budget</t>
   </si>
   <si>
     <t>133641752</t>
@@ -750,10 +726,6 @@
   </si>
   <si>
     <t>17.06.2025 15:30:10</t>
-  </si>
-  <si>
-    <t>01/07 - Recebido cotação da JAV e enviado ao Lucas para analisar a parte técnica (foram convidadas também outras empresas (M2X e People Teams) mas não responderam - Aguardando OK do Lucas
-07/07 - Enviado novas solicitações para os fornecedores (People Teams, M2X e ADR). People teams está alinhando a parte técnica com o Lucas</t>
   </si>
   <si>
     <t>133792930</t>
@@ -782,9 +754,6 @@
 29/05 - Aguardando fornecedor encaminhar as propostas, foi feito uma reunião via teams com o requisitante para sanar as duvidas do fornecedor. Prazo 02/06
 04/07 - Aguardando assinatura do contrato pelo jurídico da Goodyear
 </t>
-  </si>
-  <si>
-    <t>134011509</t>
   </si>
   <si>
     <t>LCP-230196</t>
@@ -822,10 +791,6 @@
     <t>08.04.2025 15:46:08</t>
   </si>
   <si>
-    <t>01/07 - Verificando com a FESTO a descrição dos itens.
-08/07 - Enviado e-mail para Gustavo da FESTO solicitando cotação atualizada</t>
-  </si>
-  <si>
     <t>134107128</t>
   </si>
   <si>
@@ -883,6 +848,9 @@
     <t>19.05.2025 14:29:07</t>
   </si>
   <si>
+    <t>Agendado visita técnica para 16/07 - Após isso a SC será encomendada pelo requisitante (Vinicius Pelisari)</t>
+  </si>
+  <si>
     <t>134451929</t>
   </si>
   <si>
@@ -908,9 +876,6 @@
   </si>
   <si>
     <t>07.05.2025 09:04:44</t>
-  </si>
-  <si>
-    <t>08/07 - Fornecedor enviou as propostas técnicas e o Fabiano aprovou tecnicamente. Agora o time de compras está realizando as negociações comerciais</t>
   </si>
   <si>
     <t>134492199</t>
@@ -1006,10 +971,6 @@
     <t>21.05.2025 14:16:13</t>
   </si>
   <si>
-    <t xml:space="preserve">01/07 - Compras irá solicitar cotações a JAV
-</t>
-  </si>
-  <si>
     <t>134691578</t>
   </si>
   <si>
@@ -1050,9 +1011,6 @@
   </si>
   <si>
     <t>17.06.2025 09:57:15</t>
-  </si>
-  <si>
-    <t>134760163</t>
   </si>
   <si>
     <t>LCP-210086</t>
@@ -1145,9 +1103,6 @@
   </si>
   <si>
     <t>01/07 - Compras já realizou a parte deles. SC está em rota de aprovação</t>
-  </si>
-  <si>
-    <t>134892131</t>
   </si>
   <si>
     <t>LCP-210180</t>
@@ -1243,9 +1198,6 @@
     <t>01.07.2025 08:51:53</t>
   </si>
   <si>
-    <t>08/07 - Jeshurun irá enviar as cotações para os possíveis fornecedores</t>
-  </si>
-  <si>
     <t>134906361</t>
   </si>
   <si>
@@ -1282,26 +1234,6 @@
     <t>12.06.2025 11:56:31</t>
   </si>
   <si>
-    <t>LCP-230158</t>
-  </si>
-  <si>
-    <t>AME - NR12 - SAFETY ADEQUACY IN WULO (WULO PHASE 1)</t>
-  </si>
-  <si>
-    <t>Materiais drive para ply cutter Sem cont</t>
-  </si>
-  <si>
-    <t>FILTER LINE;
-KINETIX 5500 H070 MODULE;
-RESISTOR 75 OHM 150W</t>
-  </si>
-  <si>
-    <t>09.07.2025 06:00:57</t>
-  </si>
-  <si>
-    <t>10/07 - Compras já realizou a parte deles. SC está em rota de aprovação</t>
-  </si>
-  <si>
     <t>135054987</t>
   </si>
   <si>
@@ -1311,10 +1243,7 @@
     <t>METARO DOCK STOPPER 380X90X85MM</t>
   </si>
   <si>
-    <t>LUIS VALLE</t>
-  </si>
-  <si>
-    <t>11.07.2025 09:06:16</t>
+    <t>14.07.2025 07:58:13</t>
   </si>
   <si>
     <t>01/07 - Compras está esperando a cotação do fornecedor (M GARCIA e ATUAL)
@@ -1378,9 +1307,6 @@
   </si>
   <si>
     <t>24.06.2025 08:45:14</t>
-  </si>
-  <si>
-    <t>08/07 - Aguardando cotações da empresa Triders</t>
   </si>
   <si>
     <t>135156808</t>
@@ -1400,13 +1326,6 @@
     <t>25.06.2025 10:08:15</t>
   </si>
   <si>
-    <t xml:space="preserve">01/07 - Compras precisar solicitar as cotações (Fornecedores sugeridos: META / DIMENSIONAL / NORTEL)
-11/07 - there are 2/3 quotes available, so i believe it can be approved on monday </t>
-  </si>
-  <si>
-    <t>135219955</t>
-  </si>
-  <si>
     <t>LCP-230159</t>
   </si>
   <si>
@@ -1543,28 +1462,9 @@
     <t>04.07.2025 11:21:14</t>
   </si>
   <si>
-    <t>08/07 - Compras está aguardando a cotação do fornecedor HMPC para a linha 01</t>
-  </si>
-  <si>
-    <t>135306548</t>
-  </si>
-  <si>
-    <t>LCP-220207 - CHAIN FOR LIGHT FIXTURES</t>
-  </si>
-  <si>
-    <t>WELDED LINK CHAIN 3MMX13MMX22MM</t>
-  </si>
-  <si>
     <t>CLARISE JOY BALITE</t>
   </si>
   <si>
-    <t>07.07.2025 10:04:27</t>
-  </si>
-  <si>
-    <t>14/07 - Recebemos cotação da RADIAL (De 7 dias negociado para 4 dias prazo de entrega) e ATUAL (10 dias) - esperando resposta do Carlos Matioli se podemos prosseguir com a compra.
-14/07 - SC em rota de aprovação</t>
-  </si>
-  <si>
     <t>135308502</t>
   </si>
   <si>
@@ -1575,9 +1475,6 @@
   </si>
   <si>
     <t>07.07.2025 13:06:35</t>
-  </si>
-  <si>
-    <t>14/07 - LUITEX e PERSICO - sem cotação. Cobrando ANHANGUERA e CELMAR. Enviei solicitação para GYNTUBOS. Negociando prazo de entrega com Atual (10 dias tambem - aguardando resposta</t>
   </si>
   <si>
     <t>135363887</t>
@@ -1639,6 +1536,62 @@
 04/07 - Contrato está atualmente com a Silvia do Financeiro (após ela tem 3 aprovadores)
 Pedido de compras revisado está com a Elaine (após ela tem o Fabio Carvalho)
 </t>
+  </si>
+  <si>
+    <t>14/07 - Agendado visita técnica para 16/07</t>
+  </si>
+  <si>
+    <t>14/07 - LUITEX e PERSICO - sem cotação. Cobrando ANHANGUERA e CELMAR. Enviei solicitação para GYNTUBOS. Negociando prazo de entrega com Atual (10 dias tambem - aguardando resposta
+15/07 - Atual consegue fornecer em 5 dias. Está sendo negociado com o fornecedor se eles conseguem ficar responsável pelo frete.</t>
+  </si>
+  <si>
+    <t>01/07 - Verificando com a FESTO a descrição dos itens.
+08/07 - Enviado e-mail para Gustavo da FESTO solicitando cotação atualizada
+15/07 - Recebida cotação da FESTO no dia 11. Jeshurum irá analisar a cotação e colocar a SC em rota de aprovação em 15/07</t>
+  </si>
+  <si>
+    <t>08/07 - Jeshurun irá enviar as cotações para os possíveis fornecedores
+15/07 - Solicitado cotação para META / DIMENSIONAL / JAV - Compras está aguardando as cotações</t>
+  </si>
+  <si>
+    <t>15/07 - JAV enviou cotação. Engenharia ja aprovou tecnicamente. Aguardando cotação da META e da empresa DIMENSIONAL para comparar os preços.</t>
+  </si>
+  <si>
+    <t>15/07 - Compras está aguardando cotação de META, DIMENSIONAL, NORTEL e JAV</t>
+  </si>
+  <si>
+    <t>08/07 - Aguardando cotações da empresa Triders
+15/07 - Aguardando resposta do Engenheiro Ronaldo sobre o BAR (Ronaldo está de Férias)</t>
+  </si>
+  <si>
+    <t>08/07 - Compras está aguardando a cotação do fornecedor HMPC para a linha 01
+15/07 - Compras colocou em rota de aprovação</t>
+  </si>
+  <si>
+    <t>15/07 - Compras ja tem cotação da JAV. Estão aguardando cotação da META  e também da CARTHOMS.
+15/07 - Lucas aprovou tecnicamente, inclusive o prazo</t>
+  </si>
+  <si>
+    <t>01/07 - Recebido cotação da JAV e enviado ao Lucas para analisar a parte técnica (foram convidadas também outras empresas (M2X e People Teams) mas não responderam - Aguardando OK do Lucas
+07/07 - Enviado novas solicitações para os fornecedores (People Teams, M2X e ADR). People teams está alinhando a parte técnica com o Lucas
+15/07 - People teams irá enviar a proposta técnica em 15/07 para o Lucas e a ADR está aguardando os documentos técnicos por parte da engenahria</t>
+  </si>
+  <si>
+    <t>15/07 - Compras está aguardando mais detalhes técnicos dos produtos para enviar para o Fabiano analisar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07 - Compras irá solicitar cotações a JAV
+15/07 - Recebido cotação da JAV. Compras está iniciando as negociações comerciais
+</t>
+  </si>
+  <si>
+    <t>15/07 - Engeharia Precisa retirar da SC alguns itens que são de catálogo.</t>
+  </si>
+  <si>
+    <t>01/07 - Compras precisar solicitar as cotações (Fornecedores sugeridos: META / DIMENSIONAL / NORTEL)
+11/07 - there are 2/3 quotes available, so i believe it can be approved on monday 
+15/07 -  Recebido ficha técnica da META e DIMENSIONAL e enviado para Lucas e Carlos analisar tecnicamente
+16/07 - SC em rota de aprovação</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1630,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1693,12 +1646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,7 +1710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1781,13 +1728,13 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1837,13 +1784,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,19 +1846,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1927,8 +1866,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2264,16 +2222,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
@@ -2281,20 +2239,20 @@
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="176.453125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9.26953125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.26953125" style="1"/>
+    <col min="15" max="15" width="176.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="9.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2325,8 @@
         <v>45315</v>
       </c>
       <c r="H2" s="29">
-        <f t="shared" ref="H2:H33" ca="1" si="0">IF(M2&lt;&gt;"OK",TODAY()-G2,"OK")</f>
-        <v>537</v>
+        <f t="shared" ref="H2:H31" ca="1" si="0">IF(M2&lt;&gt;"OK",TODAY()-G2,"OK")</f>
+        <v>539</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>22</v>
@@ -2393,7 +2351,7 @@
       </c>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2417,7 +2375,7 @@
       </c>
       <c r="H3" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>22</v>
@@ -2442,7 +2400,7 @@
       </c>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +2424,7 @@
       </c>
       <c r="H4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>22</v>
@@ -2491,7 +2449,7 @@
       </c>
       <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>44</v>
       </c>
@@ -2515,7 +2473,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>22</v>
@@ -2540,7 +2498,7 @@
       </c>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>131299352</v>
       </c>
@@ -2564,7 +2522,7 @@
       </c>
       <c r="H6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>22</v>
@@ -2587,7 +2545,7 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
     </row>
-    <row r="7" spans="1:16" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>56</v>
       </c>
@@ -2611,7 +2569,7 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>22</v>
@@ -2636,7 +2594,7 @@
       </c>
       <c r="P7" s="31"/>
     </row>
-    <row r="8" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>56</v>
       </c>
@@ -2660,7 +2618,7 @@
       </c>
       <c r="H8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>22</v>
@@ -2685,7 +2643,7 @@
       </c>
       <c r="P8" s="31"/>
     </row>
-    <row r="9" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>67</v>
       </c>
@@ -2709,7 +2667,7 @@
       </c>
       <c r="H9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>22</v>
@@ -2734,7 +2692,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>75</v>
       </c>
@@ -2758,7 +2716,7 @@
       </c>
       <c r="H10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>22</v>
@@ -2779,7 +2737,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>79</v>
       </c>
@@ -2803,7 +2761,7 @@
       </c>
       <c r="H11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>22</v>
@@ -2826,7 +2784,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>83</v>
       </c>
@@ -2850,7 +2808,7 @@
       </c>
       <c r="H12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>22</v>
@@ -2873,7 +2831,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>90</v>
       </c>
@@ -2897,7 +2855,7 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>22</v>
@@ -2920,7 +2878,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
@@ -2944,7 +2902,7 @@
       </c>
       <c r="H14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>22</v>
@@ -2967,7 +2925,7 @@
       </c>
       <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>101</v>
       </c>
@@ -2991,7 +2949,7 @@
       </c>
       <c r="H15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>22</v>
@@ -3018,7 +2976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>106</v>
       </c>
@@ -3042,7 +3000,7 @@
       </c>
       <c r="H16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I16" s="29" t="s">
         <v>22</v>
@@ -3067,7 +3025,7 @@
       </c>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>111</v>
       </c>
@@ -3091,7 +3049,7 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I17" s="29" t="s">
         <v>22</v>
@@ -3118,7 +3076,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>117</v>
       </c>
@@ -3142,7 +3100,7 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I18" s="29" t="s">
         <v>22</v>
@@ -3167,7 +3125,7 @@
       </c>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>124</v>
       </c>
@@ -3191,7 +3149,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>22</v>
@@ -3216,27 +3174,27 @@
       </c>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
-        <v>132302384</v>
+    <row r="20" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="28">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3245,27 +3203,27 @@
       <c r="I20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>32</v>
+      <c r="J20" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="K20" s="30">
-        <v>152000</v>
-      </c>
-      <c r="L20" s="31" t="s">
+        <v>15000</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>130</v>
       </c>
       <c r="N20" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>133</v>
       </c>
@@ -3273,375 +3231,375 @@
         <v>17</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G21" s="28">
-        <v>45576</v>
+        <v>45663</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="30">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="37" t="s">
+      <c r="J21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="37" t="s">
-        <v>135</v>
+      <c r="N21" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="G22" s="28">
-        <v>45663</v>
+        <v>45672</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="36">
-        <v>1000</v>
+        <v>144</v>
+      </c>
+      <c r="K22" s="30">
+        <v>400000</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>148</v>
       </c>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>147</v>
+        <v>29</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="G23" s="28">
-        <v>45672</v>
+        <v>45687</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>148</v>
+      <c r="J23" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="K23" s="30">
-        <v>400000</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>149</v>
+        <v>86063.06</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="24">
-        <v>133275001</v>
+        <v>157</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G24" s="28">
-        <v>45677</v>
+        <v>45688</v>
       </c>
       <c r="H24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="K24" s="30">
-        <v>580000</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>159</v>
+      <c r="M24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="G25" s="28">
-        <v>45687</v>
+        <v>45692</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="29" t="s">
-        <v>163</v>
+      <c r="J25" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="K25" s="30">
-        <v>86063.06</v>
+        <v>100000</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="25" t="s">
+    <row r="26" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>21</v>
+      <c r="C26" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="G26" s="28">
-        <v>45688</v>
+        <v>45698</v>
       </c>
       <c r="H26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="30">
-        <v>1000</v>
+      <c r="J26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="36">
+        <v>3000000</v>
       </c>
       <c r="L26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="27" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="31"/>
+    </row>
+    <row r="27" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="G27" s="28">
-        <v>45692</v>
+        <v>45713</v>
       </c>
       <c r="H27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>41</v>
+      <c r="J27" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="K27" s="30">
-        <v>100000</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>175</v>
+        <v>2</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="G28" s="28">
-        <v>45698</v>
+        <v>45714</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I28" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="K28" s="36">
-        <v>3000000</v>
+        <v>16000</v>
       </c>
       <c r="L28" s="31" t="s">
         <v>24</v>
@@ -3650,417 +3608,413 @@
         <v>24</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P28" s="31"/>
     </row>
-    <row r="29" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="G29" s="28">
-        <v>45713</v>
+        <v>45721</v>
       </c>
       <c r="H29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="29" t="s">
-        <v>156</v>
+      <c r="J29" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="K29" s="30">
-        <v>2</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>24</v>
+        <v>50000</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O29" s="29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G30" s="28">
-        <v>45714</v>
+        <v>45722</v>
       </c>
       <c r="H30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K30" s="36">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="O30" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P30" s="31"/>
-    </row>
-    <row r="31" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="O30" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" spans="1:16" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="G31" s="28">
-        <v>45721</v>
+        <v>45728</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="31" t="s">
-        <v>41</v>
+      <c r="J31" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="K31" s="30">
-        <v>50000</v>
+        <v>32</v>
       </c>
       <c r="L31" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="N31" s="37" t="s">
-        <v>199</v>
+      <c r="N31" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P31" s="29"/>
     </row>
-    <row r="32" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>201</v>
+    <row r="32" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>134011509</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G32" s="28">
-        <v>45722</v>
+        <v>45747</v>
       </c>
       <c r="H32" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <f t="shared" ref="H32:H62" ca="1" si="1">IF(M32&lt;&gt;"OK",TODAY()-G32,"OK")</f>
+        <v>107</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="K32" s="36">
-        <v>3000</v>
+        <v>41828.85</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="O32" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" s="40"/>
-    </row>
-    <row r="33" spans="1:16" ht="130.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="G33" s="28">
-        <v>45728</v>
+        <v>45755</v>
       </c>
       <c r="H33" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="K33" s="30">
-        <v>32</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>88</v>
+        <v>3650000</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="N33" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="O33" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>219</v>
       </c>
       <c r="P33" s="29"/>
     </row>
-    <row r="34" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>219</v>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="G34" s="28">
-        <v>45747</v>
+        <v>45775</v>
       </c>
       <c r="H34" s="29">
-        <f t="shared" ref="H34:H65" ca="1" si="1">IF(M34&lt;&gt;"OK",TODAY()-G34,"OK")</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="I34" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" s="36">
-        <v>41828.85</v>
+        <v>41</v>
+      </c>
+      <c r="K34" s="30">
+        <v>20000</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="O34" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" s="40"/>
-    </row>
-    <row r="35" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="O34" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="29"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="39" t="s">
+      <c r="C35" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>46</v>
+      <c r="F35" s="35" t="s">
+        <v>228</v>
       </c>
       <c r="G35" s="28">
-        <v>45755</v>
+        <v>45778</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="30">
-        <v>3650000</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" s="29" t="s">
+      <c r="J35" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="41" t="s">
+      <c r="K35" s="36">
+        <v>40000</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="N35" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="P35" s="29"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="O35" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="P35" s="31"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="D36" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="E36" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="28">
-        <v>45775</v>
+        <v>45782</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="30">
-        <v>20000</v>
+        <v>32</v>
+      </c>
+      <c r="K36" s="36">
+        <v>5812838</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="O36" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="P36" s="29"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+    </row>
+    <row r="37" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>237</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>238</v>
@@ -4069,99 +4023,105 @@
         <v>239</v>
       </c>
       <c r="G37" s="28">
-        <v>45778</v>
+        <v>45783</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="36">
+        <v>97126.58</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N37" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="K37" s="36">
-        <v>40000</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="N37" s="31" t="s">
+      <c r="O37" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="P37" s="47"/>
+    </row>
+    <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>21</v>
+      <c r="F38" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="G38" s="28">
-        <v>45782</v>
+        <v>45785</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I38" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="36">
-        <v>5812838</v>
+      <c r="J38" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="30">
+        <v>400000</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="29"/>
+    </row>
+    <row r="39" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>248</v>
-      </c>
       <c r="F39" s="35" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="G39" s="28">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" ca="1" si="1"/>
@@ -4171,42 +4131,42 @@
         <v>22</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="K39" s="36">
-        <v>97126.58</v>
-      </c>
-      <c r="L39" s="31" t="s">
-        <v>207</v>
+        <v>100000</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O39" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P39" s="31"/>
     </row>
-    <row r="40" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B40" s="25" t="s">
+    <row r="40" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="C40" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G40" s="28">
@@ -4214,235 +4174,235 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K40" s="30">
+      <c r="J40" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="36">
         <v>400000</v>
       </c>
-      <c r="L40" s="31" t="s">
+      <c r="L40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="P40" s="29"/>
-    </row>
-    <row r="41" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" s="31"/>
+    </row>
+    <row r="41" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G41" s="28">
         <v>45785</v>
       </c>
       <c r="H41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="K41" s="36">
-        <v>100000</v>
-      </c>
-      <c r="L41" s="29" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>252</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="O41" s="31" t="s">
-        <v>259</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O41" s="31"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G42" s="28">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="H42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K42" s="36">
-        <v>400000</v>
-      </c>
-      <c r="L42" s="29" t="s">
+        <v>45000</v>
+      </c>
+      <c r="L42" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M42" s="31" t="s">
         <v>24</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="O42" s="31" t="s">
-        <v>260</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O42" s="31"/>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>261</v>
+    <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="G43" s="28">
-        <v>45785</v>
+        <v>45791</v>
       </c>
       <c r="H43" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="K43" s="36">
-        <v>2</v>
+        <v>35000</v>
       </c>
       <c r="L43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O43" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="M43" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="N43" s="31" t="s">
+      <c r="P43" s="47"/>
+    </row>
+    <row r="44" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
+      <c r="B44" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="D44" s="31" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="G44" s="28">
-        <v>45786</v>
+        <v>45798</v>
       </c>
       <c r="H44" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I44" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="K44" s="36">
-        <v>45000</v>
+        <v>700</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-    </row>
-    <row r="45" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="O44" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="P44" s="47"/>
+    </row>
+    <row r="45" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>271</v>
@@ -4451,540 +4411,538 @@
         <v>272</v>
       </c>
       <c r="G45" s="28">
-        <v>45791</v>
+        <v>45799</v>
       </c>
       <c r="H45" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I45" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="K45" s="36">
-        <v>35000</v>
+        <v>27137.08</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="P45" s="31"/>
-    </row>
-    <row r="46" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P45" s="47"/>
+    </row>
+    <row r="46" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>275</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C46" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>278</v>
-      </c>
       <c r="F46" s="35" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="G46" s="28">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="H46" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="K46" s="36">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="N46" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="P46" s="31"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="O46" s="31" t="s">
+      <c r="B47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="P46" s="40"/>
-    </row>
-    <row r="47" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>283</v>
-      </c>
       <c r="F47" s="35" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="G47" s="28">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="H47" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="31" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="K47" s="36">
-        <v>27137.08</v>
+        <v>30556</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="M47" s="31" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N47" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>134760163</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="O47" s="42" t="s">
+      <c r="F48" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="P47" s="40"/>
-    </row>
-    <row r="48" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>46</v>
-      </c>
       <c r="G48" s="28">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="H48" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="K48" s="36">
-        <v>1</v>
+        <v>130474.78</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O48" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="P48" s="31"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="P48" s="47"/>
+    </row>
+    <row r="49" spans="1:16" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G49" s="28">
-        <v>45800</v>
+        <v>45804</v>
       </c>
       <c r="H49" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J49" s="31" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K49" s="36">
-        <v>30556</v>
+        <v>1</v>
       </c>
       <c r="L49" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M49" s="31" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
     </row>
-    <row r="50" spans="1:16" ht="180" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
-        <v>295</v>
+    <row r="50" spans="1:16" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>134805487</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="G50" s="28">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="H50" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="K50" s="36">
-        <v>130474.78</v>
+        <v>1</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="M50" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="N50" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="O50" s="31"/>
+        <v>24</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="P50" s="31"/>
     </row>
-    <row r="51" spans="1:16" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>28</v>
+        <v>297</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G51" s="28">
-        <v>45804</v>
+        <v>45810</v>
       </c>
       <c r="H51" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="K51" s="36">
-        <v>1</v>
+        <v>900000</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="N51" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-    </row>
-    <row r="52" spans="1:16" ht="391.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="34">
-        <v>134805487</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="34" t="s">
+      <c r="D52" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="E52" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="F52" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="F52" s="39" t="s">
-        <v>46</v>
-      </c>
       <c r="G52" s="28">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="H52" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="K52" s="36">
-        <v>1</v>
+        <v>2254.58</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="O52" s="31" t="s">
+      <c r="N52" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="P52" s="31"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
+      <c r="O52" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>17</v>
+      <c r="P52" s="47"/>
+    </row>
+    <row r="53" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
+        <v>134892131</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="F53" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="28">
-        <v>45810</v>
+      <c r="F53" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="42">
+        <v>45813</v>
       </c>
       <c r="H53" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" s="36">
-        <v>900000</v>
-      </c>
-      <c r="L53" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N53" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="O53" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="43">
+        <v>1542301.83</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="N53" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="P53" s="31"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O53" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="P53" s="48"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>315</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C54" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="F54" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="E54" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>319</v>
-      </c>
       <c r="G54" s="28">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="H54" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="K54" s="36">
-        <v>2254.58</v>
+        <v>0.35</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="M54" s="31" t="s">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="O54" s="42" t="s">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O54" s="31"/>
       <c r="P54" s="31"/>
     </row>
-    <row r="55" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>202</v>
+        <v>315</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="G55" s="44">
-        <v>45813</v>
+        <v>68</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G55" s="28">
+        <v>45814</v>
       </c>
       <c r="H55" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K55" s="45">
-        <v>1542301.83</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="N55" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="O55" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="P55" s="34"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G56" s="28">
         <v>45814</v>
       </c>
       <c r="H56" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>22</v>
@@ -5002,36 +4960,36 @@
         <v>88</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c r="G57" s="28">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="H57" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>22</v>
@@ -5040,54 +4998,54 @@
         <v>32</v>
       </c>
       <c r="K57" s="36">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
       <c r="G58" s="28">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I58" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="31" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K58" s="36">
-        <v>0.35</v>
+        <v>85000</v>
       </c>
       <c r="L58" s="31" t="s">
         <v>24</v>
@@ -5096,512 +5054,506 @@
         <v>88</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O58" s="31"/>
       <c r="P58" s="31"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>46</v>
+        <v>329</v>
       </c>
       <c r="G59" s="28">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="H59" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I59" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J59" s="31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K59" s="36">
-        <v>2</v>
+        <v>3069.79</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="M59" s="31" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-    </row>
-    <row r="60" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="O59" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="P59" s="47"/>
+    </row>
+    <row r="60" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="G60" s="28">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="H60" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="K60" s="36">
-        <v>85000</v>
+        <v>170768.25</v>
       </c>
       <c r="L60" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="N60" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="O60" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="P60" s="31"/>
+    </row>
+    <row r="61" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-    </row>
-    <row r="61" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="34">
-        <v>135041906</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="D61" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="E61" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="E61" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>345</v>
-      </c>
       <c r="G61" s="28">
-        <v>45824</v>
+        <v>45828</v>
       </c>
       <c r="H61" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c r="K61" s="36">
-        <v>26706.46</v>
+        <v>176379.1</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="N61" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="P61" s="31"/>
+    </row>
+    <row r="62" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="O61" s="42" t="s">
+      <c r="E62" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="P61" s="31"/>
-    </row>
-    <row r="62" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="34" t="s">
+      <c r="F62" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>350</v>
-      </c>
       <c r="G62" s="28">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="H62" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I62" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="31" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="K62" s="36">
-        <v>3069.79</v>
+        <v>89106.66</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="M62" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="O62" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="P62" s="47"/>
+    </row>
+    <row r="63" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="N62" s="31" t="s">
+      <c r="B63" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="O62" s="31" t="s">
+      <c r="F63" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="P62" s="40"/>
-    </row>
-    <row r="63" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>358</v>
-      </c>
       <c r="G63" s="28">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="H63" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="H63:H73" ca="1" si="2">IF(M63&lt;&gt;"OK",TODAY()-G63,"OK")</f>
+        <v>21</v>
       </c>
       <c r="I63" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J63" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="36">
+        <v>5502</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="O63" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="P63" s="47"/>
+    </row>
+    <row r="64" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>135219955</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G64" s="42">
+        <v>45838</v>
+      </c>
+      <c r="H64" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K64" s="43">
+        <v>41828.85</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="M64" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="O64" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="K63" s="36">
-        <v>170768.25</v>
-      </c>
-      <c r="L63" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="31" t="s">
+      <c r="P64" s="48"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="N63" s="31" t="s">
+      <c r="B65" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O63" s="42" t="s">
+      <c r="D65" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="P63" s="31"/>
-    </row>
-    <row r="64" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B64" s="31" t="s">
+      <c r="E65" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" s="42">
+        <v>45839</v>
+      </c>
+      <c r="H65" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" s="43">
+        <v>9559</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="D64" s="31" t="s">
+      <c r="C66" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F66" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="E64" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="G64" s="28">
-        <v>45828</v>
-      </c>
-      <c r="H64" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="K64" s="36">
-        <v>176379.1</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="O64" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="P64" s="31"/>
-    </row>
-    <row r="65" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="D65" s="31" t="s">
+      <c r="G66" s="42">
+        <v>45839</v>
+      </c>
+      <c r="H66" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" s="43">
+        <v>9559</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+    </row>
+    <row r="67" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="B67" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="G65" s="28">
-        <v>45832</v>
-      </c>
-      <c r="H65" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="K65" s="36">
-        <v>89106.66</v>
-      </c>
-      <c r="L65" s="31" t="s">
+      <c r="F67" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="M65" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="P65" s="31"/>
-    </row>
-    <row r="66" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="G66" s="28">
-        <v>45833</v>
-      </c>
-      <c r="H66" s="29">
-        <f t="shared" ref="H66:H97" ca="1" si="2">IF(M66&lt;&gt;"OK",TODAY()-G66,"OK")</f>
-        <v>19</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="36">
-        <v>5502</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="N66" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="P66" s="40"/>
-    </row>
-    <row r="67" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="G67" s="44">
-        <v>45838</v>
+      <c r="G67" s="42">
+        <v>45839</v>
       </c>
       <c r="H67" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K67" s="45">
-        <v>41828.85</v>
+        <v>23</v>
+      </c>
+      <c r="K67" s="43">
+        <v>420.46</v>
       </c>
       <c r="L67" s="34" t="s">
-        <v>207</v>
+        <v>372</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>207</v>
+        <v>372</v>
       </c>
       <c r="N67" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="O67" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="P67" s="34"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+      <c r="O67" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P67" s="48"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G68" s="44">
-        <v>45839</v>
+        <v>376</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="42">
+        <v>45840</v>
       </c>
       <c r="H68" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K68" s="45">
-        <v>9559</v>
+        <v>378</v>
+      </c>
+      <c r="K68" s="43">
+        <v>77940</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="O68" s="34"/>
       <c r="P68" s="34"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G69" s="44">
-        <v>45839</v>
+        <v>135</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="42">
+        <v>45841</v>
       </c>
       <c r="H69" s="29">
         <f t="shared" ca="1" si="2"/>
@@ -5609,44 +5561,44 @@
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K69" s="45">
-        <v>9559</v>
+        <v>32</v>
+      </c>
+      <c r="K69" s="43">
+        <v>1</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="O69" s="34"/>
       <c r="P69" s="34"/>
     </row>
-    <row r="70" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G70" s="44">
-        <v>45839</v>
+        <v>385</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" s="42">
+        <v>45841</v>
       </c>
       <c r="H70" s="29">
         <f t="shared" ca="1" si="2"/>
@@ -5654,387 +5606,212 @@
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="45">
-        <v>420.46</v>
+        <v>94</v>
+      </c>
+      <c r="K70" s="43">
+        <v>4008</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="P70" s="48"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" s="44">
-        <v>45840</v>
+        <v>391</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="G71" s="42">
+        <v>45841</v>
       </c>
       <c r="H71" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="K71" s="45">
-        <v>77940</v>
+        <v>47</v>
+      </c>
+      <c r="K71" s="43">
+        <v>4125.22</v>
       </c>
       <c r="L71" s="34" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="N71" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="O71" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="P71" s="48"/>
+    </row>
+    <row r="72" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="44">
-        <v>45841</v>
+        <v>311</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" s="42">
+        <v>45842</v>
       </c>
       <c r="H72" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="45">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="K72" s="43">
+        <v>60562.58</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-    </row>
-    <row r="73" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="O72" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="P72" s="48"/>
+    </row>
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="G73" s="44">
-        <v>45841</v>
+        <v>234</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="G73" s="42">
+        <v>45845</v>
       </c>
       <c r="H73" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K73" s="45">
-        <v>4008</v>
+        <v>23</v>
+      </c>
+      <c r="K73" s="43">
+        <v>780</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="M73" s="34" t="s">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="N73" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="O73" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="P73" s="48"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="G74" s="44">
-        <v>45841</v>
-      </c>
-      <c r="H74" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="34">
+        <v>45849</v>
+      </c>
+      <c r="H74" s="34"/>
       <c r="I74" s="34"/>
       <c r="J74" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K74" s="45">
-        <v>4125.22</v>
+        <v>94</v>
+      </c>
+      <c r="K74" s="43">
+        <v>30000</v>
       </c>
       <c r="L74" s="34" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="O74" s="34"/>
+        <v>407</v>
+      </c>
+      <c r="O74" s="34" t="s">
+        <v>420</v>
+      </c>
       <c r="P74" s="34"/>
     </row>
-    <row r="75" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="G75" s="44">
-        <v>45842</v>
-      </c>
-      <c r="H75" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K75" s="45">
-        <v>60562.58</v>
-      </c>
-      <c r="L75" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="N75" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="O75" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="P75" s="34"/>
-    </row>
-    <row r="76" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="G76" s="44">
-        <v>45845</v>
-      </c>
-      <c r="H76" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" s="45">
-        <v>2000</v>
-      </c>
-      <c r="L76" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="N76" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="O76" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="P76" s="34"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="G77" s="44">
-        <v>45845</v>
-      </c>
-      <c r="H77" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="45">
-        <v>780</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="N77" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="O77" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="P77" s="34"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="44">
-        <v>45849</v>
-      </c>
-      <c r="H78" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K78" s="45">
-        <v>30000</v>
-      </c>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6047,12 +5824,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="69.81640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6102,9 +5879,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
@@ -6112,10 +5889,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="G2" s="13">
         <v>45601</v>
@@ -6128,7 +5905,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="K2" s="15">
         <v>0</v>
@@ -6137,45 +5914,45 @@
         <v>24</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="G3" s="13">
         <v>45184</v>
       </c>
       <c r="H3" s="14">
         <f ca="1">IF(M3&lt;&gt;"OK",TODAY()-G3,"OK")</f>
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="K3" s="20">
         <v>1192906.7</v>
@@ -6184,15 +5961,314 @@
         <v>24</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="19" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="P3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069CA98A47DB13A4F921951A4380D8F44" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="387b3fd5b957240eab82b9b1409eba7b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e37f2a6d-6852-45cb-9edd-51686047de58" xmlns:ns3="4c513b68-d4dc-4374-9e23-57b38fcda683" xmlns:ns4="ede2196a-f95a-4ce9-a5d1-0ad1e2957685" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d0da10df6337e37c1472019baafb1fd" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="e37f2a6d-6852-45cb-9edd-51686047de58"/>
+    <xsd:import namespace="4c513b68-d4dc-4374-9e23-57b38fcda683"/>
+    <xsd:import namespace="ede2196a-f95a-4ce9-a5d1-0ad1e2957685"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e37f2a6d-6852-45cb-9edd-51686047de58" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="15a26052-1bf0-409f-8a84-82be1c828a87" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c513b68-d4dc-4374-9e23-57b38fcda683" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ede2196a-f95a-4ce9-a5d1-0ad1e2957685" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dc9402b2-9bd3-42d8-af8e-fdb9c2bef1c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="58c92835-6d6c-4d60-abd8-3b3884e07b07">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e37f2a6d-6852-45cb-9edd-51686047de58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ede2196a-f95a-4ce9-a5d1-0ad1e2957685" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A685B3-55A9-4EFC-BC5C-668A248F6946}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e37f2a6d-6852-45cb-9edd-51686047de58"/>
+    <ds:schemaRef ds:uri="4c513b68-d4dc-4374-9e23-57b38fcda683"/>
+    <ds:schemaRef ds:uri="ede2196a-f95a-4ce9-a5d1-0ad1e2957685"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF910FB2-F063-4203-BC00-60CAEEA54EFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F20C7E-EF3E-444E-90EE-9167EEF63C83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e37f2a6d-6852-45cb-9edd-51686047de58"/>
+    <ds:schemaRef ds:uri="ede2196a-f95a-4ce9-a5d1-0ad1e2957685"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestão de SC em aberto - Engenharia de Projetos.xlsx
+++ b/Gestão de SC em aberto - Engenharia de Projetos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goodyearcorp.sharepoint.com/sites/LAEng/bra/americana/PMO/00.34 Gestão de Shopping Carts em aberto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FollowUP-GY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F71632EB59DB330136180756A4841ABE62B58D40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2EDDE1-A3F0-46D0-9065-A861501C1302}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601CFBF-C2BD-4549-877C-7D7AFD79EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compras" sheetId="1" r:id="rId1"/>
@@ -2224,14 +2224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O70" sqref="O70"/>
+      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
@@ -2239,20 +2239,20 @@
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.26953125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="176.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="9.28515625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="176.453125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="9.26953125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>36</v>
       </c>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>44</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <v>131299352</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
     </row>
-    <row r="7" spans="1:16" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>56</v>
       </c>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="P7" s="31"/>
     </row>
-    <row r="8" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>56</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="P8" s="31"/>
     </row>
-    <row r="9" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>67</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>75</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>83</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>90</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>101</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>106</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>111</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>117</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>124</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>129</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>133</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>139</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>152</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>159</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>163</v>
       </c>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>169</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="P26" s="31"/>
     </row>
-    <row r="27" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>175</v>
       </c>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>182</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="P28" s="31"/>
     </row>
-    <row r="29" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>187</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>193</v>
       </c>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="P30" s="47"/>
     </row>
-    <row r="31" spans="1:16" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="130.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>201</v>
       </c>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="P31" s="29"/>
     </row>
-    <row r="32" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>134011509</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="P32" s="47"/>
     </row>
-    <row r="33" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>213</v>
       </c>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="P33" s="29"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>220</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="P34" s="29"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>226</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="P35" s="31"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>232</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
     </row>
-    <row r="37" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>237</v>
       </c>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P37" s="47"/>
     </row>
-    <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>241</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>245</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="P39" s="31"/>
     </row>
-    <row r="40" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>245</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="P40" s="31"/>
     </row>
-    <row r="41" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>250</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>254</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
         <v>257</v>
       </c>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="P43" s="47"/>
     </row>
-    <row r="44" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>264</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="P44" s="47"/>
     </row>
-    <row r="45" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>270</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="P45" s="47"/>
     </row>
-    <row r="46" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>275</v>
       </c>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="P46" s="31"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>280</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
     </row>
-    <row r="48" spans="1:16" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34">
         <v>134760163</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="P48" s="47"/>
     </row>
-    <row r="49" spans="1:16" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>288</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
     </row>
-    <row r="50" spans="1:16" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="391.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34">
         <v>134805487</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="P50" s="31"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>296</v>
       </c>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="P51" s="31"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>302</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="P52" s="47"/>
     </row>
-    <row r="53" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="34">
         <v>134892131</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="P53" s="48"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>315</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>315</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>315</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>319</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
     </row>
-    <row r="58" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>322</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="O58" s="31"/>
       <c r="P58" s="31"/>
     </row>
-    <row r="59" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>327</v>
       </c>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="P59" s="47"/>
     </row>
-    <row r="60" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>332</v>
       </c>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="P60" s="31"/>
     </row>
-    <row r="61" spans="1:16" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="159.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>332</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="P61" s="31"/>
     </row>
-    <row r="62" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>344</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="P62" s="47"/>
     </row>
-    <row r="63" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>351</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>45833</v>
       </c>
       <c r="H63" s="29">
-        <f t="shared" ref="H63:H73" ca="1" si="2">IF(M63&lt;&gt;"OK",TODAY()-G63,"OK")</f>
+        <f t="shared" ref="H63:H74" ca="1" si="2">IF(M63&lt;&gt;"OK",TODAY()-G63,"OK")</f>
         <v>21</v>
       </c>
       <c r="I63" s="29" t="s">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P63" s="47"/>
     </row>
-    <row r="64" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34">
         <v>135219955</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="P64" s="48"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>360</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>366</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
     </row>
-    <row r="67" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>369</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="P67" s="48"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>374</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="O68" s="34"/>
       <c r="P68" s="34"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>380</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="O69" s="34"/>
       <c r="P69" s="34"/>
     </row>
-    <row r="70" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>383</v>
       </c>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="P70" s="48"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>389</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="P71" s="48"/>
     </row>
-    <row r="72" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>395</v>
       </c>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="P72" s="48"/>
     </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>399</v>
       </c>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="P73" s="48"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
         <v>403</v>
       </c>
@@ -5785,10 +5785,13 @@
       <c r="F74" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="34">
+      <c r="G74" s="42">
         <v>45849</v>
       </c>
-      <c r="H74" s="34"/>
+      <c r="H74" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="I74" s="34"/>
       <c r="J74" s="34" t="s">
         <v>94</v>
@@ -5824,12 +5827,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="69.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="69.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>408</v>
       </c>
@@ -5922,7 +5925,7 @@
       </c>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>414</v>
       </c>
